--- a/Research Performance Tracker.xlsx
+++ b/Research Performance Tracker.xlsx
@@ -1080,7 +1080,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1826,18 +1826,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1845,8 +1862,89 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1862,9 +1960,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1890,159 +1985,22 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
 </styleSheet>
 </file>
@@ -2359,22 +2317,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
     </row>
     <row r="2" spans="1:14" s="84" customFormat="1">
       <c r="A2" s="84" t="s">
@@ -2424,30 +2382,30 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
@@ -2517,35 +2475,35 @@
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="115"/>
-      <c r="O30" s="118" t="s">
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="111"/>
+      <c r="O30" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="119"/>
-      <c r="T30" s="119"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="119"/>
-      <c r="W30" s="119"/>
-      <c r="X30" s="119"/>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="119"/>
-      <c r="AA30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="120"/>
+      <c r="AA30" s="121"/>
     </row>
     <row r="31" spans="1:27" ht="15" thickTop="1">
       <c r="A31" s="5" t="s">
@@ -2616,17 +2574,17 @@
       <c r="AA33" s="39"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="123" t="s">
+      <c r="A34" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
@@ -2663,9 +2621,9 @@
       <c r="G35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="124"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
@@ -2767,108 +2725,108 @@
       <c r="AA38" s="39"/>
     </row>
     <row r="39" spans="1:27" ht="45" customHeight="1">
-      <c r="A39" s="126" t="s">
+      <c r="A39" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="128" t="s">
+      <c r="B39" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="93" t="s">
+      <c r="D39" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="93" t="s">
+      <c r="E39" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="95" t="s">
+      <c r="F39" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="95" t="s">
+      <c r="G39" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="95" t="s">
+      <c r="H39" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="93" t="s">
+      <c r="I39" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="93" t="s">
+      <c r="J39" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="93" t="s">
+      <c r="K39" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="93" t="s">
+      <c r="L39" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="121" t="s">
+      <c r="O39" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="P39" s="111" t="s">
+      <c r="P39" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="111" t="s">
+      <c r="Q39" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="R39" s="111" t="s">
+      <c r="R39" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="S39" s="111" t="s">
+      <c r="S39" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="T39" s="111" t="s">
+      <c r="T39" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="U39" s="111" t="s">
+      <c r="U39" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="V39" s="111" t="s">
+      <c r="V39" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="W39" s="111" t="s">
+      <c r="W39" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="X39" s="111" t="s">
+      <c r="X39" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="Y39" s="111" t="s">
+      <c r="Y39" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="Z39" s="111" t="s">
+      <c r="Z39" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AA39" s="116" t="s">
+      <c r="AA39" s="117" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="127"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
-      <c r="O40" s="121"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="111"/>
-      <c r="X40" s="111"/>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="111"/>
-      <c r="AA40" s="116"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="101"/>
+      <c r="Z40" s="101"/>
+      <c r="AA40" s="117"/>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="27" t="s">
@@ -3194,22 +3152,22 @@
       <c r="AA44" s="78"/>
     </row>
     <row r="45" spans="1:27" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="101" t="s">
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="5" t="s">
@@ -3217,50 +3175,50 @@
       </c>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="135" t="s">
+      <c r="A49" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="136"/>
+      <c r="B49" s="105"/>
       <c r="C49" s="65"/>
       <c r="D49" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="137" t="s">
+      <c r="A50" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="138"/>
+      <c r="B50" s="107"/>
       <c r="C50" s="66"/>
       <c r="D50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="137" t="s">
+      <c r="A51" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="138"/>
+      <c r="B51" s="107"/>
       <c r="C51" s="66"/>
       <c r="D51" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="135" t="s">
+      <c r="A52" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="136"/>
+      <c r="B52" s="105"/>
       <c r="C52" s="65"/>
       <c r="D52" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="137" t="s">
+      <c r="A53" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="138"/>
+      <c r="B53" s="107"/>
       <c r="C53" s="66"/>
       <c r="D53" s="4" t="s">
         <v>53</v>
@@ -3270,10 +3228,10 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A54" s="135" t="s">
+      <c r="A54" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="136"/>
+      <c r="B54" s="105"/>
       <c r="C54" s="65"/>
       <c r="D54" s="4" t="s">
         <v>55</v>
@@ -3286,10 +3244,10 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A55" s="135" t="s">
+      <c r="A55" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="136"/>
+      <c r="B55" s="105"/>
       <c r="C55" s="65"/>
       <c r="D55" s="4" t="s">
         <v>55</v>
@@ -3302,60 +3260,60 @@
       </c>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="97"/>
+      <c r="B56" s="129"/>
       <c r="C56" s="80"/>
       <c r="D56" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="98" t="s">
+      <c r="A57" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="98"/>
+      <c r="B57" s="130"/>
       <c r="C57" s="80"/>
       <c r="D57" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="99" t="s">
+      <c r="A58" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="100"/>
+      <c r="B58" s="132"/>
       <c r="C58" s="81"/>
       <c r="D58" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="99" t="s">
+      <c r="A59" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="100"/>
+      <c r="B59" s="132"/>
       <c r="C59" s="81"/>
       <c r="D59" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="129" t="s">
+      <c r="A60" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="129"/>
+      <c r="B60" s="114"/>
       <c r="C60" s="81"/>
       <c r="D60" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="130" t="s">
+      <c r="A61" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="130"/>
+      <c r="B61" s="108"/>
       <c r="C61" s="82"/>
       <c r="D61" s="4" t="s">
         <v>105</v>
@@ -3365,10 +3323,10 @@
       </c>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="131" t="s">
+      <c r="A62" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="132"/>
+      <c r="B62" s="116"/>
       <c r="C62" s="82"/>
       <c r="D62" s="4" t="s">
         <v>55</v>
@@ -3378,10 +3336,10 @@
       </c>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="131" t="s">
+      <c r="A63" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="132"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="82"/>
       <c r="D63" s="4" t="s">
         <v>55</v>
@@ -3391,40 +3349,40 @@
       </c>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="131" t="s">
+      <c r="A64" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="132"/>
+      <c r="B64" s="116"/>
       <c r="C64" s="82"/>
       <c r="D64" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="131" t="s">
+      <c r="A65" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="132"/>
+      <c r="B65" s="116"/>
       <c r="C65" s="82"/>
       <c r="D65" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="130" t="s">
+      <c r="A66" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="130"/>
+      <c r="B66" s="108"/>
       <c r="C66" s="82"/>
       <c r="D66" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="130" t="s">
+      <c r="A67" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="130"/>
+      <c r="B67" s="108"/>
       <c r="C67" s="82"/>
       <c r="D67" s="4" t="str">
         <f>D61</f>
@@ -3432,20 +3390,20 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="130" t="s">
+      <c r="A68" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="130"/>
+      <c r="B68" s="108"/>
       <c r="C68" s="82"/>
       <c r="D68" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="130" t="s">
+      <c r="A69" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="130"/>
+      <c r="B69" s="108"/>
       <c r="C69" s="82"/>
       <c r="D69" s="4" t="s">
         <v>55</v>
@@ -3455,10 +3413,10 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="130" t="s">
+      <c r="A70" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="130"/>
+      <c r="B70" s="108"/>
       <c r="C70" s="82"/>
       <c r="D70" s="4" t="s">
         <v>55</v>
@@ -3468,10 +3426,10 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="130" t="s">
+      <c r="A71" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="130"/>
+      <c r="B71" s="108"/>
       <c r="C71" s="82"/>
       <c r="D71" s="4" t="s">
         <v>55</v>
@@ -3481,10 +3439,10 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="130" t="s">
+      <c r="A72" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="130"/>
+      <c r="B72" s="108"/>
       <c r="C72" s="82"/>
       <c r="D72" s="4" t="s">
         <v>55</v>
@@ -3494,10 +3452,10 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="130" t="s">
+      <c r="A73" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="130"/>
+      <c r="B73" s="108"/>
       <c r="C73" s="82"/>
       <c r="D73" s="4" t="s">
         <v>55</v>
@@ -3507,10 +3465,10 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="130" t="s">
+      <c r="A74" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="130"/>
+      <c r="B74" s="108"/>
       <c r="C74" s="82"/>
       <c r="D74" s="4" t="s">
         <v>55</v>
@@ -3520,10 +3478,10 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="130" t="s">
+      <c r="A75" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="130"/>
+      <c r="B75" s="108"/>
       <c r="C75" s="82"/>
       <c r="D75" s="4" t="s">
         <v>55</v>
@@ -3533,10 +3491,10 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="130" t="s">
+      <c r="A76" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="130"/>
+      <c r="B76" s="108"/>
       <c r="C76" s="82"/>
       <c r="D76" s="4" t="s">
         <v>55</v>
@@ -3546,10 +3504,10 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="130" t="s">
+      <c r="A77" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="130"/>
+      <c r="B77" s="108"/>
       <c r="C77" s="82"/>
       <c r="D77" s="4" t="s">
         <v>55</v>
@@ -3559,10 +3517,10 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="130" t="s">
+      <c r="A78" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="130"/>
+      <c r="B78" s="108"/>
       <c r="C78" s="82"/>
       <c r="D78" s="4" t="s">
         <v>55</v>
@@ -3584,38 +3542,38 @@
       <c r="H81" s="22"/>
     </row>
     <row r="82" spans="1:33" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="114"/>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="114"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="114"/>
-      <c r="K82" s="114"/>
-      <c r="L82" s="115"/>
-      <c r="O82" s="139" t="s">
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="110"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="110"/>
+      <c r="J82" s="110"/>
+      <c r="K82" s="110"/>
+      <c r="L82" s="111"/>
+      <c r="O82" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="P82" s="140"/>
-      <c r="Q82" s="140"/>
-      <c r="R82" s="140"/>
-      <c r="S82" s="140"/>
-      <c r="T82" s="140"/>
-      <c r="U82" s="140"/>
-      <c r="V82" s="140"/>
-      <c r="W82" s="140"/>
-      <c r="X82" s="140"/>
-      <c r="Y82" s="140"/>
-      <c r="Z82" s="140"/>
-      <c r="AA82" s="140"/>
-      <c r="AB82" s="140"/>
-      <c r="AC82" s="140"/>
-      <c r="AD82" s="141"/>
+      <c r="P82" s="90"/>
+      <c r="Q82" s="90"/>
+      <c r="R82" s="90"/>
+      <c r="S82" s="90"/>
+      <c r="T82" s="90"/>
+      <c r="U82" s="90"/>
+      <c r="V82" s="90"/>
+      <c r="W82" s="90"/>
+      <c r="X82" s="90"/>
+      <c r="Y82" s="90"/>
+      <c r="Z82" s="90"/>
+      <c r="AA82" s="90"/>
+      <c r="AB82" s="90"/>
+      <c r="AC82" s="90"/>
+      <c r="AD82" s="91"/>
       <c r="AE82" s="79"/>
     </row>
     <row r="83" spans="1:33" ht="15" thickTop="1">
@@ -3692,17 +3650,17 @@
       <c r="AD85" s="52"/>
     </row>
     <row r="86" spans="1:33">
-      <c r="A86" s="123" t="s">
+      <c r="A86" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="123"/>
-      <c r="C86" s="123"/>
-      <c r="D86" s="123"/>
-      <c r="E86" s="123"/>
-      <c r="F86" s="123"/>
-      <c r="G86" s="123"/>
-      <c r="H86" s="123"/>
-      <c r="I86" s="123"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="92"/>
+      <c r="I86" s="92"/>
       <c r="O86" s="51"/>
       <c r="P86" s="38"/>
       <c r="Q86" s="38"/>
@@ -3742,9 +3700,9 @@
       <c r="G87" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="124"/>
-      <c r="L87" s="125"/>
-      <c r="M87" s="125"/>
+      <c r="K87" s="93"/>
+      <c r="L87" s="94"/>
+      <c r="M87" s="94"/>
       <c r="O87" s="51"/>
       <c r="P87" s="38"/>
       <c r="Q87" s="38"/>
@@ -3858,31 +3816,31 @@
       <c r="AD90" s="52"/>
     </row>
     <row r="91" spans="1:33" ht="45" customHeight="1">
-      <c r="A91" s="126" t="s">
+      <c r="A91" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="128" t="s">
+      <c r="B91" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="104" t="s">
+      <c r="C91" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="D91" s="110" t="s">
+      <c r="D91" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="93" t="s">
+      <c r="E91" s="98" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="93" t="s">
+      <c r="G91" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H91" s="133" t="s">
+      <c r="H91" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="93" t="s">
+      <c r="I91" s="98" t="s">
         <v>22</v>
       </c>
       <c r="J91" s="24" t="s">
@@ -3897,85 +3855,85 @@
       <c r="M91" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O91" s="110" t="s">
+      <c r="O91" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="P91" s="111" t="s">
+      <c r="P91" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="Q91" s="111" t="s">
+      <c r="Q91" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="R91" s="111" t="s">
+      <c r="R91" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="S91" s="111" t="s">
+      <c r="S91" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="T91" s="111" t="s">
+      <c r="T91" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="U91" s="111" t="s">
+      <c r="U91" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="V91" s="111" t="s">
+      <c r="V91" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="W91" s="111" t="s">
+      <c r="W91" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="X91" s="111" t="s">
+      <c r="X91" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="Y91" s="111" t="s">
+      <c r="Y91" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="Z91" s="111" t="s">
+      <c r="Z91" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AA91" s="111" t="s">
+      <c r="AA91" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="AB91" s="111" t="s">
+      <c r="AB91" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="AC91" s="111" t="s">
+      <c r="AC91" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="AD91" s="112" t="s">
+      <c r="AD91" s="102" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:33">
-      <c r="A92" s="127"/>
-      <c r="B92" s="128"/>
-      <c r="C92" s="105"/>
-      <c r="D92" s="110"/>
-      <c r="E92" s="94"/>
+      <c r="A92" s="96"/>
+      <c r="B92" s="97"/>
+      <c r="C92" s="136"/>
+      <c r="D92" s="100"/>
+      <c r="E92" s="99"/>
       <c r="F92" s="26"/>
-      <c r="G92" s="94"/>
-      <c r="H92" s="134"/>
-      <c r="I92" s="94"/>
+      <c r="G92" s="99"/>
+      <c r="H92" s="113"/>
+      <c r="I92" s="99"/>
       <c r="J92" s="26"/>
       <c r="K92" s="26"/>
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
-      <c r="O92" s="110"/>
-      <c r="P92" s="111"/>
-      <c r="Q92" s="111"/>
-      <c r="R92" s="111"/>
-      <c r="S92" s="111"/>
-      <c r="T92" s="111"/>
-      <c r="U92" s="111"/>
-      <c r="V92" s="111"/>
-      <c r="W92" s="111"/>
-      <c r="X92" s="111"/>
-      <c r="Y92" s="111"/>
-      <c r="Z92" s="111"/>
-      <c r="AA92" s="111"/>
-      <c r="AB92" s="111"/>
-      <c r="AC92" s="111"/>
-      <c r="AD92" s="112"/>
+      <c r="O92" s="100"/>
+      <c r="P92" s="101"/>
+      <c r="Q92" s="101"/>
+      <c r="R92" s="101"/>
+      <c r="S92" s="101"/>
+      <c r="T92" s="101"/>
+      <c r="U92" s="101"/>
+      <c r="V92" s="101"/>
+      <c r="W92" s="101"/>
+      <c r="X92" s="101"/>
+      <c r="Y92" s="101"/>
+      <c r="Z92" s="101"/>
+      <c r="AA92" s="101"/>
+      <c r="AB92" s="101"/>
+      <c r="AC92" s="101"/>
+      <c r="AD92" s="102"/>
     </row>
     <row r="93" spans="1:33" ht="15">
       <c r="A93" s="1" t="s">
@@ -4354,23 +4312,23 @@
       </c>
     </row>
     <row r="97" spans="1:31" ht="63" customHeight="1" thickTop="1">
-      <c r="A97" s="102" t="s">
+      <c r="A97" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="103"/>
-      <c r="C97" s="103"/>
-      <c r="D97" s="103"/>
-      <c r="E97" s="103"/>
-      <c r="F97" s="103"/>
-      <c r="G97" s="103"/>
-      <c r="H97" s="103"/>
-      <c r="I97" s="103"/>
-      <c r="J97" s="101" t="s">
+      <c r="B97" s="134"/>
+      <c r="C97" s="134"/>
+      <c r="D97" s="134"/>
+      <c r="E97" s="134"/>
+      <c r="F97" s="134"/>
+      <c r="G97" s="134"/>
+      <c r="H97" s="134"/>
+      <c r="I97" s="134"/>
+      <c r="J97" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="K97" s="101"/>
-      <c r="L97" s="101"/>
-      <c r="M97" s="101"/>
+      <c r="K97" s="125"/>
+      <c r="L97" s="125"/>
+      <c r="M97" s="125"/>
     </row>
     <row r="98" spans="1:31" s="64" customFormat="1">
       <c r="A98" s="72"/>
@@ -4392,60 +4350,60 @@
       </c>
     </row>
     <row r="101" spans="1:31">
-      <c r="A101" s="111" t="s">
+      <c r="A101" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="111"/>
+      <c r="B101" s="101"/>
       <c r="C101" s="83"/>
       <c r="D101" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:31">
-      <c r="A102" s="111" t="s">
+      <c r="A102" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B102" s="111"/>
+      <c r="B102" s="101"/>
       <c r="C102" s="83"/>
       <c r="D102" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:31">
-      <c r="A103" s="111" t="s">
+      <c r="A103" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="111"/>
+      <c r="B103" s="101"/>
       <c r="C103" s="83"/>
       <c r="D103" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:31">
-      <c r="A104" s="111" t="s">
+      <c r="A104" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="B104" s="111"/>
+      <c r="B104" s="101"/>
       <c r="C104" s="83"/>
       <c r="D104" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:31">
-      <c r="A105" s="111" t="s">
+      <c r="A105" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="B105" s="111"/>
+      <c r="B105" s="101"/>
       <c r="C105" s="83"/>
       <c r="D105" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:31">
-      <c r="A106" s="112" t="s">
+      <c r="A106" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B106" s="112"/>
+      <c r="B106" s="102"/>
       <c r="C106" s="83"/>
       <c r="D106" s="4" t="s">
         <v>81</v>
@@ -4464,39 +4422,39 @@
       <c r="H110" s="22"/>
     </row>
     <row r="111" spans="1:31" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A111" s="113" t="s">
+      <c r="A111" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B111" s="114"/>
-      <c r="C111" s="114"/>
-      <c r="D111" s="114"/>
-      <c r="E111" s="114"/>
-      <c r="F111" s="114"/>
-      <c r="G111" s="114"/>
-      <c r="H111" s="114"/>
-      <c r="I111" s="114"/>
-      <c r="J111" s="114"/>
-      <c r="K111" s="114"/>
-      <c r="L111" s="115"/>
-      <c r="O111" s="139" t="s">
+      <c r="B111" s="110"/>
+      <c r="C111" s="110"/>
+      <c r="D111" s="110"/>
+      <c r="E111" s="110"/>
+      <c r="F111" s="110"/>
+      <c r="G111" s="110"/>
+      <c r="H111" s="110"/>
+      <c r="I111" s="110"/>
+      <c r="J111" s="110"/>
+      <c r="K111" s="110"/>
+      <c r="L111" s="111"/>
+      <c r="O111" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="P111" s="140"/>
-      <c r="Q111" s="140"/>
-      <c r="R111" s="140"/>
-      <c r="S111" s="140"/>
-      <c r="T111" s="140"/>
-      <c r="U111" s="140"/>
-      <c r="V111" s="140"/>
-      <c r="W111" s="140"/>
-      <c r="X111" s="140"/>
-      <c r="Y111" s="140"/>
-      <c r="Z111" s="140"/>
-      <c r="AA111" s="140"/>
-      <c r="AB111" s="140"/>
-      <c r="AC111" s="140"/>
-      <c r="AD111" s="140"/>
-      <c r="AE111" s="141"/>
+      <c r="P111" s="90"/>
+      <c r="Q111" s="90"/>
+      <c r="R111" s="90"/>
+      <c r="S111" s="90"/>
+      <c r="T111" s="90"/>
+      <c r="U111" s="90"/>
+      <c r="V111" s="90"/>
+      <c r="W111" s="90"/>
+      <c r="X111" s="90"/>
+      <c r="Y111" s="90"/>
+      <c r="Z111" s="90"/>
+      <c r="AA111" s="90"/>
+      <c r="AB111" s="90"/>
+      <c r="AC111" s="90"/>
+      <c r="AD111" s="90"/>
+      <c r="AE111" s="91"/>
     </row>
     <row r="112" spans="1:31" ht="15" thickTop="1">
       <c r="A112" s="5" t="s">
@@ -4575,17 +4533,17 @@
       <c r="AE114" s="52"/>
     </row>
     <row r="115" spans="1:34">
-      <c r="A115" s="123" t="s">
+      <c r="A115" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="123"/>
-      <c r="C115" s="123"/>
-      <c r="D115" s="123"/>
-      <c r="E115" s="123"/>
-      <c r="F115" s="123"/>
-      <c r="G115" s="123"/>
-      <c r="H115" s="123"/>
-      <c r="I115" s="123"/>
+      <c r="B115" s="92"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="92"/>
+      <c r="E115" s="92"/>
+      <c r="F115" s="92"/>
+      <c r="G115" s="92"/>
+      <c r="H115" s="92"/>
+      <c r="I115" s="92"/>
       <c r="O115" s="51"/>
       <c r="P115" s="38"/>
       <c r="Q115" s="38"/>
@@ -4628,9 +4586,9 @@
       <c r="I116" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K116" s="124"/>
-      <c r="L116" s="125"/>
-      <c r="M116" s="125"/>
+      <c r="K116" s="93"/>
+      <c r="L116" s="94"/>
+      <c r="M116" s="94"/>
       <c r="O116" s="51"/>
       <c r="P116" s="38"/>
       <c r="Q116" s="38"/>
@@ -4750,28 +4708,28 @@
       <c r="AE119" s="52"/>
     </row>
     <row r="120" spans="1:34" ht="45" customHeight="1">
-      <c r="A120" s="126" t="s">
+      <c r="A120" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="128" t="s">
+      <c r="B120" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C120" s="104" t="s">
+      <c r="C120" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="108" t="s">
+      <c r="D120" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="93" t="s">
+      <c r="E120" s="98" t="s">
         <v>122</v>
       </c>
       <c r="F120" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G120" s="93" t="s">
+      <c r="G120" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H120" s="106" t="s">
+      <c r="H120" s="137" t="s">
         <v>27</v>
       </c>
       <c r="I120" s="25" t="s">
@@ -4789,89 +4747,89 @@
       <c r="M120" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O120" s="110" t="s">
+      <c r="O120" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="P120" s="111" t="s">
+      <c r="P120" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="Q120" s="111" t="s">
+      <c r="Q120" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="R120" s="111" t="s">
+      <c r="R120" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="S120" s="111" t="s">
+      <c r="S120" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="T120" s="111" t="s">
+      <c r="T120" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="U120" s="111" t="s">
+      <c r="U120" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="V120" s="111" t="s">
+      <c r="V120" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="W120" s="111" t="s">
+      <c r="W120" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="X120" s="111" t="s">
+      <c r="X120" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="Y120" s="111" t="s">
+      <c r="Y120" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="Z120" s="111" t="s">
+      <c r="Z120" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AA120" s="111" t="s">
+      <c r="AA120" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="AB120" s="111" t="s">
+      <c r="AB120" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="AC120" s="142" t="s">
+      <c r="AC120" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="AD120" s="111" t="s">
+      <c r="AD120" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="AE120" s="112" t="s">
+      <c r="AE120" s="102" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:34">
-      <c r="A121" s="127"/>
-      <c r="B121" s="128"/>
-      <c r="C121" s="105"/>
-      <c r="D121" s="109"/>
-      <c r="E121" s="94"/>
+      <c r="A121" s="96"/>
+      <c r="B121" s="97"/>
+      <c r="C121" s="136"/>
+      <c r="D121" s="140"/>
+      <c r="E121" s="99"/>
       <c r="F121" s="26"/>
-      <c r="G121" s="94"/>
-      <c r="H121" s="107"/>
+      <c r="G121" s="99"/>
+      <c r="H121" s="138"/>
       <c r="I121" s="25"/>
       <c r="J121" s="26"/>
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
       <c r="M121" s="26"/>
-      <c r="O121" s="110"/>
-      <c r="P121" s="111"/>
-      <c r="Q121" s="111"/>
-      <c r="R121" s="111"/>
-      <c r="S121" s="111"/>
-      <c r="T121" s="111"/>
-      <c r="U121" s="111"/>
-      <c r="V121" s="111"/>
-      <c r="W121" s="111"/>
-      <c r="X121" s="111"/>
-      <c r="Y121" s="111"/>
-      <c r="Z121" s="111"/>
-      <c r="AA121" s="111"/>
-      <c r="AB121" s="111"/>
-      <c r="AC121" s="142"/>
-      <c r="AD121" s="111"/>
-      <c r="AE121" s="112"/>
+      <c r="O121" s="100"/>
+      <c r="P121" s="101"/>
+      <c r="Q121" s="101"/>
+      <c r="R121" s="101"/>
+      <c r="S121" s="101"/>
+      <c r="T121" s="101"/>
+      <c r="U121" s="101"/>
+      <c r="V121" s="101"/>
+      <c r="W121" s="101"/>
+      <c r="X121" s="101"/>
+      <c r="Y121" s="101"/>
+      <c r="Z121" s="101"/>
+      <c r="AA121" s="101"/>
+      <c r="AB121" s="101"/>
+      <c r="AC121" s="103"/>
+      <c r="AD121" s="101"/>
+      <c r="AE121" s="102"/>
     </row>
     <row r="122" spans="1:34" ht="15">
       <c r="A122" s="1" t="s">
@@ -5262,23 +5220,23 @@
       </c>
     </row>
     <row r="126" spans="1:34" ht="72" customHeight="1" thickTop="1">
-      <c r="A126" s="102" t="s">
+      <c r="A126" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="B126" s="103"/>
-      <c r="C126" s="103"/>
-      <c r="D126" s="103"/>
-      <c r="E126" s="103"/>
-      <c r="F126" s="103"/>
-      <c r="G126" s="103"/>
-      <c r="H126" s="103"/>
-      <c r="I126" s="103"/>
-      <c r="J126" s="101" t="s">
+      <c r="B126" s="134"/>
+      <c r="C126" s="134"/>
+      <c r="D126" s="134"/>
+      <c r="E126" s="134"/>
+      <c r="F126" s="134"/>
+      <c r="G126" s="134"/>
+      <c r="H126" s="134"/>
+      <c r="I126" s="134"/>
+      <c r="J126" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="K126" s="101"/>
-      <c r="L126" s="101"/>
-      <c r="M126" s="101"/>
+      <c r="K126" s="125"/>
+      <c r="L126" s="125"/>
+      <c r="M126" s="125"/>
       <c r="AC126" s="67" t="s">
         <v>124</v>
       </c>
@@ -5310,29 +5268,88 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="O111:AE111"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="O120:O121"/>
-    <mergeCell ref="Y120:Y121"/>
-    <mergeCell ref="P120:P121"/>
-    <mergeCell ref="Q120:Q121"/>
-    <mergeCell ref="R120:R121"/>
-    <mergeCell ref="S120:S121"/>
-    <mergeCell ref="T120:T121"/>
-    <mergeCell ref="U120:U121"/>
-    <mergeCell ref="AB120:AB121"/>
-    <mergeCell ref="AD120:AD121"/>
-    <mergeCell ref="AE120:AE121"/>
-    <mergeCell ref="AC120:AC121"/>
-    <mergeCell ref="V120:V121"/>
-    <mergeCell ref="W120:W121"/>
-    <mergeCell ref="X120:X121"/>
-    <mergeCell ref="Z120:Z121"/>
-    <mergeCell ref="AA120:AA121"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="J126:M126"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="O30:AA30"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="A10:J11"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="Z91:Z92"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
     <mergeCell ref="AD91:AD92"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
@@ -5357,88 +5374,29 @@
     <mergeCell ref="P91:P92"/>
     <mergeCell ref="Q91:Q92"/>
     <mergeCell ref="Y91:Y92"/>
-    <mergeCell ref="Z91:Z92"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A82:L82"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="O30:AA30"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="A10:J11"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="J126:M126"/>
-    <mergeCell ref="A126:I126"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A97:I97"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="O111:AE111"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="O120:O121"/>
+    <mergeCell ref="Y120:Y121"/>
+    <mergeCell ref="P120:P121"/>
+    <mergeCell ref="Q120:Q121"/>
+    <mergeCell ref="R120:R121"/>
+    <mergeCell ref="S120:S121"/>
+    <mergeCell ref="T120:T121"/>
+    <mergeCell ref="U120:U121"/>
+    <mergeCell ref="AB120:AB121"/>
+    <mergeCell ref="AD120:AD121"/>
+    <mergeCell ref="AE120:AE121"/>
+    <mergeCell ref="AC120:AC121"/>
+    <mergeCell ref="V120:V121"/>
+    <mergeCell ref="W120:W121"/>
+    <mergeCell ref="X120:X121"/>
+    <mergeCell ref="Z120:Z121"/>
+    <mergeCell ref="AA120:AA121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5449,17 +5407,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="90" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="144" customWidth="1"/>
     <col min="5" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="90" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="144" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5473,7 +5431,7 @@
       <c r="C1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="141" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="87" t="s">
@@ -5485,7 +5443,7 @@
       <c r="G1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="141" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="87" t="s">
@@ -5502,7 +5460,7 @@
       <c r="C2" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="89">
+      <c r="D2" s="142">
         <v>42229</v>
       </c>
       <c r="E2" s="86">
@@ -5514,7 +5472,7 @@
       <c r="G2" s="86">
         <v>2385</v>
       </c>
-      <c r="H2" s="89">
+      <c r="H2" s="142">
         <v>42234</v>
       </c>
       <c r="I2" s="86">
@@ -5534,7 +5492,7 @@
       <c r="C3" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="89">
+      <c r="D3" s="142">
         <v>42195</v>
       </c>
       <c r="E3" s="86">
@@ -5546,7 +5504,7 @@
       <c r="G3" s="86">
         <v>1885</v>
       </c>
-      <c r="H3" s="89">
+      <c r="H3" s="142">
         <v>42231</v>
       </c>
       <c r="I3" s="86">
@@ -5566,7 +5524,7 @@
       <c r="C4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="89">
+      <c r="D4" s="142">
         <v>42235</v>
       </c>
       <c r="E4" s="86">
@@ -5578,7 +5536,7 @@
       <c r="G4" s="86">
         <v>826</v>
       </c>
-      <c r="H4" s="89">
+      <c r="H4" s="142">
         <v>42242</v>
       </c>
       <c r="I4" s="86">
@@ -5598,7 +5556,7 @@
       <c r="C5" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="89">
+      <c r="D5" s="142">
         <v>42197</v>
       </c>
       <c r="E5" s="86">
@@ -5610,7 +5568,7 @@
       <c r="G5" s="86">
         <v>292</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="142">
         <v>42216</v>
       </c>
       <c r="I5" s="86">
@@ -5630,7 +5588,7 @@
       <c r="C6" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="89">
+      <c r="D6" s="142">
         <v>42373</v>
       </c>
       <c r="E6" s="86">
@@ -5643,8 +5601,8 @@
         <f>E6*95%</f>
         <v>133.85499999999999</v>
       </c>
-      <c r="H6" s="89">
-        <v>42373</v>
+      <c r="H6" s="142">
+        <v>42375</v>
       </c>
       <c r="I6" s="86">
         <v>140.9</v>
@@ -5663,7 +5621,7 @@
       <c r="C7" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="89">
+      <c r="D7" s="142">
         <v>42373</v>
       </c>
       <c r="E7" s="86">
@@ -5676,7 +5634,7 @@
         <f t="shared" ref="G7:G33" si="0">E7*95%</f>
         <v>135.28</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="142">
         <v>42373</v>
       </c>
       <c r="I7" s="86">
@@ -5693,7 +5651,7 @@
       <c r="C8" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="89">
+      <c r="D8" s="142">
         <v>42374</v>
       </c>
       <c r="E8" s="86">
@@ -5706,7 +5664,7 @@
         <f t="shared" si="0"/>
         <v>248.71</v>
       </c>
-      <c r="H8" s="89">
+      <c r="H8" s="142">
         <v>42374</v>
       </c>
       <c r="I8" s="86">
@@ -5723,7 +5681,7 @@
       <c r="C9" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D9" s="142">
         <v>42375</v>
       </c>
       <c r="E9" s="86">
@@ -5736,7 +5694,7 @@
         <f t="shared" si="0"/>
         <v>310.64999999999998</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="142">
         <v>42375</v>
       </c>
       <c r="I9" s="86">
@@ -5753,7 +5711,7 @@
       <c r="C10" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="142">
         <v>42376</v>
       </c>
       <c r="E10" s="86">
@@ -5766,7 +5724,7 @@
         <f t="shared" si="0"/>
         <v>307.13499999999999</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="142">
         <v>42376</v>
       </c>
       <c r="I10" s="86">
@@ -5783,7 +5741,7 @@
       <c r="C11" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="142">
         <v>42377</v>
       </c>
       <c r="E11" s="86">
@@ -5796,7 +5754,7 @@
         <f t="shared" si="0"/>
         <v>333.92500000000001</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="142">
         <v>42377</v>
       </c>
       <c r="I11" s="86">
@@ -5813,7 +5771,7 @@
       <c r="C12" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="142">
         <v>42380</v>
       </c>
       <c r="E12" s="86">
@@ -5826,7 +5784,7 @@
         <f t="shared" si="0"/>
         <v>194.56</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="142">
         <v>42380</v>
       </c>
       <c r="I12" s="86">
@@ -5843,7 +5801,7 @@
       <c r="C13" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="89">
+      <c r="D13" s="142">
         <v>42380</v>
       </c>
       <c r="E13" s="86">
@@ -5856,7 +5814,7 @@
         <f t="shared" si="0"/>
         <v>299.82</v>
       </c>
-      <c r="H13" s="89">
+      <c r="H13" s="142">
         <v>42380</v>
       </c>
       <c r="I13" s="86">
@@ -5873,7 +5831,7 @@
       <c r="C14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="89">
+      <c r="D14" s="142">
         <v>42381</v>
       </c>
       <c r="E14" s="86">
@@ -5886,7 +5844,7 @@
         <f t="shared" si="0"/>
         <v>1281.55</v>
       </c>
-      <c r="H14" s="89">
+      <c r="H14" s="142">
         <v>42381</v>
       </c>
       <c r="I14" s="86">
@@ -5903,7 +5861,7 @@
       <c r="C15" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="89">
+      <c r="D15" s="142">
         <v>42381</v>
       </c>
       <c r="E15" s="86">
@@ -5916,7 +5874,7 @@
         <f t="shared" si="0"/>
         <v>132.52500000000001</v>
       </c>
-      <c r="H15" s="89">
+      <c r="H15" s="142">
         <v>42381</v>
       </c>
       <c r="I15" s="86">
@@ -5936,7 +5894,7 @@
       <c r="C16" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D16" s="142">
         <v>42382</v>
       </c>
       <c r="E16" s="86">
@@ -5949,7 +5907,7 @@
         <f t="shared" si="0"/>
         <v>852.15</v>
       </c>
-      <c r="H16" s="89">
+      <c r="H16" s="142">
         <v>42382</v>
       </c>
       <c r="I16" s="86">
@@ -5966,7 +5924,7 @@
       <c r="C17" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="89">
+      <c r="D17" s="142">
         <v>42382</v>
       </c>
       <c r="E17" s="86">
@@ -5979,7 +5937,7 @@
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-      <c r="H17" s="89">
+      <c r="H17" s="142">
         <v>42382</v>
       </c>
       <c r="I17" s="86">
@@ -5996,7 +5954,7 @@
       <c r="C18" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="89">
+      <c r="D18" s="142">
         <v>42383</v>
       </c>
       <c r="E18" s="86">
@@ -6009,7 +5967,7 @@
         <f t="shared" si="0"/>
         <v>516.13499999999988</v>
       </c>
-      <c r="H18" s="89">
+      <c r="H18" s="142">
         <v>42383</v>
       </c>
       <c r="I18" s="86">
@@ -6026,7 +5984,7 @@
       <c r="C19" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="89">
+      <c r="D19" s="142">
         <v>42384</v>
       </c>
       <c r="E19" s="86">
@@ -6039,7 +5997,7 @@
         <f t="shared" si="0"/>
         <v>115.23499999999999</v>
       </c>
-      <c r="H19" s="89">
+      <c r="H19" s="142">
         <v>42384</v>
       </c>
       <c r="I19" s="86">
@@ -6056,7 +6014,7 @@
       <c r="C20" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="89">
+      <c r="D20" s="142">
         <v>42384</v>
       </c>
       <c r="E20" s="86">
@@ -6069,7 +6027,7 @@
         <f t="shared" si="0"/>
         <v>875.66249999999991</v>
       </c>
-      <c r="H20" s="89">
+      <c r="H20" s="142">
         <v>42384</v>
       </c>
       <c r="I20" s="86">
@@ -6086,7 +6044,7 @@
       <c r="C21" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="89">
+      <c r="D21" s="142">
         <v>42387</v>
       </c>
       <c r="E21" s="86">
@@ -6099,7 +6057,7 @@
         <f t="shared" si="0"/>
         <v>301.52999999999997</v>
       </c>
-      <c r="H21" s="89">
+      <c r="H21" s="142">
         <v>42387</v>
       </c>
       <c r="I21" s="86">
@@ -6116,7 +6074,7 @@
       <c r="C22" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="89">
+      <c r="D22" s="142">
         <v>42387</v>
       </c>
       <c r="E22" s="86">
@@ -6129,7 +6087,7 @@
         <f t="shared" si="0"/>
         <v>211.85</v>
       </c>
-      <c r="H22" s="89">
+      <c r="H22" s="142">
         <v>42387</v>
       </c>
       <c r="I22" s="86">
@@ -6146,7 +6104,7 @@
       <c r="C23" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="89">
+      <c r="D23" s="142">
         <v>42388</v>
       </c>
       <c r="E23" s="86">
@@ -6159,7 +6117,7 @@
         <f t="shared" si="0"/>
         <v>362.14</v>
       </c>
-      <c r="H23" s="89">
+      <c r="H23" s="142">
         <v>42388</v>
       </c>
       <c r="I23" s="86">
@@ -6176,7 +6134,7 @@
       <c r="C24" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="89">
+      <c r="D24" s="142">
         <v>42389</v>
       </c>
       <c r="E24" s="86">
@@ -6189,7 +6147,7 @@
         <f>E24*105%</f>
         <v>400.15500000000003</v>
       </c>
-      <c r="H24" s="89">
+      <c r="H24" s="142">
         <v>42389</v>
       </c>
       <c r="I24" s="86">
@@ -6206,7 +6164,7 @@
       <c r="C25" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="89">
+      <c r="D25" s="142">
         <v>42389</v>
       </c>
       <c r="E25" s="86">
@@ -6219,7 +6177,7 @@
         <f t="shared" si="0"/>
         <v>806.07499999999993</v>
       </c>
-      <c r="H25" s="89">
+      <c r="H25" s="142">
         <v>42389</v>
       </c>
       <c r="I25" s="86">
@@ -6236,7 +6194,7 @@
       <c r="C26" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="89">
+      <c r="D26" s="142">
         <v>42390</v>
       </c>
       <c r="E26" s="86">
@@ -6249,7 +6207,7 @@
         <f t="shared" si="0"/>
         <v>372.4</v>
       </c>
-      <c r="H26" s="89">
+      <c r="H26" s="142">
         <v>42390</v>
       </c>
       <c r="I26" s="86">
@@ -6266,7 +6224,7 @@
       <c r="C27" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="89">
+      <c r="D27" s="142">
         <v>42391</v>
       </c>
       <c r="E27" s="86">
@@ -6279,7 +6237,7 @@
         <f t="shared" si="0"/>
         <v>953.04</v>
       </c>
-      <c r="H27" s="89">
+      <c r="H27" s="142">
         <v>42391</v>
       </c>
       <c r="I27" s="86">
@@ -6296,7 +6254,7 @@
       <c r="C28" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="89">
+      <c r="D28" s="142">
         <v>42396</v>
       </c>
       <c r="E28" s="86">
@@ -6309,7 +6267,7 @@
         <f t="shared" si="0"/>
         <v>779.94999999999993</v>
       </c>
-      <c r="H28" s="89">
+      <c r="H28" s="142">
         <v>42396</v>
       </c>
       <c r="I28" s="86">
@@ -6326,7 +6284,7 @@
       <c r="C29" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="89">
+      <c r="D29" s="142">
         <v>42397</v>
       </c>
       <c r="E29" s="86">
@@ -6339,7 +6297,7 @@
         <f t="shared" si="0"/>
         <v>990.61249999999995</v>
       </c>
-      <c r="H29" s="89">
+      <c r="H29" s="142">
         <v>42397</v>
       </c>
       <c r="I29" s="86">
@@ -6356,7 +6314,7 @@
       <c r="C30" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="89">
+      <c r="D30" s="142">
         <v>42398</v>
       </c>
       <c r="E30" s="86">
@@ -6369,310 +6327,310 @@
         <f t="shared" si="0"/>
         <v>1092.2149999999999</v>
       </c>
-      <c r="H30" s="89">
+      <c r="H30" s="142">
         <v>42398</v>
       </c>
       <c r="I30" s="86">
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="143" customFormat="1">
-      <c r="A31" s="143" t="s">
+    <row r="31" spans="1:9" s="88" customFormat="1">
+      <c r="A31" s="88" t="s">
         <v>335</v>
       </c>
-      <c r="B31" s="143" t="s">
+      <c r="B31" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="144">
+      <c r="C31" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="143">
         <v>42387</v>
       </c>
-      <c r="E31" s="143">
+      <c r="E31" s="88">
         <v>317.39999999999998</v>
       </c>
-      <c r="F31" s="143">
+      <c r="F31" s="88">
         <v>314.39999999999998</v>
       </c>
-      <c r="G31" s="143">
+      <c r="G31" s="88">
         <f t="shared" si="0"/>
         <v>301.52999999999997</v>
       </c>
-      <c r="H31" s="144">
+      <c r="H31" s="143">
         <v>42387</v>
       </c>
-      <c r="I31" s="143">
+      <c r="I31" s="88">
         <v>314.39999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="143" customFormat="1">
-      <c r="A32" s="143" t="s">
+    <row r="32" spans="1:9" s="88" customFormat="1">
+      <c r="A32" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="144">
+      <c r="C32" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="143">
         <v>42387</v>
       </c>
-      <c r="E32" s="143">
+      <c r="E32" s="88">
         <v>223</v>
       </c>
-      <c r="F32" s="143">
+      <c r="F32" s="88">
         <v>224.1</v>
       </c>
-      <c r="G32" s="143">
+      <c r="G32" s="88">
         <f t="shared" si="0"/>
         <v>211.85</v>
       </c>
-      <c r="H32" s="144">
+      <c r="H32" s="143">
         <v>42387</v>
       </c>
-      <c r="I32" s="143">
+      <c r="I32" s="88">
         <v>224.1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="143" customFormat="1">
-      <c r="A33" s="143" t="s">
+    <row r="33" spans="1:9" s="88" customFormat="1">
+      <c r="A33" s="88" t="s">
         <v>337</v>
       </c>
-      <c r="B33" s="143" t="s">
+      <c r="B33" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="144">
+      <c r="C33" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="143">
         <v>42388</v>
       </c>
-      <c r="E33" s="143">
+      <c r="E33" s="88">
         <v>381.2</v>
       </c>
-      <c r="F33" s="143">
+      <c r="F33" s="88">
         <v>388</v>
       </c>
-      <c r="G33" s="143">
+      <c r="G33" s="88">
         <f t="shared" si="0"/>
         <v>362.14</v>
       </c>
-      <c r="H33" s="144">
+      <c r="H33" s="143">
         <v>42388</v>
       </c>
-      <c r="I33" s="143">
+      <c r="I33" s="88">
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="143" customFormat="1">
-      <c r="A34" s="143" t="s">
+    <row r="34" spans="1:9" s="88" customFormat="1">
+      <c r="A34" s="88" t="s">
         <v>338</v>
       </c>
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="143" t="s">
+      <c r="C34" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="144">
+      <c r="D34" s="143">
         <v>42389</v>
       </c>
-      <c r="E34" s="143">
+      <c r="E34" s="88">
         <v>381.1</v>
       </c>
-      <c r="F34" s="143">
+      <c r="F34" s="88">
         <v>376.5</v>
       </c>
-      <c r="G34" s="143">
+      <c r="G34" s="88">
         <f>E34*105%</f>
         <v>400.15500000000003</v>
       </c>
-      <c r="H34" s="144">
+      <c r="H34" s="143">
         <v>42389</v>
       </c>
-      <c r="I34" s="143">
+      <c r="I34" s="88">
         <v>385.70000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="143" customFormat="1">
-      <c r="A35" s="143" t="s">
+    <row r="35" spans="1:9" s="88" customFormat="1">
+      <c r="A35" s="88" t="s">
         <v>339</v>
       </c>
-      <c r="B35" s="143" t="s">
+      <c r="B35" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="144">
+      <c r="C35" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="143">
         <v>42389</v>
       </c>
-      <c r="E35" s="143">
+      <c r="E35" s="88">
         <v>848.5</v>
       </c>
-      <c r="F35" s="143">
+      <c r="F35" s="88">
         <v>834.1</v>
       </c>
-      <c r="G35" s="143">
+      <c r="G35" s="88">
         <f t="shared" ref="G35:G40" si="1">E35*95%</f>
         <v>806.07499999999993</v>
       </c>
-      <c r="H35" s="144">
+      <c r="H35" s="143">
         <v>42389</v>
       </c>
-      <c r="I35" s="143">
+      <c r="I35" s="88">
         <v>834.1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="143" customFormat="1">
-      <c r="A36" s="143" t="s">
+    <row r="36" spans="1:9" s="88" customFormat="1">
+      <c r="A36" s="88" t="s">
         <v>340</v>
       </c>
-      <c r="B36" s="143" t="s">
+      <c r="B36" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="144">
+      <c r="C36" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="143">
         <v>42390</v>
       </c>
-      <c r="E36" s="143">
+      <c r="E36" s="88">
         <v>392</v>
       </c>
-      <c r="F36" s="143">
+      <c r="F36" s="88">
         <v>386.5</v>
       </c>
-      <c r="G36" s="143">
+      <c r="G36" s="88">
         <f t="shared" si="1"/>
         <v>372.4</v>
       </c>
-      <c r="H36" s="144">
+      <c r="H36" s="143">
         <v>42390</v>
       </c>
-      <c r="I36" s="143">
+      <c r="I36" s="88">
         <v>386.5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="143" customFormat="1">
-      <c r="A37" s="143" t="s">
+    <row r="37" spans="1:9" s="88" customFormat="1">
+      <c r="A37" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="144">
+      <c r="C37" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="143">
         <v>42391</v>
       </c>
-      <c r="E37" s="143">
+      <c r="E37" s="88">
         <v>1003.2</v>
       </c>
-      <c r="F37" s="143">
+      <c r="F37" s="88">
         <v>1010.5</v>
       </c>
-      <c r="G37" s="143">
+      <c r="G37" s="88">
         <f t="shared" si="1"/>
         <v>953.04</v>
       </c>
-      <c r="H37" s="144">
+      <c r="H37" s="143">
         <v>42391</v>
       </c>
-      <c r="I37" s="143">
+      <c r="I37" s="88">
         <v>1010.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="143" customFormat="1">
-      <c r="A38" s="143" t="s">
+    <row r="38" spans="1:9" s="88" customFormat="1">
+      <c r="A38" s="88" t="s">
         <v>342</v>
       </c>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="144">
+      <c r="C38" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="143">
         <v>42396</v>
       </c>
-      <c r="E38" s="143">
+      <c r="E38" s="88">
         <v>821</v>
       </c>
-      <c r="F38" s="143">
+      <c r="F38" s="88">
         <v>813.5</v>
       </c>
-      <c r="G38" s="143">
+      <c r="G38" s="88">
         <f t="shared" si="1"/>
         <v>779.94999999999993</v>
       </c>
-      <c r="H38" s="144">
+      <c r="H38" s="143">
         <v>42396</v>
       </c>
-      <c r="I38" s="143">
+      <c r="I38" s="88">
         <v>813.5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="143" customFormat="1">
-      <c r="A39" s="143" t="s">
+    <row r="39" spans="1:9" s="88" customFormat="1">
+      <c r="A39" s="88" t="s">
         <v>343</v>
       </c>
-      <c r="B39" s="143" t="s">
+      <c r="B39" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="144">
+      <c r="C39" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="143">
         <v>42397</v>
       </c>
-      <c r="E39" s="143">
+      <c r="E39" s="88">
         <v>1042.75</v>
       </c>
-      <c r="F39" s="143">
+      <c r="F39" s="88">
         <v>1046.5</v>
       </c>
-      <c r="G39" s="143">
+      <c r="G39" s="88">
         <f t="shared" si="1"/>
         <v>990.61249999999995</v>
       </c>
-      <c r="H39" s="144">
+      <c r="H39" s="143">
         <v>42397</v>
       </c>
-      <c r="I39" s="143">
+      <c r="I39" s="88">
         <v>1046.5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="143" customFormat="1">
-      <c r="A40" s="143" t="s">
+    <row r="40" spans="1:9" s="88" customFormat="1">
+      <c r="A40" s="88" t="s">
         <v>344</v>
       </c>
-      <c r="B40" s="143" t="s">
+      <c r="B40" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="144">
+      <c r="C40" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="143">
         <v>42398</v>
       </c>
-      <c r="E40" s="143">
+      <c r="E40" s="88">
         <v>1149.7</v>
       </c>
-      <c r="F40" s="143">
+      <c r="F40" s="88">
         <v>1155</v>
       </c>
-      <c r="G40" s="143">
+      <c r="G40" s="88">
         <f t="shared" si="1"/>
         <v>1092.2149999999999</v>
       </c>
-      <c r="H40" s="144">
+      <c r="H40" s="143">
         <v>42398</v>
       </c>
-      <c r="I40" s="143">
+      <c r="I40" s="88">
         <v>1155</v>
       </c>
     </row>

--- a/Research Performance Tracker.xlsx
+++ b/Research Performance Tracker.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="348">
   <si>
     <t>Stocks</t>
   </si>
@@ -1074,13 +1074,22 @@
   <si>
     <t>EQTR0029</t>
   </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Trading</t>
+  </si>
+  <si>
+    <t>Positional</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1829,6 +1838,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1985,16 +2004,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2317,22 +2326,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
     </row>
     <row r="2" spans="1:14" s="84" customFormat="1">
       <c r="A2" s="84" t="s">
@@ -2382,30 +2391,30 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
@@ -2475,35 +2484,35 @@
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="111"/>
-      <c r="O30" s="119" t="s">
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="115"/>
+      <c r="O30" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="121"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="124"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="124"/>
+      <c r="Z30" s="124"/>
+      <c r="AA30" s="125"/>
     </row>
     <row r="31" spans="1:27" ht="15" thickTop="1">
       <c r="A31" s="5" t="s">
@@ -2574,17 +2583,17 @@
       <c r="AA33" s="39"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
@@ -2621,9 +2630,9 @@
       <c r="G35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="93"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
@@ -2725,108 +2734,108 @@
       <c r="AA38" s="39"/>
     </row>
     <row r="39" spans="1:27" ht="45" customHeight="1">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C39" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="98" t="s">
+      <c r="D39" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="98" t="s">
+      <c r="E39" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="124" t="s">
+      <c r="F39" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="124" t="s">
+      <c r="G39" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="124" t="s">
+      <c r="H39" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="98" t="s">
+      <c r="I39" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="98" t="s">
+      <c r="J39" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="98" t="s">
+      <c r="K39" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="98" t="s">
+      <c r="L39" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="122" t="s">
+      <c r="O39" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="P39" s="101" t="s">
+      <c r="P39" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="101" t="s">
+      <c r="Q39" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="R39" s="101" t="s">
+      <c r="R39" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="S39" s="101" t="s">
+      <c r="S39" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="T39" s="101" t="s">
+      <c r="T39" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="U39" s="101" t="s">
+      <c r="U39" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="V39" s="101" t="s">
+      <c r="V39" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="W39" s="101" t="s">
+      <c r="W39" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="X39" s="101" t="s">
+      <c r="X39" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="Y39" s="101" t="s">
+      <c r="Y39" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="Z39" s="101" t="s">
+      <c r="Z39" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="AA39" s="117" t="s">
+      <c r="AA39" s="121" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="96"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="O40" s="122"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="101"/>
-      <c r="U40" s="101"/>
-      <c r="V40" s="101"/>
-      <c r="W40" s="101"/>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="101"/>
-      <c r="AA40" s="117"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="O40" s="126"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="105"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="105"/>
+      <c r="X40" s="105"/>
+      <c r="Y40" s="105"/>
+      <c r="Z40" s="105"/>
+      <c r="AA40" s="121"/>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="27" t="s">
@@ -3152,22 +3161,22 @@
       <c r="AA44" s="78"/>
     </row>
     <row r="45" spans="1:27" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A45" s="126" t="s">
+      <c r="A45" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="125" t="s">
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="J45" s="125"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="129"/>
+      <c r="L45" s="129"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="5" t="s">
@@ -3175,50 +3184,50 @@
       </c>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="104" t="s">
+      <c r="A49" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="105"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="65"/>
       <c r="D49" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="107"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="66"/>
       <c r="D50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="107"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="66"/>
       <c r="D51" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="104" t="s">
+      <c r="A52" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="105"/>
+      <c r="B52" s="109"/>
       <c r="C52" s="65"/>
       <c r="D52" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="106" t="s">
+      <c r="A53" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="107"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="66"/>
       <c r="D53" s="4" t="s">
         <v>53</v>
@@ -3228,10 +3237,10 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="105"/>
+      <c r="B54" s="109"/>
       <c r="C54" s="65"/>
       <c r="D54" s="4" t="s">
         <v>55</v>
@@ -3244,10 +3253,10 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A55" s="104" t="s">
+      <c r="A55" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="105"/>
+      <c r="B55" s="109"/>
       <c r="C55" s="65"/>
       <c r="D55" s="4" t="s">
         <v>55</v>
@@ -3260,60 +3269,60 @@
       </c>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="128" t="s">
+      <c r="A56" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="129"/>
+      <c r="B56" s="133"/>
       <c r="C56" s="80"/>
       <c r="D56" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="130" t="s">
+      <c r="A57" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="130"/>
+      <c r="B57" s="134"/>
       <c r="C57" s="80"/>
       <c r="D57" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="131" t="s">
+      <c r="A58" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="132"/>
+      <c r="B58" s="136"/>
       <c r="C58" s="81"/>
       <c r="D58" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="131" t="s">
+      <c r="A59" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="132"/>
+      <c r="B59" s="136"/>
       <c r="C59" s="81"/>
       <c r="D59" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="114" t="s">
+      <c r="A60" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="114"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="81"/>
       <c r="D60" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="108" t="s">
+      <c r="A61" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="108"/>
+      <c r="B61" s="112"/>
       <c r="C61" s="82"/>
       <c r="D61" s="4" t="s">
         <v>105</v>
@@ -3323,10 +3332,10 @@
       </c>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="115" t="s">
+      <c r="A62" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="116"/>
+      <c r="B62" s="120"/>
       <c r="C62" s="82"/>
       <c r="D62" s="4" t="s">
         <v>55</v>
@@ -3336,10 +3345,10 @@
       </c>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="115" t="s">
+      <c r="A63" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="116"/>
+      <c r="B63" s="120"/>
       <c r="C63" s="82"/>
       <c r="D63" s="4" t="s">
         <v>55</v>
@@ -3349,40 +3358,40 @@
       </c>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="115" t="s">
+      <c r="A64" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="116"/>
+      <c r="B64" s="120"/>
       <c r="C64" s="82"/>
       <c r="D64" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="116"/>
+      <c r="B65" s="120"/>
       <c r="C65" s="82"/>
       <c r="D65" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="108" t="s">
+      <c r="A66" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="108"/>
+      <c r="B66" s="112"/>
       <c r="C66" s="82"/>
       <c r="D66" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="108" t="s">
+      <c r="A67" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="108"/>
+      <c r="B67" s="112"/>
       <c r="C67" s="82"/>
       <c r="D67" s="4" t="str">
         <f>D61</f>
@@ -3390,20 +3399,20 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="108" t="s">
+      <c r="A68" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="108"/>
+      <c r="B68" s="112"/>
       <c r="C68" s="82"/>
       <c r="D68" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="108"/>
+      <c r="B69" s="112"/>
       <c r="C69" s="82"/>
       <c r="D69" s="4" t="s">
         <v>55</v>
@@ -3413,10 +3422,10 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="108" t="s">
+      <c r="A70" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="108"/>
+      <c r="B70" s="112"/>
       <c r="C70" s="82"/>
       <c r="D70" s="4" t="s">
         <v>55</v>
@@ -3426,10 +3435,10 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="108" t="s">
+      <c r="A71" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="108"/>
+      <c r="B71" s="112"/>
       <c r="C71" s="82"/>
       <c r="D71" s="4" t="s">
         <v>55</v>
@@ -3439,10 +3448,10 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="108" t="s">
+      <c r="A72" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="108"/>
+      <c r="B72" s="112"/>
       <c r="C72" s="82"/>
       <c r="D72" s="4" t="s">
         <v>55</v>
@@ -3452,10 +3461,10 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="108" t="s">
+      <c r="A73" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="108"/>
+      <c r="B73" s="112"/>
       <c r="C73" s="82"/>
       <c r="D73" s="4" t="s">
         <v>55</v>
@@ -3465,10 +3474,10 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="108" t="s">
+      <c r="A74" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="108"/>
+      <c r="B74" s="112"/>
       <c r="C74" s="82"/>
       <c r="D74" s="4" t="s">
         <v>55</v>
@@ -3478,10 +3487,10 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="108" t="s">
+      <c r="A75" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="108"/>
+      <c r="B75" s="112"/>
       <c r="C75" s="82"/>
       <c r="D75" s="4" t="s">
         <v>55</v>
@@ -3491,10 +3500,10 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="108" t="s">
+      <c r="A76" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="108"/>
+      <c r="B76" s="112"/>
       <c r="C76" s="82"/>
       <c r="D76" s="4" t="s">
         <v>55</v>
@@ -3504,10 +3513,10 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="108" t="s">
+      <c r="A77" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="108"/>
+      <c r="B77" s="112"/>
       <c r="C77" s="82"/>
       <c r="D77" s="4" t="s">
         <v>55</v>
@@ -3517,10 +3526,10 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="108" t="s">
+      <c r="A78" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="108"/>
+      <c r="B78" s="112"/>
       <c r="C78" s="82"/>
       <c r="D78" s="4" t="s">
         <v>55</v>
@@ -3542,38 +3551,38 @@
       <c r="H81" s="22"/>
     </row>
     <row r="82" spans="1:33" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="110"/>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="110"/>
-      <c r="F82" s="110"/>
-      <c r="G82" s="110"/>
-      <c r="H82" s="110"/>
-      <c r="I82" s="110"/>
-      <c r="J82" s="110"/>
-      <c r="K82" s="110"/>
-      <c r="L82" s="111"/>
-      <c r="O82" s="89" t="s">
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114"/>
+      <c r="K82" s="114"/>
+      <c r="L82" s="115"/>
+      <c r="O82" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="P82" s="90"/>
-      <c r="Q82" s="90"/>
-      <c r="R82" s="90"/>
-      <c r="S82" s="90"/>
-      <c r="T82" s="90"/>
-      <c r="U82" s="90"/>
-      <c r="V82" s="90"/>
-      <c r="W82" s="90"/>
-      <c r="X82" s="90"/>
-      <c r="Y82" s="90"/>
-      <c r="Z82" s="90"/>
-      <c r="AA82" s="90"/>
-      <c r="AB82" s="90"/>
-      <c r="AC82" s="90"/>
-      <c r="AD82" s="91"/>
+      <c r="P82" s="94"/>
+      <c r="Q82" s="94"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="94"/>
+      <c r="T82" s="94"/>
+      <c r="U82" s="94"/>
+      <c r="V82" s="94"/>
+      <c r="W82" s="94"/>
+      <c r="X82" s="94"/>
+      <c r="Y82" s="94"/>
+      <c r="Z82" s="94"/>
+      <c r="AA82" s="94"/>
+      <c r="AB82" s="94"/>
+      <c r="AC82" s="94"/>
+      <c r="AD82" s="95"/>
       <c r="AE82" s="79"/>
     </row>
     <row r="83" spans="1:33" ht="15" thickTop="1">
@@ -3650,17 +3659,17 @@
       <c r="AD85" s="52"/>
     </row>
     <row r="86" spans="1:33">
-      <c r="A86" s="92" t="s">
+      <c r="A86" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="92"/>
-      <c r="G86" s="92"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="92"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="96"/>
+      <c r="G86" s="96"/>
+      <c r="H86" s="96"/>
+      <c r="I86" s="96"/>
       <c r="O86" s="51"/>
       <c r="P86" s="38"/>
       <c r="Q86" s="38"/>
@@ -3700,9 +3709,9 @@
       <c r="G87" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="93"/>
-      <c r="L87" s="94"/>
-      <c r="M87" s="94"/>
+      <c r="K87" s="97"/>
+      <c r="L87" s="98"/>
+      <c r="M87" s="98"/>
       <c r="O87" s="51"/>
       <c r="P87" s="38"/>
       <c r="Q87" s="38"/>
@@ -3816,31 +3825,31 @@
       <c r="AD90" s="52"/>
     </row>
     <row r="91" spans="1:33" ht="45" customHeight="1">
-      <c r="A91" s="95" t="s">
+      <c r="A91" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="97" t="s">
+      <c r="B91" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="135" t="s">
+      <c r="C91" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="D91" s="100" t="s">
+      <c r="D91" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="98" t="s">
+      <c r="E91" s="102" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="98" t="s">
+      <c r="G91" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H91" s="112" t="s">
+      <c r="H91" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="98" t="s">
+      <c r="I91" s="102" t="s">
         <v>22</v>
       </c>
       <c r="J91" s="24" t="s">
@@ -3855,85 +3864,85 @@
       <c r="M91" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O91" s="100" t="s">
+      <c r="O91" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="P91" s="101" t="s">
+      <c r="P91" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="Q91" s="101" t="s">
+      <c r="Q91" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="R91" s="101" t="s">
+      <c r="R91" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="S91" s="101" t="s">
+      <c r="S91" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="T91" s="101" t="s">
+      <c r="T91" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="U91" s="101" t="s">
+      <c r="U91" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="V91" s="101" t="s">
+      <c r="V91" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="W91" s="101" t="s">
+      <c r="W91" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="X91" s="101" t="s">
+      <c r="X91" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="Y91" s="101" t="s">
+      <c r="Y91" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="Z91" s="101" t="s">
+      <c r="Z91" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="AA91" s="101" t="s">
+      <c r="AA91" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="AB91" s="101" t="s">
+      <c r="AB91" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AC91" s="101" t="s">
+      <c r="AC91" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="AD91" s="102" t="s">
+      <c r="AD91" s="106" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:33">
-      <c r="A92" s="96"/>
-      <c r="B92" s="97"/>
-      <c r="C92" s="136"/>
-      <c r="D92" s="100"/>
-      <c r="E92" s="99"/>
+      <c r="A92" s="100"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="140"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="103"/>
       <c r="F92" s="26"/>
-      <c r="G92" s="99"/>
-      <c r="H92" s="113"/>
-      <c r="I92" s="99"/>
+      <c r="G92" s="103"/>
+      <c r="H92" s="117"/>
+      <c r="I92" s="103"/>
       <c r="J92" s="26"/>
       <c r="K92" s="26"/>
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
-      <c r="O92" s="100"/>
-      <c r="P92" s="101"/>
-      <c r="Q92" s="101"/>
-      <c r="R92" s="101"/>
-      <c r="S92" s="101"/>
-      <c r="T92" s="101"/>
-      <c r="U92" s="101"/>
-      <c r="V92" s="101"/>
-      <c r="W92" s="101"/>
-      <c r="X92" s="101"/>
-      <c r="Y92" s="101"/>
-      <c r="Z92" s="101"/>
-      <c r="AA92" s="101"/>
-      <c r="AB92" s="101"/>
-      <c r="AC92" s="101"/>
-      <c r="AD92" s="102"/>
+      <c r="O92" s="104"/>
+      <c r="P92" s="105"/>
+      <c r="Q92" s="105"/>
+      <c r="R92" s="105"/>
+      <c r="S92" s="105"/>
+      <c r="T92" s="105"/>
+      <c r="U92" s="105"/>
+      <c r="V92" s="105"/>
+      <c r="W92" s="105"/>
+      <c r="X92" s="105"/>
+      <c r="Y92" s="105"/>
+      <c r="Z92" s="105"/>
+      <c r="AA92" s="105"/>
+      <c r="AB92" s="105"/>
+      <c r="AC92" s="105"/>
+      <c r="AD92" s="106"/>
     </row>
     <row r="93" spans="1:33" ht="15">
       <c r="A93" s="1" t="s">
@@ -4312,23 +4321,23 @@
       </c>
     </row>
     <row r="97" spans="1:31" ht="63" customHeight="1" thickTop="1">
-      <c r="A97" s="133" t="s">
+      <c r="A97" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="134"/>
-      <c r="C97" s="134"/>
-      <c r="D97" s="134"/>
-      <c r="E97" s="134"/>
-      <c r="F97" s="134"/>
-      <c r="G97" s="134"/>
-      <c r="H97" s="134"/>
-      <c r="I97" s="134"/>
-      <c r="J97" s="125" t="s">
+      <c r="B97" s="138"/>
+      <c r="C97" s="138"/>
+      <c r="D97" s="138"/>
+      <c r="E97" s="138"/>
+      <c r="F97" s="138"/>
+      <c r="G97" s="138"/>
+      <c r="H97" s="138"/>
+      <c r="I97" s="138"/>
+      <c r="J97" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="K97" s="125"/>
-      <c r="L97" s="125"/>
-      <c r="M97" s="125"/>
+      <c r="K97" s="129"/>
+      <c r="L97" s="129"/>
+      <c r="M97" s="129"/>
     </row>
     <row r="98" spans="1:31" s="64" customFormat="1">
       <c r="A98" s="72"/>
@@ -4350,60 +4359,60 @@
       </c>
     </row>
     <row r="101" spans="1:31">
-      <c r="A101" s="101" t="s">
+      <c r="A101" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="101"/>
+      <c r="B101" s="105"/>
       <c r="C101" s="83"/>
       <c r="D101" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:31">
-      <c r="A102" s="101" t="s">
+      <c r="A102" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B102" s="101"/>
+      <c r="B102" s="105"/>
       <c r="C102" s="83"/>
       <c r="D102" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:31">
-      <c r="A103" s="101" t="s">
+      <c r="A103" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="101"/>
+      <c r="B103" s="105"/>
       <c r="C103" s="83"/>
       <c r="D103" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:31">
-      <c r="A104" s="101" t="s">
+      <c r="A104" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="B104" s="101"/>
+      <c r="B104" s="105"/>
       <c r="C104" s="83"/>
       <c r="D104" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:31">
-      <c r="A105" s="101" t="s">
+      <c r="A105" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="B105" s="101"/>
+      <c r="B105" s="105"/>
       <c r="C105" s="83"/>
       <c r="D105" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:31">
-      <c r="A106" s="102" t="s">
+      <c r="A106" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="B106" s="102"/>
+      <c r="B106" s="106"/>
       <c r="C106" s="83"/>
       <c r="D106" s="4" t="s">
         <v>81</v>
@@ -4422,39 +4431,39 @@
       <c r="H110" s="22"/>
     </row>
     <row r="111" spans="1:31" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A111" s="109" t="s">
+      <c r="A111" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B111" s="110"/>
-      <c r="C111" s="110"/>
-      <c r="D111" s="110"/>
-      <c r="E111" s="110"/>
-      <c r="F111" s="110"/>
-      <c r="G111" s="110"/>
-      <c r="H111" s="110"/>
-      <c r="I111" s="110"/>
-      <c r="J111" s="110"/>
-      <c r="K111" s="110"/>
-      <c r="L111" s="111"/>
-      <c r="O111" s="89" t="s">
+      <c r="B111" s="114"/>
+      <c r="C111" s="114"/>
+      <c r="D111" s="114"/>
+      <c r="E111" s="114"/>
+      <c r="F111" s="114"/>
+      <c r="G111" s="114"/>
+      <c r="H111" s="114"/>
+      <c r="I111" s="114"/>
+      <c r="J111" s="114"/>
+      <c r="K111" s="114"/>
+      <c r="L111" s="115"/>
+      <c r="O111" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="P111" s="90"/>
-      <c r="Q111" s="90"/>
-      <c r="R111" s="90"/>
-      <c r="S111" s="90"/>
-      <c r="T111" s="90"/>
-      <c r="U111" s="90"/>
-      <c r="V111" s="90"/>
-      <c r="W111" s="90"/>
-      <c r="X111" s="90"/>
-      <c r="Y111" s="90"/>
-      <c r="Z111" s="90"/>
-      <c r="AA111" s="90"/>
-      <c r="AB111" s="90"/>
-      <c r="AC111" s="90"/>
-      <c r="AD111" s="90"/>
-      <c r="AE111" s="91"/>
+      <c r="P111" s="94"/>
+      <c r="Q111" s="94"/>
+      <c r="R111" s="94"/>
+      <c r="S111" s="94"/>
+      <c r="T111" s="94"/>
+      <c r="U111" s="94"/>
+      <c r="V111" s="94"/>
+      <c r="W111" s="94"/>
+      <c r="X111" s="94"/>
+      <c r="Y111" s="94"/>
+      <c r="Z111" s="94"/>
+      <c r="AA111" s="94"/>
+      <c r="AB111" s="94"/>
+      <c r="AC111" s="94"/>
+      <c r="AD111" s="94"/>
+      <c r="AE111" s="95"/>
     </row>
     <row r="112" spans="1:31" ht="15" thickTop="1">
       <c r="A112" s="5" t="s">
@@ -4533,17 +4542,17 @@
       <c r="AE114" s="52"/>
     </row>
     <row r="115" spans="1:34">
-      <c r="A115" s="92" t="s">
+      <c r="A115" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="92"/>
-      <c r="C115" s="92"/>
-      <c r="D115" s="92"/>
-      <c r="E115" s="92"/>
-      <c r="F115" s="92"/>
-      <c r="G115" s="92"/>
-      <c r="H115" s="92"/>
-      <c r="I115" s="92"/>
+      <c r="B115" s="96"/>
+      <c r="C115" s="96"/>
+      <c r="D115" s="96"/>
+      <c r="E115" s="96"/>
+      <c r="F115" s="96"/>
+      <c r="G115" s="96"/>
+      <c r="H115" s="96"/>
+      <c r="I115" s="96"/>
       <c r="O115" s="51"/>
       <c r="P115" s="38"/>
       <c r="Q115" s="38"/>
@@ -4586,9 +4595,9 @@
       <c r="I116" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K116" s="93"/>
-      <c r="L116" s="94"/>
-      <c r="M116" s="94"/>
+      <c r="K116" s="97"/>
+      <c r="L116" s="98"/>
+      <c r="M116" s="98"/>
       <c r="O116" s="51"/>
       <c r="P116" s="38"/>
       <c r="Q116" s="38"/>
@@ -4708,28 +4717,28 @@
       <c r="AE119" s="52"/>
     </row>
     <row r="120" spans="1:34" ht="45" customHeight="1">
-      <c r="A120" s="95" t="s">
+      <c r="A120" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="97" t="s">
+      <c r="B120" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C120" s="135" t="s">
+      <c r="C120" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="139" t="s">
+      <c r="D120" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="98" t="s">
+      <c r="E120" s="102" t="s">
         <v>122</v>
       </c>
       <c r="F120" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G120" s="98" t="s">
+      <c r="G120" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H120" s="137" t="s">
+      <c r="H120" s="141" t="s">
         <v>27</v>
       </c>
       <c r="I120" s="25" t="s">
@@ -4747,89 +4756,89 @@
       <c r="M120" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O120" s="100" t="s">
+      <c r="O120" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="P120" s="101" t="s">
+      <c r="P120" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="Q120" s="101" t="s">
+      <c r="Q120" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="R120" s="101" t="s">
+      <c r="R120" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="S120" s="101" t="s">
+      <c r="S120" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="T120" s="101" t="s">
+      <c r="T120" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="U120" s="101" t="s">
+      <c r="U120" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="V120" s="101" t="s">
+      <c r="V120" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="W120" s="101" t="s">
+      <c r="W120" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="X120" s="101" t="s">
+      <c r="X120" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="Y120" s="101" t="s">
+      <c r="Y120" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="Z120" s="101" t="s">
+      <c r="Z120" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="AA120" s="101" t="s">
+      <c r="AA120" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="AB120" s="101" t="s">
+      <c r="AB120" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AC120" s="103" t="s">
+      <c r="AC120" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="AD120" s="101" t="s">
+      <c r="AD120" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="AE120" s="102" t="s">
+      <c r="AE120" s="106" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:34">
-      <c r="A121" s="96"/>
-      <c r="B121" s="97"/>
-      <c r="C121" s="136"/>
-      <c r="D121" s="140"/>
-      <c r="E121" s="99"/>
+      <c r="A121" s="100"/>
+      <c r="B121" s="101"/>
+      <c r="C121" s="140"/>
+      <c r="D121" s="144"/>
+      <c r="E121" s="103"/>
       <c r="F121" s="26"/>
-      <c r="G121" s="99"/>
-      <c r="H121" s="138"/>
+      <c r="G121" s="103"/>
+      <c r="H121" s="142"/>
       <c r="I121" s="25"/>
       <c r="J121" s="26"/>
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
       <c r="M121" s="26"/>
-      <c r="O121" s="100"/>
-      <c r="P121" s="101"/>
-      <c r="Q121" s="101"/>
-      <c r="R121" s="101"/>
-      <c r="S121" s="101"/>
-      <c r="T121" s="101"/>
-      <c r="U121" s="101"/>
-      <c r="V121" s="101"/>
-      <c r="W121" s="101"/>
-      <c r="X121" s="101"/>
-      <c r="Y121" s="101"/>
-      <c r="Z121" s="101"/>
-      <c r="AA121" s="101"/>
-      <c r="AB121" s="101"/>
-      <c r="AC121" s="103"/>
-      <c r="AD121" s="101"/>
-      <c r="AE121" s="102"/>
+      <c r="O121" s="104"/>
+      <c r="P121" s="105"/>
+      <c r="Q121" s="105"/>
+      <c r="R121" s="105"/>
+      <c r="S121" s="105"/>
+      <c r="T121" s="105"/>
+      <c r="U121" s="105"/>
+      <c r="V121" s="105"/>
+      <c r="W121" s="105"/>
+      <c r="X121" s="105"/>
+      <c r="Y121" s="105"/>
+      <c r="Z121" s="105"/>
+      <c r="AA121" s="105"/>
+      <c r="AB121" s="105"/>
+      <c r="AC121" s="107"/>
+      <c r="AD121" s="105"/>
+      <c r="AE121" s="106"/>
     </row>
     <row r="122" spans="1:34" ht="15">
       <c r="A122" s="1" t="s">
@@ -5220,23 +5229,23 @@
       </c>
     </row>
     <row r="126" spans="1:34" ht="72" customHeight="1" thickTop="1">
-      <c r="A126" s="133" t="s">
+      <c r="A126" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="B126" s="134"/>
-      <c r="C126" s="134"/>
-      <c r="D126" s="134"/>
-      <c r="E126" s="134"/>
-      <c r="F126" s="134"/>
-      <c r="G126" s="134"/>
-      <c r="H126" s="134"/>
-      <c r="I126" s="134"/>
-      <c r="J126" s="125" t="s">
+      <c r="B126" s="138"/>
+      <c r="C126" s="138"/>
+      <c r="D126" s="138"/>
+      <c r="E126" s="138"/>
+      <c r="F126" s="138"/>
+      <c r="G126" s="138"/>
+      <c r="H126" s="138"/>
+      <c r="I126" s="138"/>
+      <c r="J126" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="K126" s="125"/>
-      <c r="L126" s="125"/>
-      <c r="M126" s="125"/>
+      <c r="K126" s="129"/>
+      <c r="L126" s="129"/>
+      <c r="M126" s="129"/>
       <c r="AC126" s="67" t="s">
         <v>124</v>
       </c>
@@ -5405,1232 +5414,1338 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="144" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="144" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="88"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="92" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="92" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="87" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:12" s="87" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="87" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="C1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="D1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="E1" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="F1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="G1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="H1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="I1" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="J1" s="87" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="C2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="142">
+      <c r="D2" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="90">
         <v>42229</v>
       </c>
-      <c r="E2" s="86">
+      <c r="F2" s="86">
         <v>2399</v>
       </c>
-      <c r="F2" s="86">
+      <c r="G2" s="86">
         <v>2415</v>
       </c>
-      <c r="G2" s="86">
+      <c r="H2" s="86">
         <v>2385</v>
       </c>
-      <c r="H2" s="142">
+      <c r="I2" s="90">
         <v>42234</v>
       </c>
-      <c r="I2" s="86">
+      <c r="J2" s="86">
         <v>2392</v>
       </c>
-      <c r="J2">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="86" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="C3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="D3" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="142">
+      <c r="E3" s="90">
         <v>42195</v>
       </c>
-      <c r="E3" s="86">
+      <c r="F3" s="86">
         <v>1896</v>
       </c>
-      <c r="F3" s="86">
+      <c r="G3" s="86">
         <v>1914</v>
       </c>
-      <c r="G3" s="86">
+      <c r="H3" s="86">
         <v>1885</v>
       </c>
-      <c r="H3" s="142">
+      <c r="I3" s="90">
         <v>42231</v>
       </c>
-      <c r="I3" s="86">
+      <c r="J3" s="86">
         <v>1893</v>
       </c>
-      <c r="J3">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="86" t="s">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="C4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="142">
+      <c r="D4" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="90">
         <v>42235</v>
       </c>
-      <c r="E4" s="86">
+      <c r="F4" s="86">
         <v>830</v>
       </c>
-      <c r="F4" s="86">
+      <c r="G4" s="86">
         <v>837</v>
       </c>
-      <c r="G4" s="86">
+      <c r="H4" s="86">
         <v>826</v>
       </c>
-      <c r="H4" s="142">
+      <c r="I4" s="90">
         <v>42242</v>
       </c>
-      <c r="I4" s="86">
+      <c r="J4" s="86">
         <v>837</v>
       </c>
-      <c r="J4">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="86" t="s">
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="C5" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="142">
+      <c r="D5" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="90">
         <v>42197</v>
       </c>
-      <c r="E5" s="86">
+      <c r="F5" s="86">
         <v>293.5</v>
       </c>
-      <c r="F5" s="86">
+      <c r="G5" s="86">
         <v>297</v>
       </c>
-      <c r="G5" s="86">
+      <c r="H5" s="86">
         <v>292</v>
       </c>
-      <c r="H5" s="142">
+      <c r="I5" s="90">
         <v>42216</v>
       </c>
-      <c r="I5" s="86">
+      <c r="J5" s="86">
         <v>294.2</v>
       </c>
-      <c r="J5">
-        <v>294.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="86" t="s">
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="C6" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="142">
+      <c r="D6" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="90">
         <v>42373</v>
-      </c>
-      <c r="E6" s="86">
-        <v>140.9</v>
       </c>
       <c r="F6" s="86">
         <v>140.9</v>
       </c>
       <c r="G6" s="86">
-        <f>E6*95%</f>
+        <v>140.9</v>
+      </c>
+      <c r="H6" s="86">
+        <f>F6*95%</f>
         <v>133.85499999999999</v>
       </c>
-      <c r="H6" s="142">
+      <c r="I6" s="90">
         <v>42375</v>
       </c>
-      <c r="I6" s="86">
+      <c r="J6" s="86">
         <v>140.9</v>
       </c>
-      <c r="J6">
-        <v>140.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="86" t="s">
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="C7" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="142">
+      <c r="D7" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="90">
         <v>42373</v>
       </c>
-      <c r="E7" s="86">
+      <c r="F7" s="86">
         <v>142.4</v>
       </c>
-      <c r="F7" s="86">
+      <c r="G7" s="86">
         <v>143.69999999999999</v>
       </c>
-      <c r="G7" s="86">
-        <f t="shared" ref="G7:G33" si="0">E7*95%</f>
+      <c r="H7" s="86">
+        <f t="shared" ref="H7:H33" si="0">F7*95%</f>
         <v>135.28</v>
       </c>
-      <c r="H7" s="142">
+      <c r="I7" s="90">
         <v>42373</v>
       </c>
-      <c r="I7" s="86">
+      <c r="J7" s="86">
         <v>143.69999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="86" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="C8" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="142">
+      <c r="D8" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="90">
         <v>42374</v>
       </c>
-      <c r="E8" s="86">
+      <c r="F8" s="86">
         <v>261.8</v>
       </c>
-      <c r="F8" s="86">
+      <c r="G8" s="86">
         <v>264.12</v>
       </c>
-      <c r="G8" s="86">
+      <c r="H8" s="86">
         <f t="shared" si="0"/>
         <v>248.71</v>
       </c>
-      <c r="H8" s="142">
+      <c r="I8" s="90">
         <v>42374</v>
       </c>
-      <c r="I8" s="86">
+      <c r="J8" s="86">
         <v>264.12</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="86" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="C9" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="142">
+      <c r="D9" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="90">
         <v>42375</v>
       </c>
-      <c r="E9" s="86">
+      <c r="F9" s="86">
         <v>327</v>
       </c>
-      <c r="F9" s="86">
+      <c r="G9" s="86">
         <v>331</v>
       </c>
-      <c r="G9" s="86">
+      <c r="H9" s="86">
         <f t="shared" si="0"/>
         <v>310.64999999999998</v>
       </c>
-      <c r="H9" s="142">
+      <c r="I9" s="90">
         <v>42375</v>
       </c>
-      <c r="I9" s="86">
+      <c r="J9" s="86">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="86" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="C10" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="142">
+      <c r="D10" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="90">
         <v>42376</v>
       </c>
-      <c r="E10" s="86">
+      <c r="F10" s="86">
         <v>323.3</v>
       </c>
-      <c r="F10" s="86">
+      <c r="G10" s="86">
         <v>325</v>
       </c>
-      <c r="G10" s="86">
+      <c r="H10" s="86">
         <f t="shared" si="0"/>
         <v>307.13499999999999</v>
       </c>
-      <c r="H10" s="142">
+      <c r="I10" s="90">
         <v>42376</v>
       </c>
-      <c r="I10" s="86">
+      <c r="J10" s="86">
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="C11" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="142">
+      <c r="D11" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="90">
         <v>42377</v>
       </c>
-      <c r="E11" s="86">
+      <c r="F11" s="86">
         <v>351.5</v>
       </c>
-      <c r="F11" s="86">
+      <c r="G11" s="86">
         <v>355.5</v>
       </c>
-      <c r="G11" s="86">
+      <c r="H11" s="86">
         <f t="shared" si="0"/>
         <v>333.92500000000001</v>
       </c>
-      <c r="H11" s="142">
+      <c r="I11" s="90">
         <v>42377</v>
       </c>
-      <c r="I11" s="86">
+      <c r="J11" s="86">
         <v>355.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="86" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="C12" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="142">
+      <c r="D12" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="90">
         <v>42380</v>
       </c>
-      <c r="E12" s="86">
+      <c r="F12" s="86">
         <v>204.8</v>
       </c>
-      <c r="F12" s="86">
+      <c r="G12" s="86">
         <v>206.8</v>
       </c>
-      <c r="G12" s="86">
+      <c r="H12" s="86">
         <f t="shared" si="0"/>
         <v>194.56</v>
       </c>
-      <c r="H12" s="142">
+      <c r="I12" s="90">
         <v>42380</v>
       </c>
-      <c r="I12" s="86">
+      <c r="J12" s="86">
         <v>206.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="86" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="C13" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="142">
+      <c r="D13" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="90">
         <v>42380</v>
       </c>
-      <c r="E13" s="86">
+      <c r="F13" s="86">
         <v>315.60000000000002</v>
       </c>
-      <c r="F13" s="86">
+      <c r="G13" s="86">
         <v>316</v>
       </c>
-      <c r="G13" s="86">
+      <c r="H13" s="86">
         <f t="shared" si="0"/>
         <v>299.82</v>
       </c>
-      <c r="H13" s="142">
+      <c r="I13" s="90">
         <v>42380</v>
       </c>
-      <c r="I13" s="86">
+      <c r="J13" s="86">
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="86" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B14" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="C14" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="142">
+      <c r="D14" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="90">
         <v>42381</v>
       </c>
-      <c r="E14" s="86">
+      <c r="F14" s="86">
         <v>1349</v>
       </c>
-      <c r="F14" s="86">
+      <c r="G14" s="86">
         <v>1360</v>
       </c>
-      <c r="G14" s="86">
+      <c r="H14" s="86">
         <f t="shared" si="0"/>
         <v>1281.55</v>
       </c>
-      <c r="H14" s="142">
+      <c r="I14" s="90">
         <v>42381</v>
       </c>
-      <c r="I14" s="86">
+      <c r="J14" s="86">
         <v>1360</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="86" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="C15" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="142">
+      <c r="D15" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="90">
         <v>42381</v>
       </c>
-      <c r="E15" s="86">
+      <c r="F15" s="86">
         <v>139.5</v>
       </c>
-      <c r="F15" s="86">
+      <c r="G15" s="86">
         <v>136.30000000000001</v>
       </c>
-      <c r="G15" s="86">
+      <c r="H15" s="86">
         <f t="shared" si="0"/>
         <v>132.52500000000001</v>
       </c>
-      <c r="H15" s="142">
+      <c r="I15" s="90">
         <v>42381</v>
       </c>
-      <c r="I15" s="86">
+      <c r="J15" s="86">
         <v>136.30000000000001</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="86" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="C16" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="142">
+      <c r="D16" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="90">
         <v>42382</v>
       </c>
-      <c r="E16" s="86">
+      <c r="F16" s="86">
         <v>897</v>
       </c>
-      <c r="F16" s="86">
+      <c r="G16" s="86">
         <v>902</v>
       </c>
-      <c r="G16" s="86">
+      <c r="H16" s="86">
         <f t="shared" si="0"/>
         <v>852.15</v>
       </c>
-      <c r="H16" s="142">
+      <c r="I16" s="90">
         <v>42382</v>
       </c>
-      <c r="I16" s="86">
+      <c r="J16" s="86">
         <v>902</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="86" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="C17" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="142">
+      <c r="D17" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="90">
         <v>42382</v>
       </c>
-      <c r="E17" s="86">
+      <c r="F17" s="86">
         <v>260</v>
       </c>
-      <c r="F17" s="86">
+      <c r="G17" s="86">
         <v>247.3</v>
       </c>
-      <c r="G17" s="86">
+      <c r="H17" s="86">
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-      <c r="H17" s="142">
+      <c r="I17" s="90">
         <v>42382</v>
       </c>
-      <c r="I17" s="86">
+      <c r="J17" s="86">
         <v>247.3</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="86" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="C18" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="142">
+      <c r="D18" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="90">
         <v>42383</v>
       </c>
-      <c r="E18" s="86">
+      <c r="F18" s="86">
         <v>543.29999999999995</v>
       </c>
-      <c r="F18" s="86">
+      <c r="G18" s="86">
         <v>537.1</v>
       </c>
-      <c r="G18" s="86">
+      <c r="H18" s="86">
         <f t="shared" si="0"/>
         <v>516.13499999999988</v>
       </c>
-      <c r="H18" s="142">
+      <c r="I18" s="90">
         <v>42383</v>
       </c>
-      <c r="I18" s="86">
+      <c r="J18" s="86">
         <v>537.1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="86" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="C19" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="142">
+      <c r="D19" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="90">
         <v>42384</v>
       </c>
-      <c r="E19" s="86">
+      <c r="F19" s="86">
         <v>121.3</v>
       </c>
-      <c r="F19" s="86">
+      <c r="G19" s="86">
         <v>118.5</v>
       </c>
-      <c r="G19" s="86">
+      <c r="H19" s="86">
         <f t="shared" si="0"/>
         <v>115.23499999999999</v>
       </c>
-      <c r="H19" s="142">
+      <c r="I19" s="90">
         <v>42384</v>
       </c>
-      <c r="I19" s="86">
+      <c r="J19" s="86">
         <v>118.5</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="86" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B20" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="C20" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="142">
+      <c r="D20" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="90">
         <v>42384</v>
       </c>
-      <c r="E20" s="86">
+      <c r="F20" s="86">
         <v>921.75</v>
       </c>
-      <c r="F20" s="86">
+      <c r="G20" s="86">
         <v>930</v>
       </c>
-      <c r="G20" s="86">
+      <c r="H20" s="86">
         <f t="shared" si="0"/>
         <v>875.66249999999991</v>
       </c>
-      <c r="H20" s="142">
+      <c r="I20" s="90">
         <v>42384</v>
       </c>
-      <c r="I20" s="86">
+      <c r="J20" s="86">
         <v>930</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="86" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="C21" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="142">
+      <c r="D21" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="90">
         <v>42387</v>
       </c>
-      <c r="E21" s="86">
+      <c r="F21" s="86">
         <v>317.39999999999998</v>
       </c>
-      <c r="F21" s="86">
+      <c r="G21" s="86">
         <v>314.39999999999998</v>
       </c>
-      <c r="G21" s="86">
+      <c r="H21" s="86">
         <f t="shared" si="0"/>
         <v>301.52999999999997</v>
       </c>
-      <c r="H21" s="142">
+      <c r="I21" s="90">
         <v>42387</v>
       </c>
-      <c r="I21" s="86">
+      <c r="J21" s="86">
         <v>314.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="86" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B22" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="C22" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="142">
+      <c r="D22" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="90">
         <v>42387</v>
       </c>
-      <c r="E22" s="86">
+      <c r="F22" s="86">
         <v>223</v>
       </c>
-      <c r="F22" s="86">
+      <c r="G22" s="86">
         <v>224.1</v>
       </c>
-      <c r="G22" s="86">
+      <c r="H22" s="86">
         <f t="shared" si="0"/>
         <v>211.85</v>
       </c>
-      <c r="H22" s="142">
+      <c r="I22" s="90">
         <v>42387</v>
       </c>
-      <c r="I22" s="86">
+      <c r="J22" s="86">
         <v>224.1</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="86" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="C23" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="142">
+      <c r="D23" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="90">
         <v>42388</v>
       </c>
-      <c r="E23" s="86">
+      <c r="F23" s="86">
         <v>381.2</v>
       </c>
-      <c r="F23" s="86">
+      <c r="G23" s="86">
         <v>388</v>
       </c>
-      <c r="G23" s="86">
+      <c r="H23" s="86">
         <f t="shared" si="0"/>
         <v>362.14</v>
       </c>
-      <c r="H23" s="142">
+      <c r="I23" s="90">
         <v>42388</v>
       </c>
-      <c r="I23" s="86">
+      <c r="J23" s="86">
         <v>388</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="86" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="C24" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="D24" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="142">
+      <c r="E24" s="90">
         <v>42389</v>
       </c>
-      <c r="E24" s="86">
+      <c r="F24" s="86">
         <v>381.1</v>
       </c>
-      <c r="F24" s="86">
+      <c r="G24" s="86">
         <v>376.5</v>
       </c>
-      <c r="G24" s="86">
-        <f>E24*105%</f>
+      <c r="H24" s="86">
+        <f>F24*105%</f>
         <v>400.15500000000003</v>
       </c>
-      <c r="H24" s="142">
+      <c r="I24" s="90">
         <v>42389</v>
       </c>
-      <c r="I24" s="86">
+      <c r="J24" s="86">
         <v>385.70000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="86" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B25" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="C25" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="142">
+      <c r="D25" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="90">
         <v>42389</v>
       </c>
-      <c r="E25" s="86">
+      <c r="F25" s="86">
         <v>848.5</v>
       </c>
-      <c r="F25" s="86">
+      <c r="G25" s="86">
         <v>834.1</v>
       </c>
-      <c r="G25" s="86">
+      <c r="H25" s="86">
         <f t="shared" si="0"/>
         <v>806.07499999999993</v>
       </c>
-      <c r="H25" s="142">
+      <c r="I25" s="90">
         <v>42389</v>
       </c>
-      <c r="I25" s="86">
+      <c r="J25" s="86">
         <v>834.1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="86" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="C26" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="142">
+      <c r="D26" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="90">
         <v>42390</v>
       </c>
-      <c r="E26" s="86">
+      <c r="F26" s="86">
         <v>392</v>
       </c>
-      <c r="F26" s="86">
+      <c r="G26" s="86">
         <v>386.5</v>
       </c>
-      <c r="G26" s="86">
+      <c r="H26" s="86">
         <f t="shared" si="0"/>
         <v>372.4</v>
       </c>
-      <c r="H26" s="142">
+      <c r="I26" s="90">
         <v>42390</v>
       </c>
-      <c r="I26" s="86">
+      <c r="J26" s="86">
         <v>386.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="86" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="C27" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="142">
+      <c r="D27" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="90">
         <v>42391</v>
       </c>
-      <c r="E27" s="86">
+      <c r="F27" s="86">
         <v>1003.2</v>
       </c>
-      <c r="F27" s="86">
+      <c r="G27" s="86">
         <v>1010.5</v>
       </c>
-      <c r="G27" s="86">
+      <c r="H27" s="86">
         <f t="shared" si="0"/>
         <v>953.04</v>
       </c>
-      <c r="H27" s="142">
+      <c r="I27" s="90">
         <v>42391</v>
       </c>
-      <c r="I27" s="86">
+      <c r="J27" s="86">
         <v>1010.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="86" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B28" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="C28" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="142">
+      <c r="D28" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="90">
         <v>42396</v>
       </c>
-      <c r="E28" s="86">
+      <c r="F28" s="86">
         <v>821</v>
       </c>
-      <c r="F28" s="86">
+      <c r="G28" s="86">
         <v>813.5</v>
       </c>
-      <c r="G28" s="86">
+      <c r="H28" s="86">
         <f t="shared" si="0"/>
         <v>779.94999999999993</v>
       </c>
-      <c r="H28" s="142">
+      <c r="I28" s="90">
         <v>42396</v>
       </c>
-      <c r="I28" s="86">
+      <c r="J28" s="86">
         <v>813.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="86" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B29" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="C29" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="142">
+      <c r="D29" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="90">
         <v>42397</v>
       </c>
-      <c r="E29" s="86">
+      <c r="F29" s="86">
         <v>1042.75</v>
       </c>
-      <c r="F29" s="86">
+      <c r="G29" s="86">
         <v>1046.5</v>
       </c>
-      <c r="G29" s="86">
+      <c r="H29" s="86">
         <f t="shared" si="0"/>
         <v>990.61249999999995</v>
       </c>
-      <c r="H29" s="142">
+      <c r="I29" s="90">
         <v>42397</v>
       </c>
-      <c r="I29" s="86">
+      <c r="J29" s="86">
         <v>1046.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="86" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B30" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="B30" s="86" t="s">
+      <c r="C30" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="142">
+      <c r="D30" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="90">
         <v>42398</v>
       </c>
-      <c r="E30" s="86">
+      <c r="F30" s="86">
         <v>1149.7</v>
       </c>
-      <c r="F30" s="86">
+      <c r="G30" s="86">
         <v>1155</v>
       </c>
-      <c r="G30" s="86">
+      <c r="H30" s="86">
         <f t="shared" si="0"/>
         <v>1092.2149999999999</v>
       </c>
-      <c r="H30" s="142">
+      <c r="I30" s="90">
         <v>42398</v>
       </c>
-      <c r="I30" s="86">
+      <c r="J30" s="86">
         <v>1155</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="88" customFormat="1">
+    <row r="31" spans="1:10" s="88" customFormat="1">
       <c r="A31" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" s="88" t="s">
         <v>335</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="C31" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="143">
+      <c r="D31" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="91">
         <v>42387</v>
       </c>
-      <c r="E31" s="88">
+      <c r="F31" s="88">
         <v>317.39999999999998</v>
       </c>
-      <c r="F31" s="88">
+      <c r="G31" s="88">
         <v>314.39999999999998</v>
       </c>
-      <c r="G31" s="88">
+      <c r="H31" s="88">
         <f t="shared" si="0"/>
         <v>301.52999999999997</v>
       </c>
-      <c r="H31" s="143">
+      <c r="I31" s="91">
         <v>42387</v>
       </c>
-      <c r="I31" s="88">
+      <c r="J31" s="88">
         <v>314.39999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="88" customFormat="1">
+    <row r="32" spans="1:10" s="88" customFormat="1">
       <c r="A32" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="B32" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="C32" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="143">
+      <c r="D32" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="91">
         <v>42387</v>
       </c>
-      <c r="E32" s="88">
+      <c r="F32" s="88">
         <v>223</v>
       </c>
-      <c r="F32" s="88">
+      <c r="G32" s="88">
         <v>224.1</v>
       </c>
-      <c r="G32" s="88">
+      <c r="H32" s="88">
         <f t="shared" si="0"/>
         <v>211.85</v>
       </c>
-      <c r="H32" s="143">
+      <c r="I32" s="91">
         <v>42387</v>
       </c>
-      <c r="I32" s="88">
+      <c r="J32" s="88">
         <v>224.1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="88" customFormat="1">
+    <row r="33" spans="1:10" s="88" customFormat="1">
       <c r="A33" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="B33" s="88" t="s">
         <v>337</v>
       </c>
-      <c r="B33" s="88" t="s">
+      <c r="C33" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="143">
+      <c r="D33" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="91">
         <v>42388</v>
       </c>
-      <c r="E33" s="88">
+      <c r="F33" s="88">
         <v>381.2</v>
       </c>
-      <c r="F33" s="88">
+      <c r="G33" s="88">
         <v>388</v>
       </c>
-      <c r="G33" s="88">
+      <c r="H33" s="88">
         <f t="shared" si="0"/>
         <v>362.14</v>
       </c>
-      <c r="H33" s="143">
+      <c r="I33" s="91">
         <v>42388</v>
       </c>
-      <c r="I33" s="88">
+      <c r="J33" s="88">
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="88" customFormat="1">
+    <row r="34" spans="1:10" s="88" customFormat="1">
       <c r="A34" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="B34" s="88" t="s">
         <v>338</v>
       </c>
-      <c r="B34" s="88" t="s">
+      <c r="C34" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="D34" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="143">
+      <c r="E34" s="91">
         <v>42389</v>
       </c>
-      <c r="E34" s="88">
+      <c r="F34" s="88">
         <v>381.1</v>
       </c>
-      <c r="F34" s="88">
+      <c r="G34" s="88">
         <v>376.5</v>
       </c>
-      <c r="G34" s="88">
-        <f>E34*105%</f>
+      <c r="H34" s="88">
+        <f>F34*105%</f>
         <v>400.15500000000003</v>
       </c>
-      <c r="H34" s="143">
+      <c r="I34" s="91">
         <v>42389</v>
       </c>
-      <c r="I34" s="88">
+      <c r="J34" s="88">
         <v>385.70000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="88" customFormat="1">
+    <row r="35" spans="1:10" s="88" customFormat="1">
       <c r="A35" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="B35" s="88" t="s">
         <v>339</v>
       </c>
-      <c r="B35" s="88" t="s">
+      <c r="C35" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="143">
+      <c r="D35" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="91">
         <v>42389</v>
       </c>
-      <c r="E35" s="88">
+      <c r="F35" s="88">
         <v>848.5</v>
       </c>
-      <c r="F35" s="88">
+      <c r="G35" s="88">
         <v>834.1</v>
       </c>
-      <c r="G35" s="88">
-        <f t="shared" ref="G35:G40" si="1">E35*95%</f>
+      <c r="H35" s="88">
+        <f t="shared" ref="H35:H40" si="1">F35*95%</f>
         <v>806.07499999999993</v>
       </c>
-      <c r="H35" s="143">
+      <c r="I35" s="91">
         <v>42389</v>
       </c>
-      <c r="I35" s="88">
+      <c r="J35" s="88">
         <v>834.1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="88" customFormat="1">
+    <row r="36" spans="1:10" s="88" customFormat="1">
       <c r="A36" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="B36" s="88" t="s">
         <v>340</v>
       </c>
-      <c r="B36" s="88" t="s">
+      <c r="C36" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="143">
+      <c r="D36" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="91">
         <v>42390</v>
       </c>
-      <c r="E36" s="88">
+      <c r="F36" s="88">
         <v>392</v>
       </c>
-      <c r="F36" s="88">
+      <c r="G36" s="88">
         <v>386.5</v>
       </c>
-      <c r="G36" s="88">
+      <c r="H36" s="88">
         <f t="shared" si="1"/>
         <v>372.4</v>
       </c>
-      <c r="H36" s="143">
+      <c r="I36" s="91">
         <v>42390</v>
       </c>
-      <c r="I36" s="88">
+      <c r="J36" s="88">
         <v>386.5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="88" customFormat="1">
+    <row r="37" spans="1:10" s="88" customFormat="1">
       <c r="A37" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="B37" s="88" t="s">
+      <c r="C37" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="143">
+      <c r="D37" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="91">
         <v>42391</v>
       </c>
-      <c r="E37" s="88">
+      <c r="F37" s="88">
         <v>1003.2</v>
       </c>
-      <c r="F37" s="88">
+      <c r="G37" s="88">
         <v>1010.5</v>
       </c>
-      <c r="G37" s="88">
+      <c r="H37" s="88">
         <f t="shared" si="1"/>
         <v>953.04</v>
       </c>
-      <c r="H37" s="143">
+      <c r="I37" s="91">
         <v>42391</v>
       </c>
-      <c r="I37" s="88">
+      <c r="J37" s="88">
         <v>1010.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="88" customFormat="1">
+    <row r="38" spans="1:10" s="88" customFormat="1">
       <c r="A38" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="B38" s="88" t="s">
         <v>342</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="C38" s="88" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="143">
+      <c r="D38" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="91">
         <v>42396</v>
       </c>
-      <c r="E38" s="88">
+      <c r="F38" s="88">
         <v>821</v>
       </c>
-      <c r="F38" s="88">
+      <c r="G38" s="88">
         <v>813.5</v>
       </c>
-      <c r="G38" s="88">
+      <c r="H38" s="88">
         <f t="shared" si="1"/>
         <v>779.94999999999993</v>
       </c>
-      <c r="H38" s="143">
+      <c r="I38" s="91">
         <v>42396</v>
       </c>
-      <c r="I38" s="88">
+      <c r="J38" s="88">
         <v>813.5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="88" customFormat="1">
+    <row r="39" spans="1:10" s="88" customFormat="1">
       <c r="A39" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" s="88" t="s">
         <v>343</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="C39" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="143">
+      <c r="D39" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="91">
         <v>42397</v>
       </c>
-      <c r="E39" s="88">
+      <c r="F39" s="88">
         <v>1042.75</v>
       </c>
-      <c r="F39" s="88">
+      <c r="G39" s="88">
         <v>1046.5</v>
       </c>
-      <c r="G39" s="88">
+      <c r="H39" s="88">
         <f t="shared" si="1"/>
         <v>990.61249999999995</v>
       </c>
-      <c r="H39" s="143">
+      <c r="I39" s="91">
         <v>42397</v>
       </c>
-      <c r="I39" s="88">
+      <c r="J39" s="88">
         <v>1046.5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="88" customFormat="1">
+    <row r="40" spans="1:10" s="88" customFormat="1">
       <c r="A40" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" s="88" t="s">
         <v>344</v>
       </c>
-      <c r="B40" s="88" t="s">
+      <c r="C40" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="143">
+      <c r="D40" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="91">
         <v>42398</v>
       </c>
-      <c r="E40" s="88">
+      <c r="F40" s="88">
         <v>1149.7</v>
       </c>
-      <c r="F40" s="88">
+      <c r="G40" s="88">
         <v>1155</v>
       </c>
-      <c r="G40" s="88">
+      <c r="H40" s="88">
         <f t="shared" si="1"/>
         <v>1092.2149999999999</v>
       </c>
-      <c r="H40" s="143">
+      <c r="I40" s="91">
         <v>42398</v>
       </c>
-      <c r="I40" s="88">
+      <c r="J40" s="88">
         <v>1155</v>
       </c>
     </row>

--- a/Research Performance Tracker.xlsx
+++ b/Research Performance Tracker.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="352">
   <si>
     <t>Stocks</t>
   </si>
@@ -1045,43 +1045,55 @@
     <t>Options Calls reports will be uploaded in this excel format.</t>
   </si>
   <si>
-    <t>EQTR0020</t>
-  </si>
-  <si>
-    <t>EQTR0021</t>
-  </si>
-  <si>
-    <t>EQTR0022</t>
-  </si>
-  <si>
-    <t>EQTR0023</t>
-  </si>
-  <si>
-    <t>EQTR0024</t>
-  </si>
-  <si>
-    <t>EQTR0025</t>
-  </si>
-  <si>
-    <t>EQTR0026</t>
-  </si>
-  <si>
-    <t>EQTR0027</t>
-  </si>
-  <si>
-    <t>EQTR0028</t>
-  </si>
-  <si>
-    <t>EQTR0029</t>
-  </si>
-  <si>
     <t>Cat</t>
   </si>
   <si>
     <t>Trading</t>
   </si>
   <si>
-    <t>Positional</t>
+    <t>BHARTIARTI</t>
+  </si>
+  <si>
+    <t>EQ0030</t>
+  </si>
+  <si>
+    <t>EQ0031</t>
+  </si>
+  <si>
+    <t>EQ0032</t>
+  </si>
+  <si>
+    <t>EQ0033</t>
+  </si>
+  <si>
+    <t>EQ0034</t>
+  </si>
+  <si>
+    <t>EQ0035</t>
+  </si>
+  <si>
+    <t>EQ0036</t>
+  </si>
+  <si>
+    <t>EQ0037</t>
+  </si>
+  <si>
+    <t>EQ0038</t>
+  </si>
+  <si>
+    <t>EQ0039</t>
+  </si>
+  <si>
+    <t>EQ0040</t>
+  </si>
+  <si>
+    <t>EQ0041</t>
+  </si>
+  <si>
+    <t>Intraday</t>
+  </si>
+  <si>
+    <t>EQ0042</t>
   </si>
 </sst>
 </file>
@@ -2301,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A120" sqref="A120:I125"/>
+    <sheetView topLeftCell="I28" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5414,15 +5426,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="88"/>
+    <col min="1" max="1" width="9.140625" style="86"/>
     <col min="2" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="92" customWidth="1"/>
     <col min="6" max="7" width="15.7109375" customWidth="1"/>
@@ -5433,7 +5445,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="87" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="87" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B1" s="87" t="s">
         <v>146</v>
@@ -5464,8 +5476,8 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="88" t="s">
-        <v>346</v>
+      <c r="A2" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B2" s="86" t="s">
         <v>147</v>
@@ -5480,7 +5492,7 @@
         <v>42229</v>
       </c>
       <c r="F2" s="86">
-        <v>2399</v>
+        <v>200</v>
       </c>
       <c r="G2" s="86">
         <v>2415</v>
@@ -5496,8 +5508,8 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="88" t="s">
-        <v>346</v>
+      <c r="A3" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>148</v>
@@ -5528,8 +5540,8 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="88" t="s">
-        <v>346</v>
+      <c r="A4" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>149</v>
@@ -5560,8 +5572,8 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="88" t="s">
-        <v>346</v>
+      <c r="A5" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B5" s="86" t="s">
         <v>150</v>
@@ -5592,8 +5604,8 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="88" t="s">
-        <v>346</v>
+      <c r="A6" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B6" s="86" t="s">
         <v>151</v>
@@ -5625,8 +5637,8 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="88" t="s">
-        <v>346</v>
+      <c r="A7" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B7" s="86" t="s">
         <v>152</v>
@@ -5658,8 +5670,8 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="88" t="s">
-        <v>346</v>
+      <c r="A8" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B8" s="86" t="s">
         <v>153</v>
@@ -5691,8 +5703,8 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="88" t="s">
-        <v>346</v>
+      <c r="A9" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B9" s="86" t="s">
         <v>154</v>
@@ -5724,8 +5736,8 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="88" t="s">
-        <v>346</v>
+      <c r="A10" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B10" s="86" t="s">
         <v>155</v>
@@ -5757,8 +5769,8 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="88" t="s">
-        <v>346</v>
+      <c r="A11" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B11" s="86" t="s">
         <v>156</v>
@@ -5790,8 +5802,8 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="88" t="s">
-        <v>346</v>
+      <c r="A12" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B12" s="86" t="s">
         <v>157</v>
@@ -5823,8 +5835,8 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="88" t="s">
-        <v>346</v>
+      <c r="A13" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B13" s="86" t="s">
         <v>158</v>
@@ -5856,8 +5868,8 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="88" t="s">
-        <v>346</v>
+      <c r="A14" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B14" s="86" t="s">
         <v>159</v>
@@ -5889,8 +5901,8 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="88" t="s">
-        <v>346</v>
+      <c r="A15" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B15" s="86" t="s">
         <v>160</v>
@@ -5925,8 +5937,8 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="88" t="s">
-        <v>346</v>
+      <c r="A16" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B16" s="86" t="s">
         <v>161</v>
@@ -5958,8 +5970,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="88" t="s">
-        <v>346</v>
+      <c r="A17" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B17" s="86" t="s">
         <v>162</v>
@@ -5991,8 +6003,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="88" t="s">
-        <v>346</v>
+      <c r="A18" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B18" s="86" t="s">
         <v>163</v>
@@ -6024,8 +6036,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="88" t="s">
-        <v>346</v>
+      <c r="A19" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B19" s="86" t="s">
         <v>164</v>
@@ -6057,8 +6069,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="88" t="s">
-        <v>346</v>
+      <c r="A20" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B20" s="86" t="s">
         <v>165</v>
@@ -6090,8 +6102,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="88" t="s">
-        <v>346</v>
+      <c r="A21" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B21" s="86" t="s">
         <v>166</v>
@@ -6123,8 +6135,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="88" t="s">
-        <v>346</v>
+      <c r="A22" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B22" s="86" t="s">
         <v>167</v>
@@ -6156,8 +6168,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="88" t="s">
-        <v>346</v>
+      <c r="A23" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B23" s="86" t="s">
         <v>168</v>
@@ -6189,8 +6201,8 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="88" t="s">
-        <v>346</v>
+      <c r="A24" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B24" s="86" t="s">
         <v>169</v>
@@ -6222,8 +6234,8 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="88" t="s">
-        <v>346</v>
+      <c r="A25" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B25" s="86" t="s">
         <v>170</v>
@@ -6255,8 +6267,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="88" t="s">
-        <v>346</v>
+      <c r="A26" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B26" s="86" t="s">
         <v>171</v>
@@ -6288,8 +6300,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="88" t="s">
-        <v>346</v>
+      <c r="A27" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B27" s="86" t="s">
         <v>172</v>
@@ -6321,8 +6333,8 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="88" t="s">
-        <v>346</v>
+      <c r="A28" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B28" s="86" t="s">
         <v>173</v>
@@ -6354,8 +6366,8 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="88" t="s">
-        <v>346</v>
+      <c r="A29" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B29" s="86" t="s">
         <v>174</v>
@@ -6387,8 +6399,8 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="88" t="s">
-        <v>346</v>
+      <c r="A30" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="B30" s="86" t="s">
         <v>175</v>
@@ -6420,11 +6432,11 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="88" customFormat="1">
-      <c r="A31" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="B31" s="88" t="s">
-        <v>335</v>
+      <c r="A31" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>338</v>
       </c>
       <c r="C31" s="88" t="s">
         <v>137</v>
@@ -6453,11 +6465,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="88" customFormat="1">
-      <c r="A32" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="B32" s="88" t="s">
-        <v>336</v>
+      <c r="A32" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>339</v>
       </c>
       <c r="C32" s="88" t="s">
         <v>138</v>
@@ -6486,11 +6498,11 @@
       </c>
     </row>
     <row r="33" spans="1:10" s="88" customFormat="1">
-      <c r="A33" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="B33" s="88" t="s">
-        <v>337</v>
+      <c r="A33" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" s="86" t="s">
+        <v>340</v>
       </c>
       <c r="C33" s="88" t="s">
         <v>139</v>
@@ -6519,11 +6531,11 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="88" customFormat="1">
-      <c r="A34" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="B34" s="88" t="s">
-        <v>338</v>
+      <c r="A34" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" s="86" t="s">
+        <v>341</v>
       </c>
       <c r="C34" s="88" t="s">
         <v>139</v>
@@ -6552,11 +6564,11 @@
       </c>
     </row>
     <row r="35" spans="1:10" s="88" customFormat="1">
-      <c r="A35" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="B35" s="88" t="s">
-        <v>339</v>
+      <c r="A35" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>342</v>
       </c>
       <c r="C35" s="88" t="s">
         <v>140</v>
@@ -6574,7 +6586,7 @@
         <v>834.1</v>
       </c>
       <c r="H35" s="88">
-        <f t="shared" ref="H35:H40" si="1">F35*95%</f>
+        <f t="shared" ref="H35:H41" si="1">F35*95%</f>
         <v>806.07499999999993</v>
       </c>
       <c r="I35" s="91">
@@ -6585,11 +6597,11 @@
       </c>
     </row>
     <row r="36" spans="1:10" s="88" customFormat="1">
-      <c r="A36" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="B36" s="88" t="s">
-        <v>340</v>
+      <c r="A36" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" s="86" t="s">
+        <v>343</v>
       </c>
       <c r="C36" s="88" t="s">
         <v>141</v>
@@ -6618,11 +6630,11 @@
       </c>
     </row>
     <row r="37" spans="1:10" s="88" customFormat="1">
-      <c r="A37" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="B37" s="88" t="s">
-        <v>341</v>
+      <c r="A37" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B37" s="86" t="s">
+        <v>344</v>
       </c>
       <c r="C37" s="88" t="s">
         <v>142</v>
@@ -6651,11 +6663,11 @@
       </c>
     </row>
     <row r="38" spans="1:10" s="88" customFormat="1">
-      <c r="A38" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="B38" s="88" t="s">
-        <v>342</v>
+      <c r="A38" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B38" s="86" t="s">
+        <v>345</v>
       </c>
       <c r="C38" s="88" t="s">
         <v>143</v>
@@ -6684,11 +6696,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" s="88" customFormat="1">
-      <c r="A39" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="B39" s="88" t="s">
-        <v>343</v>
+      <c r="A39" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B39" s="86" t="s">
+        <v>346</v>
       </c>
       <c r="C39" s="88" t="s">
         <v>144</v>
@@ -6717,11 +6729,11 @@
       </c>
     </row>
     <row r="40" spans="1:10" s="88" customFormat="1">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40" s="86" t="s">
         <v>347</v>
-      </c>
-      <c r="B40" s="88" t="s">
-        <v>344</v>
       </c>
       <c r="C40" s="88" t="s">
         <v>145</v>
@@ -6747,6 +6759,105 @@
       </c>
       <c r="J40" s="88">
         <v>1155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B41" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="C41" s="86" t="s">
+        <v>337</v>
+      </c>
+      <c r="D41" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="90">
+        <v>42375</v>
+      </c>
+      <c r="F41" s="86">
+        <v>327</v>
+      </c>
+      <c r="G41" s="86">
+        <v>331</v>
+      </c>
+      <c r="H41" s="86">
+        <f t="shared" si="1"/>
+        <v>310.64999999999998</v>
+      </c>
+      <c r="I41" s="90">
+        <v>42375</v>
+      </c>
+      <c r="J41" s="86">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="88" customFormat="1">
+      <c r="A42" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="B42" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="91">
+        <v>42397</v>
+      </c>
+      <c r="F42" s="88">
+        <v>1042.75</v>
+      </c>
+      <c r="G42" s="88">
+        <v>1046.5</v>
+      </c>
+      <c r="H42" s="88">
+        <f t="shared" ref="H42:H43" si="2">F42*95%</f>
+        <v>990.61249999999995</v>
+      </c>
+      <c r="I42" s="91">
+        <v>42397</v>
+      </c>
+      <c r="J42" s="88">
+        <v>1046.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="86" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" s="86" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="90">
+        <v>42387</v>
+      </c>
+      <c r="F43" s="86">
+        <v>317.39999999999998</v>
+      </c>
+      <c r="G43" s="86">
+        <v>314.39999999999998</v>
+      </c>
+      <c r="H43" s="86">
+        <f t="shared" si="2"/>
+        <v>301.52999999999997</v>
+      </c>
+      <c r="I43" s="90">
+        <v>42387</v>
+      </c>
+      <c r="J43" s="86">
+        <v>314.39999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -6759,7 +6870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>

--- a/Research Performance Tracker.xlsx
+++ b/Research Performance Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7320" activeTab="1"/>
+    <workbookView xWindow="315" yWindow="2745" windowWidth="18375" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BACK END CALCULATIONS" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="305">
   <si>
     <t>Stocks</t>
   </si>
@@ -424,676 +424,535 @@
     <t>TATASTEEL</t>
   </si>
   <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
+    <t>COAL INDIA</t>
+  </si>
+  <si>
+    <t>BPCL</t>
+  </si>
+  <si>
+    <t>AXISBANK</t>
+  </si>
+  <si>
+    <t>ASIAN PAINT</t>
+  </si>
+  <si>
+    <t>RELIANCE</t>
+  </si>
+  <si>
+    <t>SUNPHARMA</t>
+  </si>
+  <si>
+    <t>UNIQUE CODE</t>
+  </si>
+  <si>
+    <t>EQ0001</t>
+  </si>
+  <si>
+    <t>EQ0002</t>
+  </si>
+  <si>
+    <t>EQ0003</t>
+  </si>
+  <si>
+    <t>EQ0004</t>
+  </si>
+  <si>
+    <t>HINDPETRO</t>
+  </si>
+  <si>
+    <t>INFRATEL</t>
+  </si>
+  <si>
+    <t>RELINFRA</t>
+  </si>
+  <si>
+    <t>INDUSINDBANK</t>
+  </si>
+  <si>
+    <t>DLF</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
+    <t>TATACHEM</t>
+  </si>
+  <si>
+    <t>ARVIND</t>
+  </si>
+  <si>
+    <t>YESBANK</t>
+  </si>
+  <si>
+    <t>CENTURY</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
+    <t>BATAINDIA</t>
+  </si>
+  <si>
+    <t>JUST DIAL</t>
+  </si>
+  <si>
+    <t>SKS</t>
+  </si>
+  <si>
+    <t>ADANIPORTS</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>GODREJIND</t>
+  </si>
+  <si>
+    <t>IGL</t>
+  </si>
+  <si>
+    <t>BRITANNIA</t>
+  </si>
+  <si>
+    <t>RECLTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBUJA CEMENTS LTD                  </t>
+  </si>
+  <si>
+    <t>TVS MOTOR</t>
+  </si>
+  <si>
+    <t>TECHM</t>
+  </si>
+  <si>
+    <t>BANKBARODA</t>
+  </si>
+  <si>
+    <t>HINDUSTAN UNILEVER</t>
+  </si>
+  <si>
+    <t>DR. REDDY</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>APOLLOTYRE</t>
+  </si>
+  <si>
+    <t>BIOCON</t>
+  </si>
+  <si>
+    <t>KOTAK MAHINDRA</t>
+  </si>
+  <si>
+    <t>Unique Code</t>
+  </si>
+  <si>
+    <t>FO0001</t>
+  </si>
+  <si>
+    <t>FO0002</t>
+  </si>
+  <si>
+    <t>FO0003</t>
+  </si>
+  <si>
+    <t>FO0004</t>
+  </si>
+  <si>
+    <t>FO0005</t>
+  </si>
+  <si>
+    <t>FO0006</t>
+  </si>
+  <si>
+    <t>FO0007</t>
+  </si>
+  <si>
+    <t>FO0008</t>
+  </si>
+  <si>
+    <t>FO0009</t>
+  </si>
+  <si>
+    <t>FO0010</t>
+  </si>
+  <si>
+    <t>FO0011</t>
+  </si>
+  <si>
+    <t>FO0012</t>
+  </si>
+  <si>
+    <t>FO0013</t>
+  </si>
+  <si>
+    <t>FO0014</t>
+  </si>
+  <si>
+    <t>FO0015</t>
+  </si>
+  <si>
+    <t>FO0016</t>
+  </si>
+  <si>
+    <t>FO0017</t>
+  </si>
+  <si>
+    <t>FO0018</t>
+  </si>
+  <si>
+    <t>FO0019</t>
+  </si>
+  <si>
+    <t>FO0020</t>
+  </si>
+  <si>
+    <t>FO0021</t>
+  </si>
+  <si>
+    <t>FO0022</t>
+  </si>
+  <si>
+    <t>FO0023</t>
+  </si>
+  <si>
+    <t>FO0024</t>
+  </si>
+  <si>
+    <t>FO0025</t>
+  </si>
+  <si>
+    <t>FO0026</t>
+  </si>
+  <si>
+    <t>FO0027</t>
+  </si>
+  <si>
+    <t>FO0028</t>
+  </si>
+  <si>
+    <t>FO0029</t>
+  </si>
+  <si>
+    <t>FO0030</t>
+  </si>
+  <si>
+    <t>FO0031</t>
+  </si>
+  <si>
+    <t>FO0032</t>
+  </si>
+  <si>
+    <t>FO0033</t>
+  </si>
+  <si>
+    <t>FO0034</t>
+  </si>
+  <si>
+    <t>FO0035</t>
+  </si>
+  <si>
+    <t>FO0036</t>
+  </si>
+  <si>
+    <t>FO0037</t>
+  </si>
+  <si>
+    <t>FO0038</t>
+  </si>
+  <si>
+    <t>FO0039</t>
+  </si>
+  <si>
+    <t>FO0040</t>
+  </si>
+  <si>
+    <t>FO0041</t>
+  </si>
+  <si>
+    <t>FO0042</t>
+  </si>
+  <si>
+    <t>FO0043</t>
+  </si>
+  <si>
+    <t>FO0044</t>
+  </si>
+  <si>
+    <t>FO0045</t>
+  </si>
+  <si>
+    <t>FO0046</t>
+  </si>
+  <si>
+    <t>FO0047</t>
+  </si>
+  <si>
+    <t>FO0048</t>
+  </si>
+  <si>
+    <t>FO0049</t>
+  </si>
+  <si>
+    <t>FO0050</t>
+  </si>
+  <si>
+    <t>FO0051</t>
+  </si>
+  <si>
+    <t>FO0052</t>
+  </si>
+  <si>
+    <t>FO0053</t>
+  </si>
+  <si>
+    <t>FO0054</t>
+  </si>
+  <si>
+    <t>FO0055</t>
+  </si>
+  <si>
+    <t>FO0056</t>
+  </si>
+  <si>
+    <t>FO0057</t>
+  </si>
+  <si>
+    <t>FO0058</t>
+  </si>
+  <si>
+    <t>FO0059</t>
+  </si>
+  <si>
+    <t>FO0060</t>
+  </si>
+  <si>
+    <t>FO0061</t>
+  </si>
+  <si>
+    <t>FO0062</t>
+  </si>
+  <si>
+    <t>FO0063</t>
+  </si>
+  <si>
+    <t>FO0064</t>
+  </si>
+  <si>
+    <t>FO0065</t>
+  </si>
+  <si>
+    <t>FO0066</t>
+  </si>
+  <si>
+    <t>FO0067</t>
+  </si>
+  <si>
+    <t>FO0068</t>
+  </si>
+  <si>
+    <t>FO0069</t>
+  </si>
+  <si>
+    <t>FO0070</t>
+  </si>
+  <si>
+    <t>FO0071</t>
+  </si>
+  <si>
+    <t>FO0072</t>
+  </si>
+  <si>
+    <t>FO0073</t>
+  </si>
+  <si>
+    <t>FO0074</t>
+  </si>
+  <si>
+    <t>FO0075</t>
+  </si>
+  <si>
+    <t>FO0076</t>
+  </si>
+  <si>
+    <t>FO0077</t>
+  </si>
+  <si>
+    <t>FO0078</t>
+  </si>
+  <si>
+    <t>FO0079</t>
+  </si>
+  <si>
+    <t>FO0080</t>
+  </si>
+  <si>
+    <t>FO0081</t>
+  </si>
+  <si>
+    <t>FO0082</t>
+  </si>
+  <si>
+    <t>FO0083</t>
+  </si>
+  <si>
+    <t>FO0084</t>
+  </si>
+  <si>
+    <t>FO0085</t>
+  </si>
+  <si>
+    <t>FO0086</t>
+  </si>
+  <si>
+    <t>FO0087</t>
+  </si>
+  <si>
+    <t>FO0088</t>
+  </si>
+  <si>
+    <t>FO0089</t>
+  </si>
+  <si>
+    <t>FO0090</t>
+  </si>
+  <si>
+    <t>FO0091</t>
+  </si>
+  <si>
+    <t>FO0092</t>
+  </si>
+  <si>
+    <t>FO0093</t>
+  </si>
+  <si>
+    <t>FO0094</t>
+  </si>
+  <si>
+    <t>FO0095</t>
+  </si>
+  <si>
+    <t>FO0096</t>
+  </si>
+  <si>
+    <t>FO0097</t>
+  </si>
+  <si>
+    <t>Futures, Commodities Futures, Currency Futures all will be given in similar format but there will three separate tables for each. The format of the tabke will be as below.</t>
+  </si>
+  <si>
+    <t>In Future we may give the Unique code as FO0001 onwards , Commodities as CM0001 &amp; Currency as CU0001.</t>
+  </si>
+  <si>
+    <t>ICICI BANK-PE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY-PE</t>
+  </si>
+  <si>
+    <t>HDFC-PE</t>
+  </si>
+  <si>
+    <t>HDFCBANK-PE</t>
+  </si>
+  <si>
+    <t>TATASTEEL-PE</t>
+  </si>
+  <si>
+    <t>RELIANCE-CE</t>
+  </si>
+  <si>
+    <t>BANKNIFTY-CE</t>
+  </si>
+  <si>
+    <t>NIFTY-PE</t>
+  </si>
+  <si>
+    <t>LT-PE</t>
+  </si>
+  <si>
+    <t>OP0001</t>
+  </si>
+  <si>
+    <t>OP0002</t>
+  </si>
+  <si>
+    <t>OP0003</t>
+  </si>
+  <si>
+    <t>OP0004</t>
+  </si>
+  <si>
+    <t>OP0005</t>
+  </si>
+  <si>
+    <t>OP0006</t>
+  </si>
+  <si>
+    <t>OP0007</t>
+  </si>
+  <si>
+    <t>OP0008</t>
+  </si>
+  <si>
+    <t>OP0009</t>
+  </si>
+  <si>
+    <t>OP0010</t>
+  </si>
+  <si>
+    <t>OP0011</t>
+  </si>
+  <si>
+    <t>OP0012</t>
+  </si>
+  <si>
+    <t>OP0013</t>
+  </si>
+  <si>
+    <t>OP0014</t>
+  </si>
+  <si>
+    <t>OP0015</t>
+  </si>
+  <si>
+    <t>OP0016</t>
+  </si>
+  <si>
+    <t>OP0017</t>
+  </si>
+  <si>
+    <t>Options Calls reports will be uploaded in this excel format.</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Trading</t>
+  </si>
+  <si>
+    <t>EQ0005</t>
+  </si>
+  <si>
+    <t>EQ0007</t>
+  </si>
+  <si>
+    <t>EQ0008</t>
+  </si>
+  <si>
     <t>BHARTIART</t>
   </si>
   <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>SBIN</t>
-  </si>
-  <si>
-    <t>COAL INDIA</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>ASTRAMICRO</t>
-  </si>
-  <si>
-    <t>BPCL</t>
-  </si>
-  <si>
-    <t>WIPRO</t>
-  </si>
-  <si>
-    <t>IDEA</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>ICICI BANK</t>
-  </si>
-  <si>
-    <t>AXISBANK</t>
-  </si>
-  <si>
-    <t>ASIAN PAINT</t>
-  </si>
-  <si>
-    <t>ZEEL</t>
-  </si>
-  <si>
-    <t>RELIANCE</t>
-  </si>
-  <si>
-    <t>SUNPHARMA</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>INFY</t>
-  </si>
-  <si>
-    <t>UNIQUE CODE</t>
-  </si>
-  <si>
-    <t>EQ0001</t>
-  </si>
-  <si>
-    <t>EQ0002</t>
-  </si>
-  <si>
-    <t>EQ0003</t>
-  </si>
-  <si>
-    <t>EQ0004</t>
-  </si>
-  <si>
-    <t>EQ0005</t>
-  </si>
-  <si>
-    <t>EQ0006</t>
-  </si>
-  <si>
-    <t>EQ0007</t>
-  </si>
-  <si>
-    <t>EQ0008</t>
-  </si>
-  <si>
-    <t>EQ0009</t>
-  </si>
-  <si>
-    <t>EQ0010</t>
-  </si>
-  <si>
-    <t>EQ0011</t>
-  </si>
-  <si>
-    <t>EQ0012</t>
-  </si>
-  <si>
-    <t>EQ0013</t>
-  </si>
-  <si>
-    <t>EQ0014</t>
-  </si>
-  <si>
-    <t>EQ0015</t>
-  </si>
-  <si>
-    <t>EQ0016</t>
-  </si>
-  <si>
-    <t>EQ0017</t>
-  </si>
-  <si>
-    <t>EQ0018</t>
-  </si>
-  <si>
-    <t>EQ0019</t>
-  </si>
-  <si>
-    <t>EQ0020</t>
-  </si>
-  <si>
-    <t>EQ0021</t>
-  </si>
-  <si>
-    <t>EQ0022</t>
-  </si>
-  <si>
-    <t>EQ0023</t>
-  </si>
-  <si>
-    <t>EQ0024</t>
-  </si>
-  <si>
-    <t>EQ0025</t>
-  </si>
-  <si>
-    <t>EQ0026</t>
-  </si>
-  <si>
-    <t>EQ0027</t>
-  </si>
-  <si>
-    <t>EQ0028</t>
-  </si>
-  <si>
-    <t>EQ0029</t>
-  </si>
-  <si>
-    <t>HINDPETRO</t>
-  </si>
-  <si>
-    <t>INFRATEL</t>
-  </si>
-  <si>
-    <t>RELINFRA</t>
-  </si>
-  <si>
-    <t>INDUSINDBANK</t>
-  </si>
-  <si>
-    <t>DLF</t>
-  </si>
-  <si>
-    <t>AUROPHARMA</t>
-  </si>
-  <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>ARVIND</t>
-  </si>
-  <si>
-    <t>YESBANK</t>
-  </si>
-  <si>
-    <t>CENTURY</t>
-  </si>
-  <si>
-    <t>JSWSTEEL</t>
-  </si>
-  <si>
-    <t>STAR</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>JUST DIAL</t>
-  </si>
-  <si>
-    <t>SKS</t>
-  </si>
-  <si>
-    <t>ADANIPORTS</t>
-  </si>
-  <si>
-    <t>IOC</t>
-  </si>
-  <si>
-    <t>GODREJIND</t>
-  </si>
-  <si>
-    <t>IGL</t>
-  </si>
-  <si>
-    <t>BRITANNIA</t>
-  </si>
-  <si>
-    <t>RECLTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBUJA CEMENTS LTD                  </t>
-  </si>
-  <si>
-    <t>TVS MOTOR</t>
-  </si>
-  <si>
-    <t>TECHM</t>
-  </si>
-  <si>
-    <t>BANKBARODA</t>
-  </si>
-  <si>
-    <t>HINDUSTAN UNILEVER</t>
-  </si>
-  <si>
-    <t>DR. REDDY</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>APOLLOTYRE</t>
-  </si>
-  <si>
-    <t>BIOCON</t>
-  </si>
-  <si>
-    <t>KOTAK MAHINDRA</t>
-  </si>
-  <si>
-    <t>Unique Code</t>
-  </si>
-  <si>
-    <t>FO0001</t>
-  </si>
-  <si>
-    <t>FO0002</t>
-  </si>
-  <si>
-    <t>FO0003</t>
-  </si>
-  <si>
-    <t>FO0004</t>
-  </si>
-  <si>
-    <t>FO0005</t>
-  </si>
-  <si>
-    <t>FO0006</t>
-  </si>
-  <si>
-    <t>FO0007</t>
-  </si>
-  <si>
-    <t>FO0008</t>
-  </si>
-  <si>
-    <t>FO0009</t>
-  </si>
-  <si>
-    <t>FO0010</t>
-  </si>
-  <si>
-    <t>FO0011</t>
-  </si>
-  <si>
-    <t>FO0012</t>
-  </si>
-  <si>
-    <t>FO0013</t>
-  </si>
-  <si>
-    <t>FO0014</t>
-  </si>
-  <si>
-    <t>FO0015</t>
-  </si>
-  <si>
-    <t>FO0016</t>
-  </si>
-  <si>
-    <t>FO0017</t>
-  </si>
-  <si>
-    <t>FO0018</t>
-  </si>
-  <si>
-    <t>FO0019</t>
-  </si>
-  <si>
-    <t>FO0020</t>
-  </si>
-  <si>
-    <t>FO0021</t>
-  </si>
-  <si>
-    <t>FO0022</t>
-  </si>
-  <si>
-    <t>FO0023</t>
-  </si>
-  <si>
-    <t>FO0024</t>
-  </si>
-  <si>
-    <t>FO0025</t>
-  </si>
-  <si>
-    <t>FO0026</t>
-  </si>
-  <si>
-    <t>FO0027</t>
-  </si>
-  <si>
-    <t>FO0028</t>
-  </si>
-  <si>
-    <t>FO0029</t>
-  </si>
-  <si>
-    <t>FO0030</t>
-  </si>
-  <si>
-    <t>FO0031</t>
-  </si>
-  <si>
-    <t>FO0032</t>
-  </si>
-  <si>
-    <t>FO0033</t>
-  </si>
-  <si>
-    <t>FO0034</t>
-  </si>
-  <si>
-    <t>FO0035</t>
-  </si>
-  <si>
-    <t>FO0036</t>
-  </si>
-  <si>
-    <t>FO0037</t>
-  </si>
-  <si>
-    <t>FO0038</t>
-  </si>
-  <si>
-    <t>FO0039</t>
-  </si>
-  <si>
-    <t>FO0040</t>
-  </si>
-  <si>
-    <t>FO0041</t>
-  </si>
-  <si>
-    <t>FO0042</t>
-  </si>
-  <si>
-    <t>FO0043</t>
-  </si>
-  <si>
-    <t>FO0044</t>
-  </si>
-  <si>
-    <t>FO0045</t>
-  </si>
-  <si>
-    <t>FO0046</t>
-  </si>
-  <si>
-    <t>FO0047</t>
-  </si>
-  <si>
-    <t>FO0048</t>
-  </si>
-  <si>
-    <t>FO0049</t>
-  </si>
-  <si>
-    <t>FO0050</t>
-  </si>
-  <si>
-    <t>FO0051</t>
-  </si>
-  <si>
-    <t>FO0052</t>
-  </si>
-  <si>
-    <t>FO0053</t>
-  </si>
-  <si>
-    <t>FO0054</t>
-  </si>
-  <si>
-    <t>FO0055</t>
-  </si>
-  <si>
-    <t>FO0056</t>
-  </si>
-  <si>
-    <t>FO0057</t>
-  </si>
-  <si>
-    <t>FO0058</t>
-  </si>
-  <si>
-    <t>FO0059</t>
-  </si>
-  <si>
-    <t>FO0060</t>
-  </si>
-  <si>
-    <t>FO0061</t>
-  </si>
-  <si>
-    <t>FO0062</t>
-  </si>
-  <si>
-    <t>FO0063</t>
-  </si>
-  <si>
-    <t>FO0064</t>
-  </si>
-  <si>
-    <t>FO0065</t>
-  </si>
-  <si>
-    <t>FO0066</t>
-  </si>
-  <si>
-    <t>FO0067</t>
-  </si>
-  <si>
-    <t>FO0068</t>
-  </si>
-  <si>
-    <t>FO0069</t>
-  </si>
-  <si>
-    <t>FO0070</t>
-  </si>
-  <si>
-    <t>FO0071</t>
-  </si>
-  <si>
-    <t>FO0072</t>
-  </si>
-  <si>
-    <t>FO0073</t>
-  </si>
-  <si>
-    <t>FO0074</t>
-  </si>
-  <si>
-    <t>FO0075</t>
-  </si>
-  <si>
-    <t>FO0076</t>
-  </si>
-  <si>
-    <t>FO0077</t>
-  </si>
-  <si>
-    <t>FO0078</t>
-  </si>
-  <si>
-    <t>FO0079</t>
-  </si>
-  <si>
-    <t>FO0080</t>
-  </si>
-  <si>
-    <t>FO0081</t>
-  </si>
-  <si>
-    <t>FO0082</t>
-  </si>
-  <si>
-    <t>FO0083</t>
-  </si>
-  <si>
-    <t>FO0084</t>
-  </si>
-  <si>
-    <t>FO0085</t>
-  </si>
-  <si>
-    <t>FO0086</t>
-  </si>
-  <si>
-    <t>FO0087</t>
-  </si>
-  <si>
-    <t>FO0088</t>
-  </si>
-  <si>
-    <t>FO0089</t>
-  </si>
-  <si>
-    <t>FO0090</t>
-  </si>
-  <si>
-    <t>FO0091</t>
-  </si>
-  <si>
-    <t>FO0092</t>
-  </si>
-  <si>
-    <t>FO0093</t>
-  </si>
-  <si>
-    <t>FO0094</t>
-  </si>
-  <si>
-    <t>FO0095</t>
-  </si>
-  <si>
-    <t>FO0096</t>
-  </si>
-  <si>
-    <t>FO0097</t>
-  </si>
-  <si>
-    <t>Equity - Trading Calls &amp; Positional Calls reports will be uploaded in the same excel format.</t>
-  </si>
-  <si>
-    <t>Futures, Commodities Futures, Currency Futures all will be given in similar format but there will three separate tables for each. The format of the tabke will be as below.</t>
-  </si>
-  <si>
-    <t>In Future we may give the Unique code as FO0001 onwards , Commodities as CM0001 &amp; Currency as CU0001.</t>
-  </si>
-  <si>
-    <t>ICICI BANK-PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY-PE</t>
-  </si>
-  <si>
-    <t>HDFC-PE</t>
-  </si>
-  <si>
-    <t>HDFCBANK-PE</t>
-  </si>
-  <si>
-    <t>TATASTEEL-PE</t>
-  </si>
-  <si>
-    <t>RELIANCE-CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY-CE</t>
-  </si>
-  <si>
-    <t>NIFTY-PE</t>
-  </si>
-  <si>
-    <t>LT-PE</t>
-  </si>
-  <si>
-    <t>OP0001</t>
-  </si>
-  <si>
-    <t>OP0002</t>
-  </si>
-  <si>
-    <t>OP0003</t>
-  </si>
-  <si>
-    <t>OP0004</t>
-  </si>
-  <si>
-    <t>OP0005</t>
-  </si>
-  <si>
-    <t>OP0006</t>
-  </si>
-  <si>
-    <t>OP0007</t>
-  </si>
-  <si>
-    <t>OP0008</t>
-  </si>
-  <si>
-    <t>OP0009</t>
-  </si>
-  <si>
-    <t>OP0010</t>
-  </si>
-  <si>
-    <t>OP0011</t>
-  </si>
-  <si>
-    <t>OP0012</t>
-  </si>
-  <si>
-    <t>OP0013</t>
-  </si>
-  <si>
-    <t>OP0014</t>
-  </si>
-  <si>
-    <t>OP0015</t>
-  </si>
-  <si>
-    <t>OP0016</t>
-  </si>
-  <si>
-    <t>OP0017</t>
-  </si>
-  <si>
-    <t>Options Calls reports will be uploaded in this excel format.</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Trading</t>
-  </si>
-  <si>
-    <t>BHARTIARTI</t>
-  </si>
-  <si>
-    <t>EQ0030</t>
-  </si>
-  <si>
-    <t>EQ0031</t>
-  </si>
-  <si>
-    <t>EQ0032</t>
-  </si>
-  <si>
-    <t>EQ0033</t>
-  </si>
-  <si>
-    <t>EQ0034</t>
-  </si>
-  <si>
-    <t>EQ0035</t>
-  </si>
-  <si>
-    <t>EQ0036</t>
-  </si>
-  <si>
-    <t>EQ0037</t>
-  </si>
-  <si>
-    <t>EQ0038</t>
-  </si>
-  <si>
-    <t>EQ0039</t>
-  </si>
-  <si>
-    <t>EQ0040</t>
-  </si>
-  <si>
-    <t>EQ0041</t>
-  </si>
-  <si>
     <t>Intraday</t>
-  </si>
-  <si>
-    <t>EQ0042</t>
   </si>
 </sst>
 </file>
@@ -1847,45 +1706,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1893,89 +1731,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1991,6 +1748,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2014,6 +1774,105 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2313,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH134"/>
   <sheetViews>
-    <sheetView topLeftCell="I28" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2338,22 +2197,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
     </row>
     <row r="2" spans="1:14" s="84" customFormat="1">
       <c r="A2" s="84" t="s">
@@ -2403,30 +2262,30 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="127"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
@@ -2496,35 +2355,35 @@
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="115"/>
-      <c r="O30" s="123" t="s">
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="117"/>
+      <c r="O30" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="124"/>
-      <c r="S30" s="124"/>
-      <c r="T30" s="124"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="124"/>
-      <c r="W30" s="124"/>
-      <c r="X30" s="124"/>
-      <c r="Y30" s="124"/>
-      <c r="Z30" s="124"/>
-      <c r="AA30" s="125"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="122"/>
     </row>
     <row r="31" spans="1:27" ht="15" thickTop="1">
       <c r="A31" s="5" t="s">
@@ -2595,17 +2454,17 @@
       <c r="AA33" s="39"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
@@ -2642,9 +2501,9 @@
       <c r="G35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="97"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="127"/>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
@@ -2746,108 +2605,108 @@
       <c r="AA38" s="39"/>
     </row>
     <row r="39" spans="1:27" ht="45" customHeight="1">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="102" t="s">
+      <c r="C39" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="102" t="s">
+      <c r="D39" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="102" t="s">
+      <c r="E39" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="128" t="s">
+      <c r="F39" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="128" t="s">
+      <c r="G39" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="128" t="s">
+      <c r="H39" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="102" t="s">
+      <c r="I39" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="102" t="s">
+      <c r="J39" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="102" t="s">
+      <c r="K39" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="102" t="s">
+      <c r="L39" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="126" t="s">
+      <c r="O39" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="P39" s="105" t="s">
+      <c r="P39" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="105" t="s">
+      <c r="Q39" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="R39" s="105" t="s">
+      <c r="R39" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="S39" s="105" t="s">
+      <c r="S39" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="T39" s="105" t="s">
+      <c r="T39" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="U39" s="105" t="s">
+      <c r="U39" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="V39" s="105" t="s">
+      <c r="V39" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="W39" s="105" t="s">
+      <c r="W39" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="X39" s="105" t="s">
+      <c r="X39" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="Y39" s="105" t="s">
+      <c r="Y39" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Z39" s="105" t="s">
+      <c r="Z39" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="AA39" s="121" t="s">
+      <c r="AA39" s="118" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="100"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="O40" s="126"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="105"/>
-      <c r="S40" s="105"/>
-      <c r="T40" s="105"/>
-      <c r="U40" s="105"/>
-      <c r="V40" s="105"/>
-      <c r="W40" s="105"/>
-      <c r="X40" s="105"/>
-      <c r="Y40" s="105"/>
-      <c r="Z40" s="105"/>
-      <c r="AA40" s="121"/>
+      <c r="A40" s="129"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="113"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="113"/>
+      <c r="AA40" s="118"/>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="27" t="s">
@@ -3173,22 +3032,22 @@
       <c r="AA44" s="78"/>
     </row>
     <row r="45" spans="1:27" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A45" s="130" t="s">
+      <c r="A45" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="129" t="s">
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="129"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="5" t="s">
@@ -3196,50 +3055,50 @@
       </c>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="109"/>
+      <c r="B49" s="138"/>
       <c r="C49" s="65"/>
       <c r="D49" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="111"/>
+      <c r="B50" s="140"/>
       <c r="C50" s="66"/>
       <c r="D50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="111"/>
+      <c r="B51" s="140"/>
       <c r="C51" s="66"/>
       <c r="D51" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="108" t="s">
+      <c r="A52" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="109"/>
+      <c r="B52" s="138"/>
       <c r="C52" s="65"/>
       <c r="D52" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="111"/>
+      <c r="B53" s="140"/>
       <c r="C53" s="66"/>
       <c r="D53" s="4" t="s">
         <v>53</v>
@@ -3249,10 +3108,10 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="109"/>
+      <c r="B54" s="138"/>
       <c r="C54" s="65"/>
       <c r="D54" s="4" t="s">
         <v>55</v>
@@ -3265,10 +3124,10 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A55" s="108" t="s">
+      <c r="A55" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="109"/>
+      <c r="B55" s="138"/>
       <c r="C55" s="65"/>
       <c r="D55" s="4" t="s">
         <v>55</v>
@@ -3281,60 +3140,60 @@
       </c>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="132" t="s">
+      <c r="A56" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="133"/>
+      <c r="B56" s="99"/>
       <c r="C56" s="80"/>
       <c r="D56" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="134" t="s">
+      <c r="A57" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="134"/>
+      <c r="B57" s="100"/>
       <c r="C57" s="80"/>
       <c r="D57" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="135" t="s">
+      <c r="A58" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="136"/>
+      <c r="B58" s="102"/>
       <c r="C58" s="81"/>
       <c r="D58" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="135" t="s">
+      <c r="A59" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="136"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="81"/>
       <c r="D59" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="118" t="s">
+      <c r="A60" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="118"/>
+      <c r="B60" s="131"/>
       <c r="C60" s="81"/>
       <c r="D60" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="112" t="s">
+      <c r="A61" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="112"/>
+      <c r="B61" s="132"/>
       <c r="C61" s="82"/>
       <c r="D61" s="4" t="s">
         <v>105</v>
@@ -3344,10 +3203,10 @@
       </c>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="119" t="s">
+      <c r="A62" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="120"/>
+      <c r="B62" s="134"/>
       <c r="C62" s="82"/>
       <c r="D62" s="4" t="s">
         <v>55</v>
@@ -3357,10 +3216,10 @@
       </c>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="119" t="s">
+      <c r="A63" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="120"/>
+      <c r="B63" s="134"/>
       <c r="C63" s="82"/>
       <c r="D63" s="4" t="s">
         <v>55</v>
@@ -3370,40 +3229,40 @@
       </c>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="119" t="s">
+      <c r="A64" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="120"/>
+      <c r="B64" s="134"/>
       <c r="C64" s="82"/>
       <c r="D64" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="119" t="s">
+      <c r="A65" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="120"/>
+      <c r="B65" s="134"/>
       <c r="C65" s="82"/>
       <c r="D65" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="112" t="s">
+      <c r="A66" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="112"/>
+      <c r="B66" s="132"/>
       <c r="C66" s="82"/>
       <c r="D66" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="112" t="s">
+      <c r="A67" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="112"/>
+      <c r="B67" s="132"/>
       <c r="C67" s="82"/>
       <c r="D67" s="4" t="str">
         <f>D61</f>
@@ -3411,20 +3270,20 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="112" t="s">
+      <c r="A68" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="112"/>
+      <c r="B68" s="132"/>
       <c r="C68" s="82"/>
       <c r="D68" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="112" t="s">
+      <c r="A69" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="112"/>
+      <c r="B69" s="132"/>
       <c r="C69" s="82"/>
       <c r="D69" s="4" t="s">
         <v>55</v>
@@ -3434,10 +3293,10 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="112" t="s">
+      <c r="A70" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="112"/>
+      <c r="B70" s="132"/>
       <c r="C70" s="82"/>
       <c r="D70" s="4" t="s">
         <v>55</v>
@@ -3447,10 +3306,10 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="112" t="s">
+      <c r="A71" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="112"/>
+      <c r="B71" s="132"/>
       <c r="C71" s="82"/>
       <c r="D71" s="4" t="s">
         <v>55</v>
@@ -3460,10 +3319,10 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="112" t="s">
+      <c r="A72" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="112"/>
+      <c r="B72" s="132"/>
       <c r="C72" s="82"/>
       <c r="D72" s="4" t="s">
         <v>55</v>
@@ -3473,10 +3332,10 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="112" t="s">
+      <c r="A73" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="112"/>
+      <c r="B73" s="132"/>
       <c r="C73" s="82"/>
       <c r="D73" s="4" t="s">
         <v>55</v>
@@ -3486,10 +3345,10 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="112" t="s">
+      <c r="A74" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="112"/>
+      <c r="B74" s="132"/>
       <c r="C74" s="82"/>
       <c r="D74" s="4" t="s">
         <v>55</v>
@@ -3499,10 +3358,10 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="112" t="s">
+      <c r="A75" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="112"/>
+      <c r="B75" s="132"/>
       <c r="C75" s="82"/>
       <c r="D75" s="4" t="s">
         <v>55</v>
@@ -3512,10 +3371,10 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="112" t="s">
+      <c r="A76" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="112"/>
+      <c r="B76" s="132"/>
       <c r="C76" s="82"/>
       <c r="D76" s="4" t="s">
         <v>55</v>
@@ -3525,10 +3384,10 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="112" t="s">
+      <c r="A77" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="112"/>
+      <c r="B77" s="132"/>
       <c r="C77" s="82"/>
       <c r="D77" s="4" t="s">
         <v>55</v>
@@ -3538,10 +3397,10 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="112" t="s">
+      <c r="A78" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="112"/>
+      <c r="B78" s="132"/>
       <c r="C78" s="82"/>
       <c r="D78" s="4" t="s">
         <v>55</v>
@@ -3563,38 +3422,38 @@
       <c r="H81" s="22"/>
     </row>
     <row r="82" spans="1:33" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="114"/>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="114"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="114"/>
-      <c r="K82" s="114"/>
-      <c r="L82" s="115"/>
-      <c r="O82" s="93" t="s">
+      <c r="B82" s="116"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="116"/>
+      <c r="H82" s="116"/>
+      <c r="I82" s="116"/>
+      <c r="J82" s="116"/>
+      <c r="K82" s="116"/>
+      <c r="L82" s="117"/>
+      <c r="O82" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="P82" s="94"/>
-      <c r="Q82" s="94"/>
-      <c r="R82" s="94"/>
-      <c r="S82" s="94"/>
-      <c r="T82" s="94"/>
-      <c r="U82" s="94"/>
-      <c r="V82" s="94"/>
-      <c r="W82" s="94"/>
-      <c r="X82" s="94"/>
-      <c r="Y82" s="94"/>
-      <c r="Z82" s="94"/>
-      <c r="AA82" s="94"/>
-      <c r="AB82" s="94"/>
-      <c r="AC82" s="94"/>
-      <c r="AD82" s="95"/>
+      <c r="P82" s="142"/>
+      <c r="Q82" s="142"/>
+      <c r="R82" s="142"/>
+      <c r="S82" s="142"/>
+      <c r="T82" s="142"/>
+      <c r="U82" s="142"/>
+      <c r="V82" s="142"/>
+      <c r="W82" s="142"/>
+      <c r="X82" s="142"/>
+      <c r="Y82" s="142"/>
+      <c r="Z82" s="142"/>
+      <c r="AA82" s="142"/>
+      <c r="AB82" s="142"/>
+      <c r="AC82" s="142"/>
+      <c r="AD82" s="143"/>
       <c r="AE82" s="79"/>
     </row>
     <row r="83" spans="1:33" ht="15" thickTop="1">
@@ -3671,17 +3530,17 @@
       <c r="AD85" s="52"/>
     </row>
     <row r="86" spans="1:33">
-      <c r="A86" s="96" t="s">
+      <c r="A86" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="96"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="96"/>
-      <c r="E86" s="96"/>
-      <c r="F86" s="96"/>
-      <c r="G86" s="96"/>
-      <c r="H86" s="96"/>
-      <c r="I86" s="96"/>
+      <c r="B86" s="125"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="125"/>
+      <c r="G86" s="125"/>
+      <c r="H86" s="125"/>
+      <c r="I86" s="125"/>
       <c r="O86" s="51"/>
       <c r="P86" s="38"/>
       <c r="Q86" s="38"/>
@@ -3721,9 +3580,9 @@
       <c r="G87" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="97"/>
-      <c r="L87" s="98"/>
-      <c r="M87" s="98"/>
+      <c r="K87" s="126"/>
+      <c r="L87" s="127"/>
+      <c r="M87" s="127"/>
       <c r="O87" s="51"/>
       <c r="P87" s="38"/>
       <c r="Q87" s="38"/>
@@ -3837,31 +3696,31 @@
       <c r="AD90" s="52"/>
     </row>
     <row r="91" spans="1:33" ht="45" customHeight="1">
-      <c r="A91" s="99" t="s">
+      <c r="A91" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="101" t="s">
+      <c r="B91" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="139" t="s">
+      <c r="C91" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="D91" s="104" t="s">
+      <c r="D91" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="102" t="s">
+      <c r="E91" s="95" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="102" t="s">
+      <c r="G91" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="H91" s="116" t="s">
+      <c r="H91" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="102" t="s">
+      <c r="I91" s="95" t="s">
         <v>22</v>
       </c>
       <c r="J91" s="24" t="s">
@@ -3876,85 +3735,85 @@
       <c r="M91" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O91" s="104" t="s">
+      <c r="O91" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="P91" s="105" t="s">
+      <c r="P91" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="Q91" s="105" t="s">
+      <c r="Q91" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="R91" s="105" t="s">
+      <c r="R91" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="S91" s="105" t="s">
+      <c r="S91" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="T91" s="105" t="s">
+      <c r="T91" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="U91" s="105" t="s">
+      <c r="U91" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="V91" s="105" t="s">
+      <c r="V91" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="W91" s="105" t="s">
+      <c r="W91" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="X91" s="105" t="s">
+      <c r="X91" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="Y91" s="105" t="s">
+      <c r="Y91" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Z91" s="105" t="s">
+      <c r="Z91" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="AA91" s="105" t="s">
+      <c r="AA91" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="AB91" s="105" t="s">
+      <c r="AB91" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="AC91" s="105" t="s">
+      <c r="AC91" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="AD91" s="106" t="s">
+      <c r="AD91" s="114" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:33">
-      <c r="A92" s="100"/>
-      <c r="B92" s="101"/>
-      <c r="C92" s="140"/>
-      <c r="D92" s="104"/>
-      <c r="E92" s="103"/>
+      <c r="A92" s="129"/>
+      <c r="B92" s="130"/>
+      <c r="C92" s="107"/>
+      <c r="D92" s="112"/>
+      <c r="E92" s="96"/>
       <c r="F92" s="26"/>
-      <c r="G92" s="103"/>
-      <c r="H92" s="117"/>
-      <c r="I92" s="103"/>
+      <c r="G92" s="96"/>
+      <c r="H92" s="136"/>
+      <c r="I92" s="96"/>
       <c r="J92" s="26"/>
       <c r="K92" s="26"/>
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
-      <c r="O92" s="104"/>
-      <c r="P92" s="105"/>
-      <c r="Q92" s="105"/>
-      <c r="R92" s="105"/>
-      <c r="S92" s="105"/>
-      <c r="T92" s="105"/>
-      <c r="U92" s="105"/>
-      <c r="V92" s="105"/>
-      <c r="W92" s="105"/>
-      <c r="X92" s="105"/>
-      <c r="Y92" s="105"/>
-      <c r="Z92" s="105"/>
-      <c r="AA92" s="105"/>
-      <c r="AB92" s="105"/>
-      <c r="AC92" s="105"/>
-      <c r="AD92" s="106"/>
+      <c r="O92" s="112"/>
+      <c r="P92" s="113"/>
+      <c r="Q92" s="113"/>
+      <c r="R92" s="113"/>
+      <c r="S92" s="113"/>
+      <c r="T92" s="113"/>
+      <c r="U92" s="113"/>
+      <c r="V92" s="113"/>
+      <c r="W92" s="113"/>
+      <c r="X92" s="113"/>
+      <c r="Y92" s="113"/>
+      <c r="Z92" s="113"/>
+      <c r="AA92" s="113"/>
+      <c r="AB92" s="113"/>
+      <c r="AC92" s="113"/>
+      <c r="AD92" s="114"/>
     </row>
     <row r="93" spans="1:33" ht="15">
       <c r="A93" s="1" t="s">
@@ -4333,23 +4192,23 @@
       </c>
     </row>
     <row r="97" spans="1:31" ht="63" customHeight="1" thickTop="1">
-      <c r="A97" s="137" t="s">
+      <c r="A97" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="138"/>
-      <c r="C97" s="138"/>
-      <c r="D97" s="138"/>
-      <c r="E97" s="138"/>
-      <c r="F97" s="138"/>
-      <c r="G97" s="138"/>
-      <c r="H97" s="138"/>
-      <c r="I97" s="138"/>
-      <c r="J97" s="129" t="s">
+      <c r="B97" s="105"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="K97" s="129"/>
-      <c r="L97" s="129"/>
-      <c r="M97" s="129"/>
+      <c r="K97" s="103"/>
+      <c r="L97" s="103"/>
+      <c r="M97" s="103"/>
     </row>
     <row r="98" spans="1:31" s="64" customFormat="1">
       <c r="A98" s="72"/>
@@ -4371,60 +4230,60 @@
       </c>
     </row>
     <row r="101" spans="1:31">
-      <c r="A101" s="105" t="s">
+      <c r="A101" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="105"/>
+      <c r="B101" s="113"/>
       <c r="C101" s="83"/>
       <c r="D101" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:31">
-      <c r="A102" s="105" t="s">
+      <c r="A102" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="B102" s="105"/>
+      <c r="B102" s="113"/>
       <c r="C102" s="83"/>
       <c r="D102" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:31">
-      <c r="A103" s="105" t="s">
+      <c r="A103" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="105"/>
+      <c r="B103" s="113"/>
       <c r="C103" s="83"/>
       <c r="D103" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:31">
-      <c r="A104" s="105" t="s">
+      <c r="A104" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="B104" s="105"/>
+      <c r="B104" s="113"/>
       <c r="C104" s="83"/>
       <c r="D104" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:31">
-      <c r="A105" s="105" t="s">
+      <c r="A105" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B105" s="105"/>
+      <c r="B105" s="113"/>
       <c r="C105" s="83"/>
       <c r="D105" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:31">
-      <c r="A106" s="106" t="s">
+      <c r="A106" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="B106" s="106"/>
+      <c r="B106" s="114"/>
       <c r="C106" s="83"/>
       <c r="D106" s="4" t="s">
         <v>81</v>
@@ -4443,39 +4302,39 @@
       <c r="H110" s="22"/>
     </row>
     <row r="111" spans="1:31" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A111" s="113" t="s">
+      <c r="A111" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="B111" s="114"/>
-      <c r="C111" s="114"/>
-      <c r="D111" s="114"/>
-      <c r="E111" s="114"/>
-      <c r="F111" s="114"/>
-      <c r="G111" s="114"/>
-      <c r="H111" s="114"/>
-      <c r="I111" s="114"/>
-      <c r="J111" s="114"/>
-      <c r="K111" s="114"/>
-      <c r="L111" s="115"/>
-      <c r="O111" s="93" t="s">
+      <c r="B111" s="116"/>
+      <c r="C111" s="116"/>
+      <c r="D111" s="116"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="116"/>
+      <c r="G111" s="116"/>
+      <c r="H111" s="116"/>
+      <c r="I111" s="116"/>
+      <c r="J111" s="116"/>
+      <c r="K111" s="116"/>
+      <c r="L111" s="117"/>
+      <c r="O111" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="P111" s="94"/>
-      <c r="Q111" s="94"/>
-      <c r="R111" s="94"/>
-      <c r="S111" s="94"/>
-      <c r="T111" s="94"/>
-      <c r="U111" s="94"/>
-      <c r="V111" s="94"/>
-      <c r="W111" s="94"/>
-      <c r="X111" s="94"/>
-      <c r="Y111" s="94"/>
-      <c r="Z111" s="94"/>
-      <c r="AA111" s="94"/>
-      <c r="AB111" s="94"/>
-      <c r="AC111" s="94"/>
-      <c r="AD111" s="94"/>
-      <c r="AE111" s="95"/>
+      <c r="P111" s="142"/>
+      <c r="Q111" s="142"/>
+      <c r="R111" s="142"/>
+      <c r="S111" s="142"/>
+      <c r="T111" s="142"/>
+      <c r="U111" s="142"/>
+      <c r="V111" s="142"/>
+      <c r="W111" s="142"/>
+      <c r="X111" s="142"/>
+      <c r="Y111" s="142"/>
+      <c r="Z111" s="142"/>
+      <c r="AA111" s="142"/>
+      <c r="AB111" s="142"/>
+      <c r="AC111" s="142"/>
+      <c r="AD111" s="142"/>
+      <c r="AE111" s="143"/>
     </row>
     <row r="112" spans="1:31" ht="15" thickTop="1">
       <c r="A112" s="5" t="s">
@@ -4554,17 +4413,17 @@
       <c r="AE114" s="52"/>
     </row>
     <row r="115" spans="1:34">
-      <c r="A115" s="96" t="s">
+      <c r="A115" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="96"/>
-      <c r="C115" s="96"/>
-      <c r="D115" s="96"/>
-      <c r="E115" s="96"/>
-      <c r="F115" s="96"/>
-      <c r="G115" s="96"/>
-      <c r="H115" s="96"/>
-      <c r="I115" s="96"/>
+      <c r="B115" s="125"/>
+      <c r="C115" s="125"/>
+      <c r="D115" s="125"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="125"/>
+      <c r="G115" s="125"/>
+      <c r="H115" s="125"/>
+      <c r="I115" s="125"/>
       <c r="O115" s="51"/>
       <c r="P115" s="38"/>
       <c r="Q115" s="38"/>
@@ -4607,9 +4466,9 @@
       <c r="I116" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K116" s="97"/>
-      <c r="L116" s="98"/>
-      <c r="M116" s="98"/>
+      <c r="K116" s="126"/>
+      <c r="L116" s="127"/>
+      <c r="M116" s="127"/>
       <c r="O116" s="51"/>
       <c r="P116" s="38"/>
       <c r="Q116" s="38"/>
@@ -4729,28 +4588,28 @@
       <c r="AE119" s="52"/>
     </row>
     <row r="120" spans="1:34" ht="45" customHeight="1">
-      <c r="A120" s="99" t="s">
+      <c r="A120" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="101" t="s">
+      <c r="B120" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C120" s="139" t="s">
+      <c r="C120" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="143" t="s">
+      <c r="D120" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="102" t="s">
+      <c r="E120" s="95" t="s">
         <v>122</v>
       </c>
       <c r="F120" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G120" s="102" t="s">
+      <c r="G120" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="H120" s="141" t="s">
+      <c r="H120" s="108" t="s">
         <v>27</v>
       </c>
       <c r="I120" s="25" t="s">
@@ -4768,89 +4627,89 @@
       <c r="M120" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O120" s="104" t="s">
+      <c r="O120" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="P120" s="105" t="s">
+      <c r="P120" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="Q120" s="105" t="s">
+      <c r="Q120" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="R120" s="105" t="s">
+      <c r="R120" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="S120" s="105" t="s">
+      <c r="S120" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="T120" s="105" t="s">
+      <c r="T120" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="U120" s="105" t="s">
+      <c r="U120" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="V120" s="105" t="s">
+      <c r="V120" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="W120" s="105" t="s">
+      <c r="W120" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="X120" s="105" t="s">
+      <c r="X120" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="Y120" s="105" t="s">
+      <c r="Y120" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="Z120" s="105" t="s">
+      <c r="Z120" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="AA120" s="105" t="s">
+      <c r="AA120" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="AB120" s="105" t="s">
+      <c r="AB120" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="AC120" s="107" t="s">
+      <c r="AC120" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="AD120" s="105" t="s">
+      <c r="AD120" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="AE120" s="106" t="s">
+      <c r="AE120" s="114" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:34">
-      <c r="A121" s="100"/>
-      <c r="B121" s="101"/>
-      <c r="C121" s="140"/>
-      <c r="D121" s="144"/>
-      <c r="E121" s="103"/>
+      <c r="A121" s="129"/>
+      <c r="B121" s="130"/>
+      <c r="C121" s="107"/>
+      <c r="D121" s="111"/>
+      <c r="E121" s="96"/>
       <c r="F121" s="26"/>
-      <c r="G121" s="103"/>
-      <c r="H121" s="142"/>
+      <c r="G121" s="96"/>
+      <c r="H121" s="109"/>
       <c r="I121" s="25"/>
       <c r="J121" s="26"/>
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
       <c r="M121" s="26"/>
-      <c r="O121" s="104"/>
-      <c r="P121" s="105"/>
-      <c r="Q121" s="105"/>
-      <c r="R121" s="105"/>
-      <c r="S121" s="105"/>
-      <c r="T121" s="105"/>
-      <c r="U121" s="105"/>
-      <c r="V121" s="105"/>
-      <c r="W121" s="105"/>
-      <c r="X121" s="105"/>
-      <c r="Y121" s="105"/>
-      <c r="Z121" s="105"/>
-      <c r="AA121" s="105"/>
-      <c r="AB121" s="105"/>
-      <c r="AC121" s="107"/>
-      <c r="AD121" s="105"/>
-      <c r="AE121" s="106"/>
+      <c r="O121" s="112"/>
+      <c r="P121" s="113"/>
+      <c r="Q121" s="113"/>
+      <c r="R121" s="113"/>
+      <c r="S121" s="113"/>
+      <c r="T121" s="113"/>
+      <c r="U121" s="113"/>
+      <c r="V121" s="113"/>
+      <c r="W121" s="113"/>
+      <c r="X121" s="113"/>
+      <c r="Y121" s="113"/>
+      <c r="Z121" s="113"/>
+      <c r="AA121" s="113"/>
+      <c r="AB121" s="113"/>
+      <c r="AC121" s="144"/>
+      <c r="AD121" s="113"/>
+      <c r="AE121" s="114"/>
     </row>
     <row r="122" spans="1:34" ht="15">
       <c r="A122" s="1" t="s">
@@ -5241,23 +5100,23 @@
       </c>
     </row>
     <row r="126" spans="1:34" ht="72" customHeight="1" thickTop="1">
-      <c r="A126" s="137" t="s">
+      <c r="A126" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="B126" s="138"/>
-      <c r="C126" s="138"/>
-      <c r="D126" s="138"/>
-      <c r="E126" s="138"/>
-      <c r="F126" s="138"/>
-      <c r="G126" s="138"/>
-      <c r="H126" s="138"/>
-      <c r="I126" s="138"/>
-      <c r="J126" s="129" t="s">
+      <c r="B126" s="105"/>
+      <c r="C126" s="105"/>
+      <c r="D126" s="105"/>
+      <c r="E126" s="105"/>
+      <c r="F126" s="105"/>
+      <c r="G126" s="105"/>
+      <c r="H126" s="105"/>
+      <c r="I126" s="105"/>
+      <c r="J126" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="K126" s="129"/>
-      <c r="L126" s="129"/>
-      <c r="M126" s="129"/>
+      <c r="K126" s="103"/>
+      <c r="L126" s="103"/>
+      <c r="M126" s="103"/>
       <c r="AC126" s="67" t="s">
         <v>124</v>
       </c>
@@ -5289,6 +5148,111 @@
     </row>
   </sheetData>
   <mergeCells count="129">
+    <mergeCell ref="O111:AE111"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="O120:O121"/>
+    <mergeCell ref="Y120:Y121"/>
+    <mergeCell ref="P120:P121"/>
+    <mergeCell ref="Q120:Q121"/>
+    <mergeCell ref="R120:R121"/>
+    <mergeCell ref="S120:S121"/>
+    <mergeCell ref="T120:T121"/>
+    <mergeCell ref="U120:U121"/>
+    <mergeCell ref="AB120:AB121"/>
+    <mergeCell ref="AD120:AD121"/>
+    <mergeCell ref="AE120:AE121"/>
+    <mergeCell ref="AC120:AC121"/>
+    <mergeCell ref="V120:V121"/>
+    <mergeCell ref="W120:W121"/>
+    <mergeCell ref="X120:X121"/>
+    <mergeCell ref="Z120:Z121"/>
+    <mergeCell ref="AA120:AA121"/>
+    <mergeCell ref="AD91:AD92"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="X91:X92"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="O82:AD82"/>
+    <mergeCell ref="AA91:AA92"/>
+    <mergeCell ref="R91:R92"/>
+    <mergeCell ref="S91:S92"/>
+    <mergeCell ref="T91:T92"/>
+    <mergeCell ref="U91:U92"/>
+    <mergeCell ref="V91:V92"/>
+    <mergeCell ref="W91:W92"/>
+    <mergeCell ref="AB91:AB92"/>
+    <mergeCell ref="AC91:AC92"/>
+    <mergeCell ref="O91:O92"/>
+    <mergeCell ref="P91:P92"/>
+    <mergeCell ref="Q91:Q92"/>
+    <mergeCell ref="Y91:Y92"/>
+    <mergeCell ref="Z91:Z92"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="O30:AA30"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="A10:J11"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
     <mergeCell ref="A45:H45"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="G39:G40"/>
@@ -5313,111 +5277,6 @@
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="A111:L111"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="O30:AA30"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="A10:J11"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="Z91:Z92"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A82:L82"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="AD91:AD92"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="X91:X92"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="O82:AD82"/>
-    <mergeCell ref="AA91:AA92"/>
-    <mergeCell ref="R91:R92"/>
-    <mergeCell ref="S91:S92"/>
-    <mergeCell ref="T91:T92"/>
-    <mergeCell ref="U91:U92"/>
-    <mergeCell ref="V91:V92"/>
-    <mergeCell ref="W91:W92"/>
-    <mergeCell ref="AB91:AB92"/>
-    <mergeCell ref="AC91:AC92"/>
-    <mergeCell ref="O91:O92"/>
-    <mergeCell ref="P91:P92"/>
-    <mergeCell ref="Q91:Q92"/>
-    <mergeCell ref="Y91:Y92"/>
-    <mergeCell ref="O111:AE111"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="O120:O121"/>
-    <mergeCell ref="Y120:Y121"/>
-    <mergeCell ref="P120:P121"/>
-    <mergeCell ref="Q120:Q121"/>
-    <mergeCell ref="R120:R121"/>
-    <mergeCell ref="S120:S121"/>
-    <mergeCell ref="T120:T121"/>
-    <mergeCell ref="U120:U121"/>
-    <mergeCell ref="AB120:AB121"/>
-    <mergeCell ref="AD120:AD121"/>
-    <mergeCell ref="AE120:AE121"/>
-    <mergeCell ref="AC120:AC121"/>
-    <mergeCell ref="V120:V121"/>
-    <mergeCell ref="W120:W121"/>
-    <mergeCell ref="X120:X121"/>
-    <mergeCell ref="Z120:Z121"/>
-    <mergeCell ref="AA120:AA121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5426,10 +5285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5443,12 +5302,12 @@
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="87" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:10" s="87" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="87" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C1" s="87" t="s">
         <v>0</v>
@@ -5456,7 +5315,7 @@
       <c r="D1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="88" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="87" t="s">
@@ -5468,19 +5327,19 @@
       <c r="H1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="88" t="s">
         <v>27</v>
       </c>
       <c r="J1" s="87" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:10">
       <c r="A2" s="86" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C2" s="86" t="s">
         <v>15</v>
@@ -5488,11 +5347,11 @@
       <c r="D2" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="90">
+      <c r="E2" s="89">
         <v>42229</v>
       </c>
       <c r="F2" s="86">
-        <v>200</v>
+        <v>2399</v>
       </c>
       <c r="G2" s="86">
         <v>2415</v>
@@ -5500,19 +5359,19 @@
       <c r="H2" s="86">
         <v>2385</v>
       </c>
-      <c r="I2" s="90">
+      <c r="I2" s="89">
         <v>42234</v>
       </c>
       <c r="J2" s="86">
         <v>2392</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:10">
       <c r="A3" s="86" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C3" s="86" t="s">
         <v>16</v>
@@ -5520,7 +5379,7 @@
       <c r="D3" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="90">
+      <c r="E3" s="89">
         <v>42195</v>
       </c>
       <c r="F3" s="86">
@@ -5532,19 +5391,19 @@
       <c r="H3" s="86">
         <v>1885</v>
       </c>
-      <c r="I3" s="90">
+      <c r="I3" s="89">
         <v>42231</v>
       </c>
       <c r="J3" s="86">
         <v>1893</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:10">
       <c r="A4" s="86" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C4" s="86" t="s">
         <v>17</v>
@@ -5552,7 +5411,7 @@
       <c r="D4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="89">
         <v>42235</v>
       </c>
       <c r="F4" s="86">
@@ -5564,19 +5423,19 @@
       <c r="H4" s="86">
         <v>826</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="89">
         <v>42242</v>
       </c>
       <c r="J4" s="86">
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:10">
       <c r="A5" s="86" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C5" s="86" t="s">
         <v>18</v>
@@ -5584,7 +5443,7 @@
       <c r="D5" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="89">
         <v>42197</v>
       </c>
       <c r="F5" s="86">
@@ -5596,19 +5455,19 @@
       <c r="H5" s="86">
         <v>292</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="89">
         <v>42216</v>
       </c>
       <c r="J5" s="86">
         <v>294.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:10">
       <c r="A6" s="86" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="C6" s="86" t="s">
         <v>126</v>
@@ -5616,7 +5475,7 @@
       <c r="D6" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="89">
         <v>42373</v>
       </c>
       <c r="F6" s="86">
@@ -5629,1236 +5488,408 @@
         <f>F6*95%</f>
         <v>133.85499999999999</v>
       </c>
-      <c r="I6" s="90">
+      <c r="I6" s="89">
         <v>42375</v>
       </c>
       <c r="J6" s="86">
         <v>140.9</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:10">
       <c r="A7" s="86" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D7" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="90">
-        <v>42373</v>
+      <c r="E7" s="89">
+        <v>42374</v>
       </c>
       <c r="F7" s="86">
-        <v>142.4</v>
+        <v>261.8</v>
       </c>
       <c r="G7" s="86">
-        <v>143.69999999999999</v>
+        <v>264.12</v>
       </c>
       <c r="H7" s="86">
-        <f t="shared" ref="H7:H33" si="0">F7*95%</f>
-        <v>135.28</v>
-      </c>
-      <c r="I7" s="90">
-        <v>42373</v>
+        <f t="shared" ref="H7:H8" si="0">F7*95%</f>
+        <v>248.71</v>
+      </c>
+      <c r="I7" s="89">
+        <v>42374</v>
       </c>
       <c r="J7" s="86">
-        <v>143.69999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>264.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="86" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="D8" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="90">
-        <v>42374</v>
+      <c r="E8" s="89">
+        <v>42375</v>
       </c>
       <c r="F8" s="86">
-        <v>261.8</v>
+        <v>327</v>
       </c>
       <c r="G8" s="86">
-        <v>264.12</v>
+        <v>331</v>
       </c>
       <c r="H8" s="86">
         <f t="shared" si="0"/>
-        <v>248.71</v>
-      </c>
-      <c r="I8" s="90">
-        <v>42374</v>
+        <v>310.64999999999998</v>
+      </c>
+      <c r="I8" s="89">
+        <v>42375</v>
       </c>
       <c r="J8" s="86">
-        <v>264.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="90">
-        <v>42375</v>
-      </c>
-      <c r="F9" s="86">
-        <v>327</v>
-      </c>
-      <c r="G9" s="86">
         <v>331</v>
       </c>
-      <c r="H9" s="86">
-        <f t="shared" si="0"/>
-        <v>310.64999999999998</v>
-      </c>
-      <c r="I9" s="90">
-        <v>42375</v>
-      </c>
-      <c r="J9" s="86">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="90">
-        <v>42376</v>
-      </c>
-      <c r="F10" s="86">
-        <v>323.3</v>
-      </c>
-      <c r="G10" s="86">
-        <v>325</v>
-      </c>
-      <c r="H10" s="86">
-        <f t="shared" si="0"/>
-        <v>307.13499999999999</v>
-      </c>
-      <c r="I10" s="90">
-        <v>42376</v>
-      </c>
-      <c r="J10" s="86">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B11" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="90">
-        <v>42377</v>
-      </c>
-      <c r="F11" s="86">
-        <v>351.5</v>
-      </c>
-      <c r="G11" s="86">
-        <v>355.5</v>
-      </c>
-      <c r="H11" s="86">
-        <f t="shared" si="0"/>
-        <v>333.92500000000001</v>
-      </c>
-      <c r="I11" s="90">
-        <v>42377</v>
-      </c>
-      <c r="J11" s="86">
-        <v>355.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="90">
-        <v>42380</v>
-      </c>
-      <c r="F12" s="86">
-        <v>204.8</v>
-      </c>
-      <c r="G12" s="86">
-        <v>206.8</v>
-      </c>
-      <c r="H12" s="86">
-        <f t="shared" si="0"/>
-        <v>194.56</v>
-      </c>
-      <c r="I12" s="90">
-        <v>42380</v>
-      </c>
-      <c r="J12" s="86">
-        <v>206.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="90">
-        <v>42380</v>
-      </c>
-      <c r="F13" s="86">
-        <v>315.60000000000002</v>
-      </c>
-      <c r="G13" s="86">
-        <v>316</v>
-      </c>
-      <c r="H13" s="86">
-        <f t="shared" si="0"/>
-        <v>299.82</v>
-      </c>
-      <c r="I13" s="90">
-        <v>42380</v>
-      </c>
-      <c r="J13" s="86">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="90">
-        <v>42381</v>
-      </c>
-      <c r="F14" s="86">
-        <v>1349</v>
-      </c>
-      <c r="G14" s="86">
-        <v>1360</v>
-      </c>
-      <c r="H14" s="86">
-        <f t="shared" si="0"/>
-        <v>1281.55</v>
-      </c>
-      <c r="I14" s="90">
-        <v>42381</v>
-      </c>
-      <c r="J14" s="86">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B15" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="90">
-        <v>42381</v>
-      </c>
-      <c r="F15" s="86">
-        <v>139.5</v>
-      </c>
-      <c r="G15" s="86">
-        <v>136.30000000000001</v>
-      </c>
-      <c r="H15" s="86">
-        <f t="shared" si="0"/>
-        <v>132.52500000000001</v>
-      </c>
-      <c r="I15" s="90">
-        <v>42381</v>
-      </c>
-      <c r="J15" s="86">
-        <v>136.30000000000001</v>
-      </c>
-      <c r="L15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="90">
-        <v>42382</v>
-      </c>
-      <c r="F16" s="86">
-        <v>897</v>
-      </c>
-      <c r="G16" s="86">
-        <v>902</v>
-      </c>
-      <c r="H16" s="86">
-        <f t="shared" si="0"/>
-        <v>852.15</v>
-      </c>
-      <c r="I16" s="90">
-        <v>42382</v>
-      </c>
-      <c r="J16" s="86">
-        <v>902</v>
-      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="86"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="86"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="86"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="86"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="86"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="86"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="86"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="90">
-        <v>42382</v>
-      </c>
-      <c r="F17" s="86">
-        <v>260</v>
-      </c>
-      <c r="G17" s="86">
-        <v>247.3</v>
-      </c>
-      <c r="H17" s="86">
-        <f t="shared" si="0"/>
-        <v>247</v>
-      </c>
-      <c r="I17" s="90">
-        <v>42382</v>
-      </c>
-      <c r="J17" s="86">
-        <v>247.3</v>
-      </c>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="90">
-        <v>42383</v>
-      </c>
-      <c r="F18" s="86">
-        <v>543.29999999999995</v>
-      </c>
-      <c r="G18" s="86">
-        <v>537.1</v>
-      </c>
-      <c r="H18" s="86">
-        <f t="shared" si="0"/>
-        <v>516.13499999999988</v>
-      </c>
-      <c r="I18" s="90">
-        <v>42383</v>
-      </c>
-      <c r="J18" s="86">
-        <v>537.1</v>
-      </c>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="90">
-        <v>42384</v>
-      </c>
-      <c r="F19" s="86">
-        <v>121.3</v>
-      </c>
-      <c r="G19" s="86">
-        <v>118.5</v>
-      </c>
-      <c r="H19" s="86">
-        <f t="shared" si="0"/>
-        <v>115.23499999999999</v>
-      </c>
-      <c r="I19" s="90">
-        <v>42384</v>
-      </c>
-      <c r="J19" s="86">
-        <v>118.5</v>
-      </c>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B20" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="90">
-        <v>42384</v>
-      </c>
-      <c r="F20" s="86">
-        <v>921.75</v>
-      </c>
-      <c r="G20" s="86">
-        <v>930</v>
-      </c>
-      <c r="H20" s="86">
-        <f t="shared" si="0"/>
-        <v>875.66249999999991</v>
-      </c>
-      <c r="I20" s="90">
-        <v>42384</v>
-      </c>
-      <c r="J20" s="86">
-        <v>930</v>
-      </c>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B21" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="90">
-        <v>42387</v>
-      </c>
-      <c r="F21" s="86">
-        <v>317.39999999999998</v>
-      </c>
-      <c r="G21" s="86">
-        <v>314.39999999999998</v>
-      </c>
-      <c r="H21" s="86">
-        <f t="shared" si="0"/>
-        <v>301.52999999999997</v>
-      </c>
-      <c r="I21" s="90">
-        <v>42387</v>
-      </c>
-      <c r="J21" s="86">
-        <v>314.39999999999998</v>
-      </c>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B22" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="90">
-        <v>42387</v>
-      </c>
-      <c r="F22" s="86">
-        <v>223</v>
-      </c>
-      <c r="G22" s="86">
-        <v>224.1</v>
-      </c>
-      <c r="H22" s="86">
-        <f t="shared" si="0"/>
-        <v>211.85</v>
-      </c>
-      <c r="I22" s="90">
-        <v>42387</v>
-      </c>
-      <c r="J22" s="86">
-        <v>224.1</v>
-      </c>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B23" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="90">
-        <v>42388</v>
-      </c>
-      <c r="F23" s="86">
-        <v>381.2</v>
-      </c>
-      <c r="G23" s="86">
-        <v>388</v>
-      </c>
-      <c r="H23" s="86">
-        <f t="shared" si="0"/>
-        <v>362.14</v>
-      </c>
-      <c r="I23" s="90">
-        <v>42388</v>
-      </c>
-      <c r="J23" s="86">
-        <v>388</v>
-      </c>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B24" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="90">
-        <v>42389</v>
-      </c>
-      <c r="F24" s="86">
-        <v>381.1</v>
-      </c>
-      <c r="G24" s="86">
-        <v>376.5</v>
-      </c>
-      <c r="H24" s="86">
-        <f>F24*105%</f>
-        <v>400.15500000000003</v>
-      </c>
-      <c r="I24" s="90">
-        <v>42389</v>
-      </c>
-      <c r="J24" s="86">
-        <v>385.70000000000005</v>
-      </c>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B25" s="86" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="90">
-        <v>42389</v>
-      </c>
-      <c r="F25" s="86">
-        <v>848.5</v>
-      </c>
-      <c r="G25" s="86">
-        <v>834.1</v>
-      </c>
-      <c r="H25" s="86">
-        <f t="shared" si="0"/>
-        <v>806.07499999999993</v>
-      </c>
-      <c r="I25" s="90">
-        <v>42389</v>
-      </c>
-      <c r="J25" s="86">
-        <v>834.1</v>
-      </c>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="86"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B26" s="86" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="90">
-        <v>42390</v>
-      </c>
-      <c r="F26" s="86">
-        <v>392</v>
-      </c>
-      <c r="G26" s="86">
-        <v>386.5</v>
-      </c>
-      <c r="H26" s="86">
-        <f t="shared" si="0"/>
-        <v>372.4</v>
-      </c>
-      <c r="I26" s="90">
-        <v>42390</v>
-      </c>
-      <c r="J26" s="86">
-        <v>386.5</v>
-      </c>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B27" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="90">
-        <v>42391</v>
-      </c>
-      <c r="F27" s="86">
-        <v>1003.2</v>
-      </c>
-      <c r="G27" s="86">
-        <v>1010.5</v>
-      </c>
-      <c r="H27" s="86">
-        <f t="shared" si="0"/>
-        <v>953.04</v>
-      </c>
-      <c r="I27" s="90">
-        <v>42391</v>
-      </c>
-      <c r="J27" s="86">
-        <v>1010.5</v>
-      </c>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="86"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B28" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="90">
-        <v>42396</v>
-      </c>
-      <c r="F28" s="86">
-        <v>821</v>
-      </c>
-      <c r="G28" s="86">
-        <v>813.5</v>
-      </c>
-      <c r="H28" s="86">
-        <f t="shared" si="0"/>
-        <v>779.94999999999993</v>
-      </c>
-      <c r="I28" s="90">
-        <v>42396</v>
-      </c>
-      <c r="J28" s="86">
-        <v>813.5</v>
-      </c>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="86"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B29" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="90">
-        <v>42397</v>
-      </c>
-      <c r="F29" s="86">
-        <v>1042.75</v>
-      </c>
-      <c r="G29" s="86">
-        <v>1046.5</v>
-      </c>
-      <c r="H29" s="86">
-        <f t="shared" si="0"/>
-        <v>990.61249999999995</v>
-      </c>
-      <c r="I29" s="90">
-        <v>42397</v>
-      </c>
-      <c r="J29" s="86">
-        <v>1046.5</v>
-      </c>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B30" s="86" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="90">
-        <v>42398</v>
-      </c>
-      <c r="F30" s="86">
-        <v>1149.7</v>
-      </c>
-      <c r="G30" s="86">
-        <v>1155</v>
-      </c>
-      <c r="H30" s="86">
-        <f t="shared" si="0"/>
-        <v>1092.2149999999999</v>
-      </c>
-      <c r="I30" s="90">
-        <v>42398</v>
-      </c>
-      <c r="J30" s="86">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="88" customFormat="1">
-      <c r="A31" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="B31" s="86" t="s">
-        <v>338</v>
-      </c>
-      <c r="C31" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="91">
-        <v>42387</v>
-      </c>
-      <c r="F31" s="88">
-        <v>317.39999999999998</v>
-      </c>
-      <c r="G31" s="88">
-        <v>314.39999999999998</v>
-      </c>
-      <c r="H31" s="88">
-        <f t="shared" si="0"/>
-        <v>301.52999999999997</v>
-      </c>
-      <c r="I31" s="91">
-        <v>42387</v>
-      </c>
-      <c r="J31" s="88">
-        <v>314.39999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="88" customFormat="1">
-      <c r="A32" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="B32" s="86" t="s">
-        <v>339</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="91">
-        <v>42387</v>
-      </c>
-      <c r="F32" s="88">
-        <v>223</v>
-      </c>
-      <c r="G32" s="88">
-        <v>224.1</v>
-      </c>
-      <c r="H32" s="88">
-        <f t="shared" si="0"/>
-        <v>211.85</v>
-      </c>
-      <c r="I32" s="91">
-        <v>42387</v>
-      </c>
-      <c r="J32" s="88">
-        <v>224.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="88" customFormat="1">
-      <c r="A33" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="B33" s="86" t="s">
-        <v>340</v>
-      </c>
-      <c r="C33" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="91">
-        <v>42388</v>
-      </c>
-      <c r="F33" s="88">
-        <v>381.2</v>
-      </c>
-      <c r="G33" s="88">
-        <v>388</v>
-      </c>
-      <c r="H33" s="88">
-        <f t="shared" si="0"/>
-        <v>362.14</v>
-      </c>
-      <c r="I33" s="91">
-        <v>42388</v>
-      </c>
-      <c r="J33" s="88">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="88" customFormat="1">
-      <c r="A34" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="B34" s="86" t="s">
-        <v>341</v>
-      </c>
-      <c r="C34" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="91">
-        <v>42389</v>
-      </c>
-      <c r="F34" s="88">
-        <v>381.1</v>
-      </c>
-      <c r="G34" s="88">
-        <v>376.5</v>
-      </c>
-      <c r="H34" s="88">
-        <f>F34*105%</f>
-        <v>400.15500000000003</v>
-      </c>
-      <c r="I34" s="91">
-        <v>42389</v>
-      </c>
-      <c r="J34" s="88">
-        <v>385.70000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="88" customFormat="1">
-      <c r="A35" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="B35" s="86" t="s">
-        <v>342</v>
-      </c>
-      <c r="C35" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="91">
-        <v>42389</v>
-      </c>
-      <c r="F35" s="88">
-        <v>848.5</v>
-      </c>
-      <c r="G35" s="88">
-        <v>834.1</v>
-      </c>
-      <c r="H35" s="88">
-        <f t="shared" ref="H35:H41" si="1">F35*95%</f>
-        <v>806.07499999999993</v>
-      </c>
-      <c r="I35" s="91">
-        <v>42389</v>
-      </c>
-      <c r="J35" s="88">
-        <v>834.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="88" customFormat="1">
-      <c r="A36" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="B36" s="86" t="s">
-        <v>343</v>
-      </c>
-      <c r="C36" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="91">
-        <v>42390</v>
-      </c>
-      <c r="F36" s="88">
-        <v>392</v>
-      </c>
-      <c r="G36" s="88">
-        <v>386.5</v>
-      </c>
-      <c r="H36" s="88">
-        <f t="shared" si="1"/>
-        <v>372.4</v>
-      </c>
-      <c r="I36" s="91">
-        <v>42390</v>
-      </c>
-      <c r="J36" s="88">
-        <v>386.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="88" customFormat="1">
-      <c r="A37" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="B37" s="86" t="s">
-        <v>344</v>
-      </c>
-      <c r="C37" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="91">
-        <v>42391</v>
-      </c>
-      <c r="F37" s="88">
-        <v>1003.2</v>
-      </c>
-      <c r="G37" s="88">
-        <v>1010.5</v>
-      </c>
-      <c r="H37" s="88">
-        <f t="shared" si="1"/>
-        <v>953.04</v>
-      </c>
-      <c r="I37" s="91">
-        <v>42391</v>
-      </c>
-      <c r="J37" s="88">
-        <v>1010.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="88" customFormat="1">
-      <c r="A38" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="B38" s="86" t="s">
-        <v>345</v>
-      </c>
-      <c r="C38" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="91">
-        <v>42396</v>
-      </c>
-      <c r="F38" s="88">
-        <v>821</v>
-      </c>
-      <c r="G38" s="88">
-        <v>813.5</v>
-      </c>
-      <c r="H38" s="88">
-        <f t="shared" si="1"/>
-        <v>779.94999999999993</v>
-      </c>
-      <c r="I38" s="91">
-        <v>42396</v>
-      </c>
-      <c r="J38" s="88">
-        <v>813.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="88" customFormat="1">
-      <c r="A39" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="B39" s="86" t="s">
-        <v>346</v>
-      </c>
-      <c r="C39" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="91">
-        <v>42397</v>
-      </c>
-      <c r="F39" s="88">
-        <v>1042.75</v>
-      </c>
-      <c r="G39" s="88">
-        <v>1046.5</v>
-      </c>
-      <c r="H39" s="88">
-        <f t="shared" si="1"/>
-        <v>990.61249999999995</v>
-      </c>
-      <c r="I39" s="91">
-        <v>42397</v>
-      </c>
-      <c r="J39" s="88">
-        <v>1046.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="88" customFormat="1">
-      <c r="A40" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="B40" s="86" t="s">
-        <v>347</v>
-      </c>
-      <c r="C40" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="91">
-        <v>42398</v>
-      </c>
-      <c r="F40" s="88">
-        <v>1149.7</v>
-      </c>
-      <c r="G40" s="88">
-        <v>1155</v>
-      </c>
-      <c r="H40" s="88">
-        <f t="shared" si="1"/>
-        <v>1092.2149999999999</v>
-      </c>
-      <c r="I40" s="91">
-        <v>42398</v>
-      </c>
-      <c r="J40" s="88">
-        <v>1155</v>
-      </c>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="86"/>
+    </row>
+    <row r="31" spans="1:10" s="90" customFormat="1">
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="E31" s="91"/>
+      <c r="I31" s="91"/>
+    </row>
+    <row r="32" spans="1:10" s="90" customFormat="1">
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="E32" s="91"/>
+      <c r="I32" s="91"/>
+    </row>
+    <row r="33" spans="1:10" s="90" customFormat="1">
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="E33" s="91"/>
+      <c r="I33" s="91"/>
+    </row>
+    <row r="34" spans="1:10" s="90" customFormat="1">
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="E34" s="91"/>
+      <c r="I34" s="91"/>
+    </row>
+    <row r="35" spans="1:10" s="90" customFormat="1">
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="E35" s="91"/>
+      <c r="I35" s="91"/>
+    </row>
+    <row r="36" spans="1:10" s="90" customFormat="1">
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="E36" s="91"/>
+      <c r="I36" s="91"/>
+    </row>
+    <row r="37" spans="1:10" s="90" customFormat="1">
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="E37" s="91"/>
+      <c r="I37" s="91"/>
+    </row>
+    <row r="38" spans="1:10" s="90" customFormat="1">
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="E38" s="91"/>
+      <c r="I38" s="91"/>
+    </row>
+    <row r="39" spans="1:10" s="90" customFormat="1">
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="E39" s="91"/>
+      <c r="I39" s="91"/>
+    </row>
+    <row r="40" spans="1:10" s="90" customFormat="1">
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="E40" s="91"/>
+      <c r="I40" s="91"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="B41" s="86" t="s">
-        <v>348</v>
-      </c>
-      <c r="C41" s="86" t="s">
-        <v>337</v>
-      </c>
-      <c r="D41" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="90">
-        <v>42375</v>
-      </c>
-      <c r="F41" s="86">
-        <v>327</v>
-      </c>
-      <c r="G41" s="86">
-        <v>331</v>
-      </c>
-      <c r="H41" s="86">
-        <f t="shared" si="1"/>
-        <v>310.64999999999998</v>
-      </c>
-      <c r="I41" s="90">
-        <v>42375</v>
-      </c>
-      <c r="J41" s="86">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="88" customFormat="1">
-      <c r="A42" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="B42" s="86" t="s">
-        <v>349</v>
-      </c>
-      <c r="C42" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="91">
-        <v>42397</v>
-      </c>
-      <c r="F42" s="88">
-        <v>1042.75</v>
-      </c>
-      <c r="G42" s="88">
-        <v>1046.5</v>
-      </c>
-      <c r="H42" s="88">
-        <f t="shared" ref="H42:H43" si="2">F42*95%</f>
-        <v>990.61249999999995</v>
-      </c>
-      <c r="I42" s="91">
-        <v>42397</v>
-      </c>
-      <c r="J42" s="88">
-        <v>1046.5</v>
-      </c>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="86"/>
+    </row>
+    <row r="42" spans="1:10" s="90" customFormat="1">
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="E42" s="91"/>
+      <c r="I42" s="91"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B43" s="86" t="s">
-        <v>351</v>
-      </c>
-      <c r="C43" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="90">
-        <v>42387</v>
-      </c>
-      <c r="F43" s="86">
-        <v>317.39999999999998</v>
-      </c>
-      <c r="G43" s="86">
-        <v>314.39999999999998</v>
-      </c>
-      <c r="H43" s="86">
-        <f t="shared" si="2"/>
-        <v>301.52999999999997</v>
-      </c>
-      <c r="I43" s="90">
-        <v>42387</v>
-      </c>
-      <c r="J43" s="86">
-        <v>314.39999999999998</v>
-      </c>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6890,7 +5921,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="85" customFormat="1">
       <c r="A1" s="85" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="B1" s="85" t="s">
         <v>0</v>
@@ -6922,7 +5953,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -6954,7 +5985,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -6986,7 +6017,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -7018,7 +6049,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -7050,10 +6081,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -7084,10 +6115,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -7118,10 +6149,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -7152,10 +6183,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -7186,10 +6217,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
@@ -7220,10 +6251,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -7254,10 +6285,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
@@ -7288,10 +6319,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -7322,10 +6353,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -7356,10 +6387,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -7390,10 +6421,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -7424,10 +6455,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -7458,10 +6489,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -7492,7 +6523,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
         <v>126</v>
@@ -7526,10 +6557,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -7560,10 +6591,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -7594,10 +6625,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -7624,10 +6655,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -7654,10 +6685,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
@@ -7684,10 +6715,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -7714,10 +6745,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -7744,10 +6775,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -7774,10 +6805,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -7808,10 +6839,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -7842,10 +6873,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
@@ -7876,10 +6907,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
@@ -7910,10 +6941,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -7944,10 +6975,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
@@ -7978,10 +7009,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
@@ -8012,10 +7043,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -8046,10 +7077,10 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -8080,10 +7111,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
         <v>41</v>
@@ -8114,10 +7145,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -8148,10 +7179,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -8182,10 +7213,10 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
@@ -8216,10 +7247,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -8250,10 +7281,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -8284,7 +7315,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="B43" t="s">
         <v>127</v>
@@ -8314,10 +7345,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
         <v>41</v>
@@ -8344,10 +7375,10 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
         <v>41</v>
@@ -8374,10 +7405,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
         <v>41</v>
@@ -8404,10 +7435,10 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
         <v>41</v>
@@ -8434,10 +7465,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
         <v>41</v>
@@ -8464,10 +7495,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="C49" t="s">
         <v>41</v>
@@ -8494,10 +7525,10 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
@@ -8524,10 +7555,10 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
         <v>41</v>
@@ -8554,10 +7585,10 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
         <v>41</v>
@@ -8584,10 +7615,10 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
         <v>41</v>
@@ -8614,10 +7645,10 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
         <v>41</v>
@@ -8644,10 +7675,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
         <v>41</v>
@@ -8674,10 +7705,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
         <v>42</v>
@@ -8708,10 +7739,10 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
         <v>42</v>
@@ -8742,10 +7773,10 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
         <v>41</v>
@@ -8776,10 +7807,10 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
         <v>41</v>
@@ -8810,10 +7841,10 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
         <v>41</v>
@@ -8844,10 +7875,10 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
         <v>41</v>
@@ -8878,10 +7909,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="B62" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
         <v>41</v>
@@ -8912,10 +7943,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
         <v>41</v>
@@ -8946,10 +7977,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
         <v>42</v>
@@ -8980,10 +8011,10 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
         <v>42</v>
@@ -9014,10 +8045,10 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
         <v>42</v>
@@ -9046,15 +8077,15 @@
         <v>872</v>
       </c>
       <c r="P66" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
         <v>42</v>
@@ -9083,15 +8114,15 @@
         <v>553.5</v>
       </c>
       <c r="P67" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
         <v>42</v>
@@ -9122,10 +8153,10 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
         <v>42</v>
@@ -9156,10 +8187,10 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
         <v>42</v>
@@ -9190,10 +8221,10 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
         <v>42</v>
@@ -9224,10 +8255,10 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
         <v>42</v>
@@ -9258,10 +8289,10 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
         <v>42</v>
@@ -9292,10 +8323,10 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C74" t="s">
         <v>42</v>
@@ -9326,10 +8357,10 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C75" t="s">
         <v>42</v>
@@ -9360,10 +8391,10 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="B76" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
         <v>42</v>
@@ -9394,10 +8425,10 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
         <v>42</v>
@@ -9428,10 +8459,10 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
         <v>41</v>
@@ -9462,10 +8493,10 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C79" t="s">
         <v>41</v>
@@ -9496,10 +8527,10 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
         <v>41</v>
@@ -9530,10 +8561,10 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
         <v>41</v>
@@ -9564,10 +8595,10 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
         <v>41</v>
@@ -9598,10 +8629,10 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
         <v>41</v>
@@ -9632,10 +8663,10 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
         <v>41</v>
@@ -9666,10 +8697,10 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C85" t="s">
         <v>41</v>
@@ -9700,10 +8731,10 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C86" t="s">
         <v>42</v>
@@ -9734,10 +8765,10 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="C87" t="s">
         <v>42</v>
@@ -9768,10 +8799,10 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C88" t="s">
         <v>42</v>
@@ -9802,10 +8833,10 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s">
         <v>42</v>
@@ -9836,10 +8867,10 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B90" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
         <v>42</v>
@@ -9870,10 +8901,10 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
         <v>42</v>
@@ -9904,7 +8935,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="B92" t="s">
         <v>126</v>
@@ -9930,10 +8961,10 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="C93" t="s">
         <v>41</v>
@@ -9956,10 +8987,10 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C94" t="s">
         <v>41</v>
@@ -9982,10 +9013,10 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
         <v>41</v>
@@ -10008,10 +9039,10 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
         <v>41</v>
@@ -10034,10 +9065,10 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
         <v>41</v>
@@ -10060,10 +9091,10 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s">
         <v>41</v>
@@ -10112,7 +9143,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="85" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="85" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="B1" s="85" t="s">
         <v>0</v>
@@ -10144,7 +9175,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
@@ -10176,7 +9207,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
@@ -10208,7 +9239,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
         <v>91</v>
@@ -10240,7 +9271,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
@@ -10272,10 +9303,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -10305,10 +9336,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -10338,10 +9369,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -10369,15 +9400,15 @@
         <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -10407,10 +9438,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
@@ -10440,10 +9471,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -10473,10 +9504,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -10506,10 +9537,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
@@ -10539,10 +9570,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
@@ -10572,10 +9603,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -10605,10 +9636,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -10638,10 +9669,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -10671,10 +9702,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>

--- a/Research Performance Tracker.xlsx
+++ b/Research Performance Tracker.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Equity" sheetId="6" r:id="rId2"/>
     <sheet name="Futures , Commodities, Currency" sheetId="7" r:id="rId3"/>
     <sheet name="Options" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="316">
   <si>
     <t>Stocks</t>
   </si>
@@ -953,6 +954,39 @@
   </si>
   <si>
     <t>Intraday</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>FU0001</t>
+  </si>
+  <si>
+    <t>FU0002</t>
+  </si>
+  <si>
+    <t>CU0001</t>
+  </si>
+  <si>
+    <t>CU0002</t>
+  </si>
+  <si>
+    <t>OPTIONS 5</t>
+  </si>
+  <si>
+    <t>OPTIONS 6</t>
+  </si>
+  <si>
+    <t>OPTIONS 7</t>
+  </si>
+  <si>
+    <t>OPTIONS 8</t>
   </si>
 </sst>
 </file>
@@ -1719,11 +1753,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1731,8 +1786,89 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1748,9 +1884,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1774,105 +1907,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2172,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH134"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:H44"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122:I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2197,22 +2231,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="20" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
     </row>
     <row r="2" spans="1:14" s="84" customFormat="1">
       <c r="A2" s="84" t="s">
@@ -2262,30 +2296,30 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="124"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
@@ -2355,35 +2389,35 @@
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
-      <c r="O30" s="120" t="s">
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="115"/>
+      <c r="O30" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="122"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="124"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="124"/>
+      <c r="Z30" s="124"/>
+      <c r="AA30" s="125"/>
     </row>
     <row r="31" spans="1:27" ht="15" thickTop="1">
       <c r="A31" s="5" t="s">
@@ -2454,17 +2488,17 @@
       <c r="AA33" s="39"/>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
       <c r="O34" s="37"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
@@ -2501,9 +2535,9 @@
       <c r="G35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K35" s="126"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
       <c r="O35" s="37"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
@@ -2605,108 +2639,108 @@
       <c r="AA38" s="39"/>
     </row>
     <row r="39" spans="1:27" ht="45" customHeight="1">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="95" t="s">
+      <c r="D39" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="95" t="s">
+      <c r="E39" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="97" t="s">
+      <c r="F39" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="97" t="s">
+      <c r="G39" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="97" t="s">
+      <c r="H39" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="95" t="s">
+      <c r="I39" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="95" t="s">
+      <c r="J39" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="95" t="s">
+      <c r="K39" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="95" t="s">
+      <c r="L39" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="123" t="s">
+      <c r="O39" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="P39" s="113" t="s">
+      <c r="P39" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="113" t="s">
+      <c r="Q39" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="R39" s="113" t="s">
+      <c r="R39" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="S39" s="113" t="s">
+      <c r="S39" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="T39" s="113" t="s">
+      <c r="T39" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="U39" s="113" t="s">
+      <c r="U39" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="V39" s="113" t="s">
+      <c r="V39" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="W39" s="113" t="s">
+      <c r="W39" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="X39" s="113" t="s">
+      <c r="X39" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="Y39" s="113" t="s">
+      <c r="Y39" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="Z39" s="113" t="s">
+      <c r="Z39" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="AA39" s="118" t="s">
+      <c r="AA39" s="121" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="129"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="113"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="113"/>
-      <c r="W40" s="113"/>
-      <c r="X40" s="113"/>
-      <c r="Y40" s="113"/>
-      <c r="Z40" s="113"/>
-      <c r="AA40" s="118"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="O40" s="126"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="105"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="105"/>
+      <c r="X40" s="105"/>
+      <c r="Y40" s="105"/>
+      <c r="Z40" s="105"/>
+      <c r="AA40" s="121"/>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="27" t="s">
@@ -3032,22 +3066,22 @@
       <c r="AA44" s="78"/>
     </row>
     <row r="45" spans="1:27" ht="57.75" customHeight="1" thickTop="1">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="103" t="s">
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="129"/>
+      <c r="L45" s="129"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="5" t="s">
@@ -3055,50 +3089,50 @@
       </c>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="137" t="s">
+      <c r="A49" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="138"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="65"/>
       <c r="D49" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="139" t="s">
+      <c r="A50" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="140"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="66"/>
       <c r="D50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="139" t="s">
+      <c r="A51" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="140"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="66"/>
       <c r="D51" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="137" t="s">
+      <c r="A52" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="138"/>
+      <c r="B52" s="109"/>
       <c r="C52" s="65"/>
       <c r="D52" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="139" t="s">
+      <c r="A53" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="140"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="66"/>
       <c r="D53" s="4" t="s">
         <v>53</v>
@@ -3108,10 +3142,10 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A54" s="137" t="s">
+      <c r="A54" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="138"/>
+      <c r="B54" s="109"/>
       <c r="C54" s="65"/>
       <c r="D54" s="4" t="s">
         <v>55</v>
@@ -3124,10 +3158,10 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A55" s="137" t="s">
+      <c r="A55" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="138"/>
+      <c r="B55" s="109"/>
       <c r="C55" s="65"/>
       <c r="D55" s="4" t="s">
         <v>55</v>
@@ -3140,60 +3174,60 @@
       </c>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="98" t="s">
+      <c r="A56" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="99"/>
+      <c r="B56" s="133"/>
       <c r="C56" s="80"/>
       <c r="D56" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="100"/>
+      <c r="B57" s="134"/>
       <c r="C57" s="80"/>
       <c r="D57" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="101" t="s">
+      <c r="A58" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="102"/>
+      <c r="B58" s="136"/>
       <c r="C58" s="81"/>
       <c r="D58" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="101" t="s">
+      <c r="A59" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="102"/>
+      <c r="B59" s="136"/>
       <c r="C59" s="81"/>
       <c r="D59" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="131" t="s">
+      <c r="A60" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="131"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="81"/>
       <c r="D60" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="132" t="s">
+      <c r="A61" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="132"/>
+      <c r="B61" s="112"/>
       <c r="C61" s="82"/>
       <c r="D61" s="4" t="s">
         <v>105</v>
@@ -3203,10 +3237,10 @@
       </c>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="133" t="s">
+      <c r="A62" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="134"/>
+      <c r="B62" s="120"/>
       <c r="C62" s="82"/>
       <c r="D62" s="4" t="s">
         <v>55</v>
@@ -3216,10 +3250,10 @@
       </c>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="133" t="s">
+      <c r="A63" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="134"/>
+      <c r="B63" s="120"/>
       <c r="C63" s="82"/>
       <c r="D63" s="4" t="s">
         <v>55</v>
@@ -3229,40 +3263,40 @@
       </c>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="133" t="s">
+      <c r="A64" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="134"/>
+      <c r="B64" s="120"/>
       <c r="C64" s="82"/>
       <c r="D64" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="133" t="s">
+      <c r="A65" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="134"/>
+      <c r="B65" s="120"/>
       <c r="C65" s="82"/>
       <c r="D65" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="132" t="s">
+      <c r="A66" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="132"/>
+      <c r="B66" s="112"/>
       <c r="C66" s="82"/>
       <c r="D66" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="132" t="s">
+      <c r="A67" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="132"/>
+      <c r="B67" s="112"/>
       <c r="C67" s="82"/>
       <c r="D67" s="4" t="str">
         <f>D61</f>
@@ -3270,20 +3304,20 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="132" t="s">
+      <c r="A68" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="132"/>
+      <c r="B68" s="112"/>
       <c r="C68" s="82"/>
       <c r="D68" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="132" t="s">
+      <c r="A69" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="132"/>
+      <c r="B69" s="112"/>
       <c r="C69" s="82"/>
       <c r="D69" s="4" t="s">
         <v>55</v>
@@ -3293,10 +3327,10 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="132" t="s">
+      <c r="A70" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="132"/>
+      <c r="B70" s="112"/>
       <c r="C70" s="82"/>
       <c r="D70" s="4" t="s">
         <v>55</v>
@@ -3306,10 +3340,10 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="132" t="s">
+      <c r="A71" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="132"/>
+      <c r="B71" s="112"/>
       <c r="C71" s="82"/>
       <c r="D71" s="4" t="s">
         <v>55</v>
@@ -3319,10 +3353,10 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="132" t="s">
+      <c r="A72" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="132"/>
+      <c r="B72" s="112"/>
       <c r="C72" s="82"/>
       <c r="D72" s="4" t="s">
         <v>55</v>
@@ -3332,10 +3366,10 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="132" t="s">
+      <c r="A73" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="132"/>
+      <c r="B73" s="112"/>
       <c r="C73" s="82"/>
       <c r="D73" s="4" t="s">
         <v>55</v>
@@ -3345,10 +3379,10 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="132" t="s">
+      <c r="A74" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="132"/>
+      <c r="B74" s="112"/>
       <c r="C74" s="82"/>
       <c r="D74" s="4" t="s">
         <v>55</v>
@@ -3358,10 +3392,10 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="132" t="s">
+      <c r="A75" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="132"/>
+      <c r="B75" s="112"/>
       <c r="C75" s="82"/>
       <c r="D75" s="4" t="s">
         <v>55</v>
@@ -3371,10 +3405,10 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="132" t="s">
+      <c r="A76" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="132"/>
+      <c r="B76" s="112"/>
       <c r="C76" s="82"/>
       <c r="D76" s="4" t="s">
         <v>55</v>
@@ -3384,10 +3418,10 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="132"/>
+      <c r="B77" s="112"/>
       <c r="C77" s="82"/>
       <c r="D77" s="4" t="s">
         <v>55</v>
@@ -3397,10 +3431,10 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="132" t="s">
+      <c r="A78" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="132"/>
+      <c r="B78" s="112"/>
       <c r="C78" s="82"/>
       <c r="D78" s="4" t="s">
         <v>55</v>
@@ -3422,38 +3456,38 @@
       <c r="H81" s="22"/>
     </row>
     <row r="82" spans="1:33" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="115" t="s">
+      <c r="A82" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="116"/>
-      <c r="C82" s="116"/>
-      <c r="D82" s="116"/>
-      <c r="E82" s="116"/>
-      <c r="F82" s="116"/>
-      <c r="G82" s="116"/>
-      <c r="H82" s="116"/>
-      <c r="I82" s="116"/>
-      <c r="J82" s="116"/>
-      <c r="K82" s="116"/>
-      <c r="L82" s="117"/>
-      <c r="O82" s="141" t="s">
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114"/>
+      <c r="K82" s="114"/>
+      <c r="L82" s="115"/>
+      <c r="O82" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="P82" s="142"/>
-      <c r="Q82" s="142"/>
-      <c r="R82" s="142"/>
-      <c r="S82" s="142"/>
-      <c r="T82" s="142"/>
-      <c r="U82" s="142"/>
-      <c r="V82" s="142"/>
-      <c r="W82" s="142"/>
-      <c r="X82" s="142"/>
-      <c r="Y82" s="142"/>
-      <c r="Z82" s="142"/>
-      <c r="AA82" s="142"/>
-      <c r="AB82" s="142"/>
-      <c r="AC82" s="142"/>
-      <c r="AD82" s="143"/>
+      <c r="P82" s="94"/>
+      <c r="Q82" s="94"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="94"/>
+      <c r="T82" s="94"/>
+      <c r="U82" s="94"/>
+      <c r="V82" s="94"/>
+      <c r="W82" s="94"/>
+      <c r="X82" s="94"/>
+      <c r="Y82" s="94"/>
+      <c r="Z82" s="94"/>
+      <c r="AA82" s="94"/>
+      <c r="AB82" s="94"/>
+      <c r="AC82" s="94"/>
+      <c r="AD82" s="95"/>
       <c r="AE82" s="79"/>
     </row>
     <row r="83" spans="1:33" ht="15" thickTop="1">
@@ -3530,17 +3564,17 @@
       <c r="AD85" s="52"/>
     </row>
     <row r="86" spans="1:33">
-      <c r="A86" s="125" t="s">
+      <c r="A86" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="125"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="125"/>
-      <c r="H86" s="125"/>
-      <c r="I86" s="125"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="96"/>
+      <c r="G86" s="96"/>
+      <c r="H86" s="96"/>
+      <c r="I86" s="96"/>
       <c r="O86" s="51"/>
       <c r="P86" s="38"/>
       <c r="Q86" s="38"/>
@@ -3580,9 +3614,9 @@
       <c r="G87" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K87" s="126"/>
-      <c r="L87" s="127"/>
-      <c r="M87" s="127"/>
+      <c r="K87" s="97"/>
+      <c r="L87" s="98"/>
+      <c r="M87" s="98"/>
       <c r="O87" s="51"/>
       <c r="P87" s="38"/>
       <c r="Q87" s="38"/>
@@ -3696,31 +3730,31 @@
       <c r="AD90" s="52"/>
     </row>
     <row r="91" spans="1:33" ht="45" customHeight="1">
-      <c r="A91" s="128" t="s">
+      <c r="A91" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="130" t="s">
+      <c r="B91" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="106" t="s">
+      <c r="C91" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="D91" s="112" t="s">
+      <c r="D91" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="95" t="s">
+      <c r="E91" s="102" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="95" t="s">
+      <c r="G91" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H91" s="135" t="s">
+      <c r="H91" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="95" t="s">
+      <c r="I91" s="102" t="s">
         <v>22</v>
       </c>
       <c r="J91" s="24" t="s">
@@ -3735,85 +3769,85 @@
       <c r="M91" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O91" s="112" t="s">
+      <c r="O91" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="P91" s="113" t="s">
+      <c r="P91" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="Q91" s="113" t="s">
+      <c r="Q91" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="R91" s="113" t="s">
+      <c r="R91" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="S91" s="113" t="s">
+      <c r="S91" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="T91" s="113" t="s">
+      <c r="T91" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="U91" s="113" t="s">
+      <c r="U91" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="V91" s="113" t="s">
+      <c r="V91" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="W91" s="113" t="s">
+      <c r="W91" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="X91" s="113" t="s">
+      <c r="X91" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="Y91" s="113" t="s">
+      <c r="Y91" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="Z91" s="113" t="s">
+      <c r="Z91" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="AA91" s="113" t="s">
+      <c r="AA91" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="AB91" s="113" t="s">
+      <c r="AB91" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AC91" s="113" t="s">
+      <c r="AC91" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="AD91" s="114" t="s">
+      <c r="AD91" s="106" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:33">
-      <c r="A92" s="129"/>
-      <c r="B92" s="130"/>
-      <c r="C92" s="107"/>
-      <c r="D92" s="112"/>
-      <c r="E92" s="96"/>
+      <c r="A92" s="100"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="140"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="103"/>
       <c r="F92" s="26"/>
-      <c r="G92" s="96"/>
-      <c r="H92" s="136"/>
-      <c r="I92" s="96"/>
+      <c r="G92" s="103"/>
+      <c r="H92" s="117"/>
+      <c r="I92" s="103"/>
       <c r="J92" s="26"/>
       <c r="K92" s="26"/>
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
-      <c r="O92" s="112"/>
-      <c r="P92" s="113"/>
-      <c r="Q92" s="113"/>
-      <c r="R92" s="113"/>
-      <c r="S92" s="113"/>
-      <c r="T92" s="113"/>
-      <c r="U92" s="113"/>
-      <c r="V92" s="113"/>
-      <c r="W92" s="113"/>
-      <c r="X92" s="113"/>
-      <c r="Y92" s="113"/>
-      <c r="Z92" s="113"/>
-      <c r="AA92" s="113"/>
-      <c r="AB92" s="113"/>
-      <c r="AC92" s="113"/>
-      <c r="AD92" s="114"/>
+      <c r="O92" s="104"/>
+      <c r="P92" s="105"/>
+      <c r="Q92" s="105"/>
+      <c r="R92" s="105"/>
+      <c r="S92" s="105"/>
+      <c r="T92" s="105"/>
+      <c r="U92" s="105"/>
+      <c r="V92" s="105"/>
+      <c r="W92" s="105"/>
+      <c r="X92" s="105"/>
+      <c r="Y92" s="105"/>
+      <c r="Z92" s="105"/>
+      <c r="AA92" s="105"/>
+      <c r="AB92" s="105"/>
+      <c r="AC92" s="105"/>
+      <c r="AD92" s="106"/>
     </row>
     <row r="93" spans="1:33" ht="15">
       <c r="A93" s="1" t="s">
@@ -4192,23 +4226,23 @@
       </c>
     </row>
     <row r="97" spans="1:31" ht="63" customHeight="1" thickTop="1">
-      <c r="A97" s="104" t="s">
+      <c r="A97" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="105"/>
-      <c r="C97" s="105"/>
-      <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="103" t="s">
+      <c r="B97" s="138"/>
+      <c r="C97" s="138"/>
+      <c r="D97" s="138"/>
+      <c r="E97" s="138"/>
+      <c r="F97" s="138"/>
+      <c r="G97" s="138"/>
+      <c r="H97" s="138"/>
+      <c r="I97" s="138"/>
+      <c r="J97" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="K97" s="103"/>
-      <c r="L97" s="103"/>
-      <c r="M97" s="103"/>
+      <c r="K97" s="129"/>
+      <c r="L97" s="129"/>
+      <c r="M97" s="129"/>
     </row>
     <row r="98" spans="1:31" s="64" customFormat="1">
       <c r="A98" s="72"/>
@@ -4230,60 +4264,60 @@
       </c>
     </row>
     <row r="101" spans="1:31">
-      <c r="A101" s="113" t="s">
+      <c r="A101" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="113"/>
+      <c r="B101" s="105"/>
       <c r="C101" s="83"/>
       <c r="D101" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:31">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B102" s="113"/>
+      <c r="B102" s="105"/>
       <c r="C102" s="83"/>
       <c r="D102" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:31">
-      <c r="A103" s="113" t="s">
+      <c r="A103" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="113"/>
+      <c r="B103" s="105"/>
       <c r="C103" s="83"/>
       <c r="D103" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:31">
-      <c r="A104" s="113" t="s">
+      <c r="A104" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="B104" s="113"/>
+      <c r="B104" s="105"/>
       <c r="C104" s="83"/>
       <c r="D104" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:31">
-      <c r="A105" s="113" t="s">
+      <c r="A105" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="B105" s="113"/>
+      <c r="B105" s="105"/>
       <c r="C105" s="83"/>
       <c r="D105" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:31">
-      <c r="A106" s="114" t="s">
+      <c r="A106" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="B106" s="114"/>
+      <c r="B106" s="106"/>
       <c r="C106" s="83"/>
       <c r="D106" s="4" t="s">
         <v>81</v>
@@ -4302,39 +4336,39 @@
       <c r="H110" s="22"/>
     </row>
     <row r="111" spans="1:31" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A111" s="115" t="s">
+      <c r="A111" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B111" s="116"/>
-      <c r="C111" s="116"/>
-      <c r="D111" s="116"/>
-      <c r="E111" s="116"/>
-      <c r="F111" s="116"/>
-      <c r="G111" s="116"/>
-      <c r="H111" s="116"/>
-      <c r="I111" s="116"/>
-      <c r="J111" s="116"/>
-      <c r="K111" s="116"/>
-      <c r="L111" s="117"/>
-      <c r="O111" s="141" t="s">
+      <c r="B111" s="114"/>
+      <c r="C111" s="114"/>
+      <c r="D111" s="114"/>
+      <c r="E111" s="114"/>
+      <c r="F111" s="114"/>
+      <c r="G111" s="114"/>
+      <c r="H111" s="114"/>
+      <c r="I111" s="114"/>
+      <c r="J111" s="114"/>
+      <c r="K111" s="114"/>
+      <c r="L111" s="115"/>
+      <c r="O111" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="P111" s="142"/>
-      <c r="Q111" s="142"/>
-      <c r="R111" s="142"/>
-      <c r="S111" s="142"/>
-      <c r="T111" s="142"/>
-      <c r="U111" s="142"/>
-      <c r="V111" s="142"/>
-      <c r="W111" s="142"/>
-      <c r="X111" s="142"/>
-      <c r="Y111" s="142"/>
-      <c r="Z111" s="142"/>
-      <c r="AA111" s="142"/>
-      <c r="AB111" s="142"/>
-      <c r="AC111" s="142"/>
-      <c r="AD111" s="142"/>
-      <c r="AE111" s="143"/>
+      <c r="P111" s="94"/>
+      <c r="Q111" s="94"/>
+      <c r="R111" s="94"/>
+      <c r="S111" s="94"/>
+      <c r="T111" s="94"/>
+      <c r="U111" s="94"/>
+      <c r="V111" s="94"/>
+      <c r="W111" s="94"/>
+      <c r="X111" s="94"/>
+      <c r="Y111" s="94"/>
+      <c r="Z111" s="94"/>
+      <c r="AA111" s="94"/>
+      <c r="AB111" s="94"/>
+      <c r="AC111" s="94"/>
+      <c r="AD111" s="94"/>
+      <c r="AE111" s="95"/>
     </row>
     <row r="112" spans="1:31" ht="15" thickTop="1">
       <c r="A112" s="5" t="s">
@@ -4413,17 +4447,17 @@
       <c r="AE114" s="52"/>
     </row>
     <row r="115" spans="1:34">
-      <c r="A115" s="125" t="s">
+      <c r="A115" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="125"/>
-      <c r="C115" s="125"/>
-      <c r="D115" s="125"/>
-      <c r="E115" s="125"/>
-      <c r="F115" s="125"/>
-      <c r="G115" s="125"/>
-      <c r="H115" s="125"/>
-      <c r="I115" s="125"/>
+      <c r="B115" s="96"/>
+      <c r="C115" s="96"/>
+      <c r="D115" s="96"/>
+      <c r="E115" s="96"/>
+      <c r="F115" s="96"/>
+      <c r="G115" s="96"/>
+      <c r="H115" s="96"/>
+      <c r="I115" s="96"/>
       <c r="O115" s="51"/>
       <c r="P115" s="38"/>
       <c r="Q115" s="38"/>
@@ -4466,9 +4500,9 @@
       <c r="I116" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K116" s="126"/>
-      <c r="L116" s="127"/>
-      <c r="M116" s="127"/>
+      <c r="K116" s="97"/>
+      <c r="L116" s="98"/>
+      <c r="M116" s="98"/>
       <c r="O116" s="51"/>
       <c r="P116" s="38"/>
       <c r="Q116" s="38"/>
@@ -4588,28 +4622,28 @@
       <c r="AE119" s="52"/>
     </row>
     <row r="120" spans="1:34" ht="45" customHeight="1">
-      <c r="A120" s="128" t="s">
+      <c r="A120" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="130" t="s">
+      <c r="B120" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C120" s="106" t="s">
+      <c r="C120" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="110" t="s">
+      <c r="D120" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="95" t="s">
+      <c r="E120" s="102" t="s">
         <v>122</v>
       </c>
       <c r="F120" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G120" s="95" t="s">
+      <c r="G120" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H120" s="108" t="s">
+      <c r="H120" s="141" t="s">
         <v>27</v>
       </c>
       <c r="I120" s="25" t="s">
@@ -4627,89 +4661,89 @@
       <c r="M120" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O120" s="112" t="s">
+      <c r="O120" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="P120" s="113" t="s">
+      <c r="P120" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="Q120" s="113" t="s">
+      <c r="Q120" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="R120" s="113" t="s">
+      <c r="R120" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="S120" s="113" t="s">
+      <c r="S120" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="T120" s="113" t="s">
+      <c r="T120" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="U120" s="113" t="s">
+      <c r="U120" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="V120" s="113" t="s">
+      <c r="V120" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="W120" s="113" t="s">
+      <c r="W120" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="X120" s="113" t="s">
+      <c r="X120" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="Y120" s="113" t="s">
+      <c r="Y120" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="Z120" s="113" t="s">
+      <c r="Z120" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="AA120" s="113" t="s">
+      <c r="AA120" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="AB120" s="113" t="s">
+      <c r="AB120" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AC120" s="144" t="s">
+      <c r="AC120" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="AD120" s="113" t="s">
+      <c r="AD120" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="AE120" s="114" t="s">
+      <c r="AE120" s="106" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:34">
-      <c r="A121" s="129"/>
-      <c r="B121" s="130"/>
-      <c r="C121" s="107"/>
-      <c r="D121" s="111"/>
-      <c r="E121" s="96"/>
+      <c r="A121" s="100"/>
+      <c r="B121" s="101"/>
+      <c r="C121" s="140"/>
+      <c r="D121" s="144"/>
+      <c r="E121" s="103"/>
       <c r="F121" s="26"/>
-      <c r="G121" s="96"/>
-      <c r="H121" s="109"/>
+      <c r="G121" s="103"/>
+      <c r="H121" s="142"/>
       <c r="I121" s="25"/>
       <c r="J121" s="26"/>
       <c r="K121" s="26"/>
       <c r="L121" s="26"/>
       <c r="M121" s="26"/>
-      <c r="O121" s="112"/>
-      <c r="P121" s="113"/>
-      <c r="Q121" s="113"/>
-      <c r="R121" s="113"/>
-      <c r="S121" s="113"/>
-      <c r="T121" s="113"/>
-      <c r="U121" s="113"/>
-      <c r="V121" s="113"/>
-      <c r="W121" s="113"/>
-      <c r="X121" s="113"/>
-      <c r="Y121" s="113"/>
-      <c r="Z121" s="113"/>
-      <c r="AA121" s="113"/>
-      <c r="AB121" s="113"/>
-      <c r="AC121" s="144"/>
-      <c r="AD121" s="113"/>
-      <c r="AE121" s="114"/>
+      <c r="O121" s="104"/>
+      <c r="P121" s="105"/>
+      <c r="Q121" s="105"/>
+      <c r="R121" s="105"/>
+      <c r="S121" s="105"/>
+      <c r="T121" s="105"/>
+      <c r="U121" s="105"/>
+      <c r="V121" s="105"/>
+      <c r="W121" s="105"/>
+      <c r="X121" s="105"/>
+      <c r="Y121" s="105"/>
+      <c r="Z121" s="105"/>
+      <c r="AA121" s="105"/>
+      <c r="AB121" s="105"/>
+      <c r="AC121" s="107"/>
+      <c r="AD121" s="105"/>
+      <c r="AE121" s="106"/>
     </row>
     <row r="122" spans="1:34" ht="15">
       <c r="A122" s="1" t="s">
@@ -5100,23 +5134,23 @@
       </c>
     </row>
     <row r="126" spans="1:34" ht="72" customHeight="1" thickTop="1">
-      <c r="A126" s="104" t="s">
+      <c r="A126" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="B126" s="105"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="105"/>
-      <c r="G126" s="105"/>
-      <c r="H126" s="105"/>
-      <c r="I126" s="105"/>
-      <c r="J126" s="103" t="s">
+      <c r="B126" s="138"/>
+      <c r="C126" s="138"/>
+      <c r="D126" s="138"/>
+      <c r="E126" s="138"/>
+      <c r="F126" s="138"/>
+      <c r="G126" s="138"/>
+      <c r="H126" s="138"/>
+      <c r="I126" s="138"/>
+      <c r="J126" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="K126" s="103"/>
-      <c r="L126" s="103"/>
-      <c r="M126" s="103"/>
+      <c r="K126" s="129"/>
+      <c r="L126" s="129"/>
+      <c r="M126" s="129"/>
       <c r="AC126" s="67" t="s">
         <v>124</v>
       </c>
@@ -5148,29 +5182,88 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="O111:AE111"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="K116:M116"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="O120:O121"/>
-    <mergeCell ref="Y120:Y121"/>
-    <mergeCell ref="P120:P121"/>
-    <mergeCell ref="Q120:Q121"/>
-    <mergeCell ref="R120:R121"/>
-    <mergeCell ref="S120:S121"/>
-    <mergeCell ref="T120:T121"/>
-    <mergeCell ref="U120:U121"/>
-    <mergeCell ref="AB120:AB121"/>
-    <mergeCell ref="AD120:AD121"/>
-    <mergeCell ref="AE120:AE121"/>
-    <mergeCell ref="AC120:AC121"/>
-    <mergeCell ref="V120:V121"/>
-    <mergeCell ref="W120:W121"/>
-    <mergeCell ref="X120:X121"/>
-    <mergeCell ref="Z120:Z121"/>
-    <mergeCell ref="AA120:AA121"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="J126:M126"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="O30:AA30"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="A10:J11"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="Z91:Z92"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
     <mergeCell ref="AD91:AD92"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
@@ -5195,88 +5288,29 @@
     <mergeCell ref="P91:P92"/>
     <mergeCell ref="Q91:Q92"/>
     <mergeCell ref="Y91:Y92"/>
-    <mergeCell ref="Z91:Z92"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A82:L82"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="O30:AA30"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="A10:J11"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="J126:M126"/>
-    <mergeCell ref="A126:I126"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A97:I97"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="O111:AE111"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="K116:M116"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="O120:O121"/>
+    <mergeCell ref="Y120:Y121"/>
+    <mergeCell ref="P120:P121"/>
+    <mergeCell ref="Q120:Q121"/>
+    <mergeCell ref="R120:R121"/>
+    <mergeCell ref="S120:S121"/>
+    <mergeCell ref="T120:T121"/>
+    <mergeCell ref="U120:U121"/>
+    <mergeCell ref="AB120:AB121"/>
+    <mergeCell ref="AD120:AD121"/>
+    <mergeCell ref="AE120:AE121"/>
+    <mergeCell ref="AC120:AC121"/>
+    <mergeCell ref="V120:V121"/>
+    <mergeCell ref="W120:W121"/>
+    <mergeCell ref="X120:X121"/>
+    <mergeCell ref="Z120:Z121"/>
+    <mergeCell ref="AA120:AA121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5285,24 +5319,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="86"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="92" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="92" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="2" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="92" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="92" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="87" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:12" s="87" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="87" t="s">
         <v>298</v>
       </c>
@@ -5315,26 +5349,32 @@
       <c r="D1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="H1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="I1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="J1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="K1" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="L1" s="87" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="86" t="s">
         <v>299</v>
       </c>
@@ -5347,26 +5387,28 @@
       <c r="D2" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="89">
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="89">
         <v>42229</v>
       </c>
-      <c r="F2" s="86">
+      <c r="H2" s="86">
         <v>2399</v>
       </c>
-      <c r="G2" s="86">
+      <c r="I2" s="86">
         <v>2415</v>
       </c>
-      <c r="H2" s="86">
+      <c r="J2" s="86">
         <v>2385</v>
       </c>
-      <c r="I2" s="89">
+      <c r="K2" s="89">
         <v>42234</v>
       </c>
-      <c r="J2" s="86">
+      <c r="L2" s="86">
         <v>2392</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="86" t="s">
         <v>299</v>
       </c>
@@ -5379,26 +5421,28 @@
       <c r="D3" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="89">
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="89">
         <v>42195</v>
       </c>
-      <c r="F3" s="86">
+      <c r="H3" s="86">
         <v>1896</v>
       </c>
-      <c r="G3" s="86">
+      <c r="I3" s="86">
         <v>1914</v>
       </c>
-      <c r="H3" s="86">
+      <c r="J3" s="86">
         <v>1885</v>
       </c>
-      <c r="I3" s="89">
+      <c r="K3" s="89">
         <v>42231</v>
       </c>
-      <c r="J3" s="86">
+      <c r="L3" s="86">
         <v>1893</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="86" t="s">
         <v>299</v>
       </c>
@@ -5411,26 +5455,28 @@
       <c r="D4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="89">
         <v>42235</v>
       </c>
-      <c r="F4" s="86">
+      <c r="H4" s="86">
         <v>830</v>
       </c>
-      <c r="G4" s="86">
+      <c r="I4" s="86">
+        <v>4345</v>
+      </c>
+      <c r="J4" s="86">
+        <v>826</v>
+      </c>
+      <c r="K4" s="89">
+        <v>42242</v>
+      </c>
+      <c r="L4" s="86">
         <v>837</v>
       </c>
-      <c r="H4" s="86">
-        <v>826</v>
-      </c>
-      <c r="I4" s="89">
-        <v>42242</v>
-      </c>
-      <c r="J4" s="86">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="86" t="s">
         <v>299</v>
       </c>
@@ -5443,453 +5489,196 @@
       <c r="D5" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="89">
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="89">
         <v>42197</v>
       </c>
-      <c r="F5" s="86">
+      <c r="H5" s="86">
         <v>293.5</v>
       </c>
-      <c r="G5" s="86">
-        <v>297</v>
-      </c>
-      <c r="H5" s="86">
+      <c r="I5" s="86">
+        <v>677</v>
+      </c>
+      <c r="J5" s="86">
         <v>292</v>
       </c>
-      <c r="I5" s="89">
+      <c r="K5" s="89">
         <v>42216</v>
       </c>
-      <c r="J5" s="86">
+      <c r="L5" s="86">
         <v>294.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="86" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="89">
-        <v>42373</v>
-      </c>
-      <c r="F6" s="86">
-        <v>140.9</v>
-      </c>
-      <c r="G6" s="86">
-        <v>140.9</v>
-      </c>
-      <c r="H6" s="86">
-        <f>F6*95%</f>
-        <v>133.85499999999999</v>
-      </c>
-      <c r="I6" s="89">
-        <v>42375</v>
-      </c>
-      <c r="J6" s="86">
-        <v>140.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="86" t="s">
-        <v>304</v>
-      </c>
-      <c r="B7" s="86" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="89">
-        <v>42374</v>
-      </c>
-      <c r="F7" s="86">
-        <v>261.8</v>
-      </c>
-      <c r="G7" s="86">
-        <v>264.12</v>
-      </c>
-      <c r="H7" s="86">
-        <f t="shared" ref="H7:H8" si="0">F7*95%</f>
-        <v>248.71</v>
-      </c>
-      <c r="I7" s="89">
-        <v>42374</v>
-      </c>
-      <c r="J7" s="86">
-        <v>264.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="86" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" s="86" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="89">
-        <v>42375</v>
-      </c>
-      <c r="F8" s="86">
-        <v>327</v>
-      </c>
-      <c r="G8" s="86">
-        <v>331</v>
-      </c>
-      <c r="H8" s="86">
-        <f t="shared" si="0"/>
-        <v>310.64999999999998</v>
-      </c>
-      <c r="I8" s="89">
-        <v>42375</v>
-      </c>
-      <c r="J8" s="86">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="86"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="86"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="86"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="86"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="86"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="86"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="86"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="86"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="86"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="86"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="86"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="86"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="86"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="86"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="86"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="86"/>
-    </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12">
       <c r="B25" s="86"/>
       <c r="C25" s="86"/>
       <c r="D25" s="86"/>
-      <c r="E25" s="89"/>
+      <c r="E25" s="86"/>
       <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
+      <c r="G25" s="89"/>
       <c r="H25" s="86"/>
-      <c r="I25" s="89"/>
+      <c r="I25" s="86"/>
       <c r="J25" s="86"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="89"/>
+      <c r="L25" s="86"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="B26" s="86"/>
       <c r="C26" s="86"/>
       <c r="D26" s="86"/>
-      <c r="E26" s="89"/>
+      <c r="E26" s="86"/>
       <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="86"/>
-      <c r="I26" s="89"/>
+      <c r="I26" s="86"/>
       <c r="J26" s="86"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="89"/>
+      <c r="L26" s="86"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="B27" s="86"/>
       <c r="C27" s="86"/>
       <c r="D27" s="86"/>
-      <c r="E27" s="89"/>
+      <c r="E27" s="86"/>
       <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
+      <c r="G27" s="89"/>
       <c r="H27" s="86"/>
-      <c r="I27" s="89"/>
+      <c r="I27" s="86"/>
       <c r="J27" s="86"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="89"/>
+      <c r="L27" s="86"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="B28" s="86"/>
       <c r="C28" s="86"/>
       <c r="D28" s="86"/>
-      <c r="E28" s="89"/>
+      <c r="E28" s="86"/>
       <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="G28" s="89"/>
       <c r="H28" s="86"/>
-      <c r="I28" s="89"/>
+      <c r="I28" s="86"/>
       <c r="J28" s="86"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="89"/>
+      <c r="L28" s="86"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="B29" s="86"/>
       <c r="C29" s="86"/>
       <c r="D29" s="86"/>
-      <c r="E29" s="89"/>
+      <c r="E29" s="86"/>
       <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="86"/>
-      <c r="I29" s="89"/>
+      <c r="I29" s="86"/>
       <c r="J29" s="86"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="89"/>
+      <c r="L29" s="86"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="B30" s="86"/>
       <c r="C30" s="86"/>
       <c r="D30" s="86"/>
-      <c r="E30" s="89"/>
+      <c r="E30" s="86"/>
       <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="86"/>
-      <c r="I30" s="89"/>
+      <c r="I30" s="86"/>
       <c r="J30" s="86"/>
-    </row>
-    <row r="31" spans="1:10" s="90" customFormat="1">
+      <c r="K30" s="89"/>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="1:12" s="90" customFormat="1">
       <c r="A31" s="86"/>
       <c r="B31" s="86"/>
-      <c r="E31" s="91"/>
-      <c r="I31" s="91"/>
-    </row>
-    <row r="32" spans="1:10" s="90" customFormat="1">
+      <c r="G31" s="91"/>
+      <c r="K31" s="91"/>
+    </row>
+    <row r="32" spans="1:12" s="90" customFormat="1">
       <c r="A32" s="86"/>
       <c r="B32" s="86"/>
-      <c r="E32" s="91"/>
-      <c r="I32" s="91"/>
-    </row>
-    <row r="33" spans="1:10" s="90" customFormat="1">
+      <c r="G32" s="91"/>
+      <c r="K32" s="91"/>
+    </row>
+    <row r="33" spans="1:12" s="90" customFormat="1">
       <c r="A33" s="86"/>
       <c r="B33" s="86"/>
-      <c r="E33" s="91"/>
-      <c r="I33" s="91"/>
-    </row>
-    <row r="34" spans="1:10" s="90" customFormat="1">
+      <c r="G33" s="91"/>
+      <c r="K33" s="91"/>
+    </row>
+    <row r="34" spans="1:12" s="90" customFormat="1">
       <c r="A34" s="86"/>
       <c r="B34" s="86"/>
-      <c r="E34" s="91"/>
-      <c r="I34" s="91"/>
-    </row>
-    <row r="35" spans="1:10" s="90" customFormat="1">
+      <c r="G34" s="91"/>
+      <c r="K34" s="91"/>
+    </row>
+    <row r="35" spans="1:12" s="90" customFormat="1">
       <c r="A35" s="86"/>
       <c r="B35" s="86"/>
-      <c r="E35" s="91"/>
-      <c r="I35" s="91"/>
-    </row>
-    <row r="36" spans="1:10" s="90" customFormat="1">
+      <c r="G35" s="91"/>
+      <c r="K35" s="91"/>
+    </row>
+    <row r="36" spans="1:12" s="90" customFormat="1">
       <c r="A36" s="86"/>
       <c r="B36" s="86"/>
-      <c r="E36" s="91"/>
-      <c r="I36" s="91"/>
-    </row>
-    <row r="37" spans="1:10" s="90" customFormat="1">
+      <c r="G36" s="91"/>
+      <c r="K36" s="91"/>
+    </row>
+    <row r="37" spans="1:12" s="90" customFormat="1">
       <c r="A37" s="86"/>
       <c r="B37" s="86"/>
-      <c r="E37" s="91"/>
-      <c r="I37" s="91"/>
-    </row>
-    <row r="38" spans="1:10" s="90" customFormat="1">
+      <c r="G37" s="91"/>
+      <c r="K37" s="91"/>
+    </row>
+    <row r="38" spans="1:12" s="90" customFormat="1">
       <c r="A38" s="86"/>
       <c r="B38" s="86"/>
-      <c r="E38" s="91"/>
-      <c r="I38" s="91"/>
-    </row>
-    <row r="39" spans="1:10" s="90" customFormat="1">
+      <c r="G38" s="91"/>
+      <c r="K38" s="91"/>
+    </row>
+    <row r="39" spans="1:12" s="90" customFormat="1">
       <c r="A39" s="86"/>
       <c r="B39" s="86"/>
-      <c r="E39" s="91"/>
-      <c r="I39" s="91"/>
-    </row>
-    <row r="40" spans="1:10" s="90" customFormat="1">
+      <c r="G39" s="91"/>
+      <c r="K39" s="91"/>
+    </row>
+    <row r="40" spans="1:12" s="90" customFormat="1">
       <c r="A40" s="86"/>
       <c r="B40" s="86"/>
-      <c r="E40" s="91"/>
-      <c r="I40" s="91"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="G40" s="91"/>
+      <c r="K40" s="91"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="B41" s="86"/>
       <c r="C41" s="86"/>
       <c r="D41" s="86"/>
-      <c r="E41" s="89"/>
+      <c r="E41" s="86"/>
       <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
+      <c r="G41" s="89"/>
       <c r="H41" s="86"/>
-      <c r="I41" s="89"/>
+      <c r="I41" s="86"/>
       <c r="J41" s="86"/>
-    </row>
-    <row r="42" spans="1:10" s="90" customFormat="1">
+      <c r="K41" s="89"/>
+      <c r="L41" s="86"/>
+    </row>
+    <row r="42" spans="1:12" s="90" customFormat="1">
       <c r="A42" s="86"/>
       <c r="B42" s="86"/>
-      <c r="E42" s="91"/>
-      <c r="I42" s="91"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="G42" s="91"/>
+      <c r="K42" s="91"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
       <c r="D43" s="86"/>
-      <c r="E43" s="89"/>
+      <c r="E43" s="86"/>
       <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
+      <c r="G43" s="89"/>
       <c r="H43" s="86"/>
-      <c r="I43" s="89"/>
+      <c r="I43" s="86"/>
       <c r="J43" s="86"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9737,4 +9526,631 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="89">
+        <v>42373</v>
+      </c>
+      <c r="H1" s="86">
+        <v>140.9</v>
+      </c>
+      <c r="I1" s="86">
+        <v>140.9</v>
+      </c>
+      <c r="J1" s="86">
+        <f>H1*95%</f>
+        <v>133.85499999999999</v>
+      </c>
+      <c r="K1" s="89">
+        <v>42375</v>
+      </c>
+      <c r="L1" s="86">
+        <v>140.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="89">
+        <v>42374</v>
+      </c>
+      <c r="H2" s="86">
+        <v>261.8</v>
+      </c>
+      <c r="I2" s="86">
+        <v>345</v>
+      </c>
+      <c r="J2" s="86">
+        <f>H2*95%</f>
+        <v>248.71</v>
+      </c>
+      <c r="K2" s="89">
+        <v>42374</v>
+      </c>
+      <c r="L2" s="86">
+        <v>264.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="89">
+        <v>42375</v>
+      </c>
+      <c r="H3" s="86">
+        <v>327</v>
+      </c>
+      <c r="I3" s="86">
+        <v>331</v>
+      </c>
+      <c r="J3" s="86">
+        <f>H3*95%</f>
+        <v>310.64999999999998</v>
+      </c>
+      <c r="K3" s="89">
+        <v>42375</v>
+      </c>
+      <c r="L3" s="86">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="86"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="86">
+        <v>2399</v>
+      </c>
+      <c r="F5" s="86"/>
+      <c r="G5" s="89">
+        <v>42228</v>
+      </c>
+      <c r="H5" s="86">
+        <v>2399</v>
+      </c>
+      <c r="I5" s="86">
+        <v>2380</v>
+      </c>
+      <c r="J5" s="86">
+        <v>2412</v>
+      </c>
+      <c r="K5" s="89">
+        <v>42230</v>
+      </c>
+      <c r="L5" s="86">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="86">
+        <v>2147</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="89">
+        <v>42195</v>
+      </c>
+      <c r="H6" s="86">
+        <v>2147</v>
+      </c>
+      <c r="I6" s="86">
+        <v>2132</v>
+      </c>
+      <c r="J6" s="86">
+        <v>2155</v>
+      </c>
+      <c r="K6" s="89">
+        <v>42219</v>
+      </c>
+      <c r="L6" s="86">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="86">
+        <v>431.9</v>
+      </c>
+      <c r="F7" s="86"/>
+      <c r="G7" s="89">
+        <v>42235</v>
+      </c>
+      <c r="H7" s="86">
+        <v>431.9</v>
+      </c>
+      <c r="I7" s="86">
+        <v>427</v>
+      </c>
+      <c r="J7" s="86">
+        <v>434.2</v>
+      </c>
+      <c r="K7" s="89">
+        <v>42238</v>
+      </c>
+      <c r="L7" s="86">
+        <v>428.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="86">
+        <v>1362</v>
+      </c>
+      <c r="F8" s="86"/>
+      <c r="G8" s="89">
+        <v>42197</v>
+      </c>
+      <c r="H8" s="86">
+        <v>1362</v>
+      </c>
+      <c r="I8" s="86">
+        <v>1347</v>
+      </c>
+      <c r="J8" s="86">
+        <v>1371</v>
+      </c>
+      <c r="K8" s="89">
+        <v>42217</v>
+      </c>
+      <c r="L8" s="86">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="86"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="86">
+        <v>7900</v>
+      </c>
+      <c r="G10" s="89">
+        <v>42224</v>
+      </c>
+      <c r="H10" s="86">
+        <v>35</v>
+      </c>
+      <c r="I10" s="86">
+        <v>45</v>
+      </c>
+      <c r="J10" s="86">
+        <v>30</v>
+      </c>
+      <c r="K10" s="89">
+        <v>42230</v>
+      </c>
+      <c r="L10" s="86">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="86">
+        <v>2600</v>
+      </c>
+      <c r="G11" s="89">
+        <v>42205</v>
+      </c>
+      <c r="H11" s="86">
+        <v>55</v>
+      </c>
+      <c r="I11" s="86">
+        <v>35</v>
+      </c>
+      <c r="J11" s="86">
+        <v>65</v>
+      </c>
+      <c r="K11" s="89">
+        <v>42219</v>
+      </c>
+      <c r="L11" s="86">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="86">
+        <v>1800</v>
+      </c>
+      <c r="G12" s="89">
+        <v>42235</v>
+      </c>
+      <c r="H12" s="86">
+        <v>78</v>
+      </c>
+      <c r="I12" s="86">
+        <v>95</v>
+      </c>
+      <c r="J12" s="86">
+        <v>68</v>
+      </c>
+      <c r="K12" s="89">
+        <v>42242</v>
+      </c>
+      <c r="L12" s="86">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="86">
+        <v>525</v>
+      </c>
+      <c r="G13" s="89">
+        <v>42201</v>
+      </c>
+      <c r="H13" s="86">
+        <v>42</v>
+      </c>
+      <c r="I13" s="86">
+        <v>60</v>
+      </c>
+      <c r="J13" s="86">
+        <v>32</v>
+      </c>
+      <c r="K13" s="89">
+        <v>42217</v>
+      </c>
+      <c r="L13" s="86">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="86"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86">
+        <v>2399</v>
+      </c>
+      <c r="G15" s="89">
+        <v>42235</v>
+      </c>
+      <c r="H15" s="86">
+        <v>830</v>
+      </c>
+      <c r="I15" s="86">
+        <v>837</v>
+      </c>
+      <c r="J15" s="86">
+        <v>826</v>
+      </c>
+      <c r="K15" s="89">
+        <v>42242</v>
+      </c>
+      <c r="L15" s="86">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86">
+        <v>2147</v>
+      </c>
+      <c r="G16" s="89">
+        <v>42197</v>
+      </c>
+      <c r="H16" s="86">
+        <v>293.5</v>
+      </c>
+      <c r="I16" s="86">
+        <v>297</v>
+      </c>
+      <c r="J16" s="86">
+        <v>292</v>
+      </c>
+      <c r="K16" s="89">
+        <v>42216</v>
+      </c>
+      <c r="L16" s="86">
+        <v>294.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86">
+        <v>431.9</v>
+      </c>
+      <c r="G17" s="89">
+        <v>42373</v>
+      </c>
+      <c r="H17" s="86">
+        <v>140.9</v>
+      </c>
+      <c r="I17" s="86">
+        <v>140.9</v>
+      </c>
+      <c r="J17" s="86">
+        <f>H17*95%</f>
+        <v>133.85499999999999</v>
+      </c>
+      <c r="K17" s="89">
+        <v>42375</v>
+      </c>
+      <c r="L17" s="86">
+        <v>140.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86">
+        <v>1362</v>
+      </c>
+      <c r="G18" s="89">
+        <v>42374</v>
+      </c>
+      <c r="H18" s="86">
+        <v>261.8</v>
+      </c>
+      <c r="I18" s="86">
+        <v>264.12</v>
+      </c>
+      <c r="J18" s="86">
+        <f>H18*95%</f>
+        <v>248.71</v>
+      </c>
+      <c r="K18" s="89">
+        <v>42374</v>
+      </c>
+      <c r="L18" s="86">
+        <v>264.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="89">
+        <v>42375</v>
+      </c>
+      <c r="H19" s="86">
+        <v>327</v>
+      </c>
+      <c r="I19" s="86">
+        <v>331</v>
+      </c>
+      <c r="J19" s="86">
+        <f>H19*95%</f>
+        <v>310.64999999999998</v>
+      </c>
+      <c r="K19" s="89">
+        <v>42375</v>
+      </c>
+      <c r="L19" s="86">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Research Performance Tracker.xlsx
+++ b/Research Performance Tracker.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="323">
   <si>
     <t>Stocks</t>
   </si>
@@ -987,6 +987,27 @@
   </si>
   <si>
     <t>OPTIONS 8</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>EQ0006</t>
+  </si>
+  <si>
+    <t>EQ0009</t>
+  </si>
+  <si>
+    <t>EQ0010</t>
+  </si>
+  <si>
+    <t>EQ0011</t>
+  </si>
+  <si>
+    <t>EQ0012</t>
   </si>
 </sst>
 </file>
@@ -2206,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH134"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122:I125"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5322,7 +5343,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5510,7 +5531,338 @@
         <v>294.2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="7" spans="1:12" s="90" customFormat="1">
+      <c r="A7" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="90">
+        <v>2399</v>
+      </c>
+      <c r="G7" s="91">
+        <v>42228</v>
+      </c>
+      <c r="H7" s="90">
+        <v>2399</v>
+      </c>
+      <c r="I7" s="90">
+        <v>2380</v>
+      </c>
+      <c r="J7" s="90">
+        <v>2412</v>
+      </c>
+      <c r="K7" s="91">
+        <v>42230</v>
+      </c>
+      <c r="L7" s="90">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="90" customFormat="1">
+      <c r="A8" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="90">
+        <v>2147</v>
+      </c>
+      <c r="G8" s="91">
+        <v>42195</v>
+      </c>
+      <c r="H8" s="90">
+        <v>2147</v>
+      </c>
+      <c r="I8" s="90">
+        <v>2132</v>
+      </c>
+      <c r="J8" s="90">
+        <v>2155</v>
+      </c>
+      <c r="K8" s="91">
+        <v>42219</v>
+      </c>
+      <c r="L8" s="90">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="90" customFormat="1">
+      <c r="A9" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="90">
+        <v>431.9</v>
+      </c>
+      <c r="G9" s="91">
+        <v>42235</v>
+      </c>
+      <c r="H9" s="90">
+        <v>431.9</v>
+      </c>
+      <c r="I9" s="90">
+        <v>427</v>
+      </c>
+      <c r="J9" s="90">
+        <v>434.2</v>
+      </c>
+      <c r="K9" s="91">
+        <v>42238</v>
+      </c>
+      <c r="L9" s="90">
+        <v>428.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="90" customFormat="1">
+      <c r="A10" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="90">
+        <v>1362</v>
+      </c>
+      <c r="G10" s="91">
+        <v>42197</v>
+      </c>
+      <c r="H10" s="90">
+        <v>1362</v>
+      </c>
+      <c r="I10" s="90">
+        <v>1347</v>
+      </c>
+      <c r="J10" s="90">
+        <v>1371</v>
+      </c>
+      <c r="K10" s="91">
+        <v>42217</v>
+      </c>
+      <c r="L10" s="90">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="90" customFormat="1">
+      <c r="A11" s="86"/>
+      <c r="G11" s="91"/>
+      <c r="K11" s="91"/>
+    </row>
+    <row r="12" spans="1:12" s="90" customFormat="1">
+      <c r="A12" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="90">
+        <v>7900</v>
+      </c>
+      <c r="G12" s="91">
+        <v>42224</v>
+      </c>
+      <c r="H12" s="90">
+        <v>35</v>
+      </c>
+      <c r="I12" s="90">
+        <v>45</v>
+      </c>
+      <c r="J12" s="90">
+        <v>30</v>
+      </c>
+      <c r="K12" s="91">
+        <v>42230</v>
+      </c>
+      <c r="L12" s="90">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="90" customFormat="1">
+      <c r="A13" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="90">
+        <v>2600</v>
+      </c>
+      <c r="G13" s="91">
+        <v>42205</v>
+      </c>
+      <c r="H13" s="90">
+        <v>55</v>
+      </c>
+      <c r="I13" s="90">
+        <v>35</v>
+      </c>
+      <c r="J13" s="90">
+        <v>65</v>
+      </c>
+      <c r="K13" s="91">
+        <v>42219</v>
+      </c>
+      <c r="L13" s="90">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="90" customFormat="1">
+      <c r="A14" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="90">
+        <v>1800</v>
+      </c>
+      <c r="G14" s="91">
+        <v>42235</v>
+      </c>
+      <c r="H14" s="90">
+        <v>78</v>
+      </c>
+      <c r="I14" s="90">
+        <v>95</v>
+      </c>
+      <c r="J14" s="90">
+        <v>68</v>
+      </c>
+      <c r="K14" s="91">
+        <v>42242</v>
+      </c>
+      <c r="L14" s="90">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="90" customFormat="1">
+      <c r="A15" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="90">
+        <v>525</v>
+      </c>
+      <c r="G15" s="91">
+        <v>42201</v>
+      </c>
+      <c r="H15" s="90">
+        <v>42</v>
+      </c>
+      <c r="I15" s="90">
+        <v>60</v>
+      </c>
+      <c r="J15" s="90">
+        <v>32</v>
+      </c>
+      <c r="K15" s="91">
+        <v>42217</v>
+      </c>
+      <c r="L15" s="90">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="90" customFormat="1">
+      <c r="A16" s="86"/>
+      <c r="G16" s="91"/>
+      <c r="K16" s="91"/>
+    </row>
+    <row r="17" spans="1:12" s="90" customFormat="1">
+      <c r="A17" s="86"/>
+      <c r="G17" s="91"/>
+      <c r="K17" s="91"/>
+    </row>
+    <row r="18" spans="1:12" s="90" customFormat="1">
+      <c r="A18" s="86"/>
+      <c r="G18" s="91"/>
+      <c r="K18" s="91"/>
+    </row>
+    <row r="19" spans="1:12" s="90" customFormat="1">
+      <c r="A19" s="86"/>
+      <c r="G19" s="91"/>
+      <c r="K19" s="91"/>
+    </row>
+    <row r="20" spans="1:12" s="90" customFormat="1">
+      <c r="A20" s="86"/>
+      <c r="G20" s="91"/>
+      <c r="K20" s="91"/>
+    </row>
+    <row r="21" spans="1:12" s="90" customFormat="1">
+      <c r="A21" s="86"/>
+      <c r="G21" s="91"/>
+      <c r="K21" s="91"/>
+    </row>
+    <row r="22" spans="1:12" s="90" customFormat="1">
+      <c r="A22" s="86"/>
+      <c r="G22" s="91"/>
+      <c r="K22" s="91"/>
+    </row>
+    <row r="23" spans="1:12" s="90" customFormat="1">
+      <c r="A23" s="86"/>
+      <c r="G23" s="91"/>
+      <c r="K23" s="91"/>
+    </row>
+    <row r="24" spans="1:12" s="90" customFormat="1">
+      <c r="A24" s="86"/>
+      <c r="G24" s="91"/>
+      <c r="K24" s="91"/>
+    </row>
+    <row r="25" spans="1:12" s="90" customFormat="1">
+      <c r="A25" s="86"/>
       <c r="B25" s="86"/>
       <c r="C25" s="86"/>
       <c r="D25" s="86"/>
@@ -9530,58 +9882,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="86"/>
+    <col min="2" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="92" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="92" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="86" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="89">
-        <v>42373</v>
-      </c>
-      <c r="H1" s="86">
-        <v>140.9</v>
-      </c>
-      <c r="I1" s="86">
-        <v>140.9</v>
-      </c>
-      <c r="J1" s="86">
-        <f>H1*95%</f>
-        <v>133.85499999999999</v>
-      </c>
-      <c r="K1" s="89">
-        <v>42375</v>
-      </c>
-      <c r="L1" s="86">
-        <v>140.9</v>
+    <row r="1" spans="1:12" s="87" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="87" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="87" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="86" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>301</v>
+        <v>136</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="D2" s="86" t="s">
         <v>42</v>
@@ -9589,566 +9953,853 @@
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
       <c r="G2" s="89">
-        <v>42374</v>
+        <v>42229</v>
       </c>
       <c r="H2" s="86">
-        <v>261.8</v>
+        <v>2399</v>
       </c>
       <c r="I2" s="86">
-        <v>345</v>
+        <v>2415</v>
       </c>
       <c r="J2" s="86">
-        <f>H2*95%</f>
-        <v>248.71</v>
+        <v>2385</v>
       </c>
       <c r="K2" s="89">
-        <v>42374</v>
+        <v>42234</v>
       </c>
       <c r="L2" s="86">
-        <v>264.12</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="86" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>302</v>
+        <v>137</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
       <c r="G3" s="89">
-        <v>42375</v>
+        <v>42195</v>
       </c>
       <c r="H3" s="86">
-        <v>327</v>
+        <v>1896</v>
       </c>
       <c r="I3" s="86">
-        <v>331</v>
+        <v>1914</v>
       </c>
       <c r="J3" s="86">
-        <f>H3*95%</f>
-        <v>310.64999999999998</v>
+        <v>1885</v>
       </c>
       <c r="K3" s="89">
-        <v>42375</v>
+        <v>42231</v>
       </c>
       <c r="L3" s="86">
-        <v>331</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="86" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="86"/>
       <c r="F4" s="86"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="86"/>
+      <c r="G4" s="89">
+        <v>42235</v>
+      </c>
+      <c r="H4" s="86">
+        <v>830</v>
+      </c>
+      <c r="I4" s="86">
+        <v>4345</v>
+      </c>
+      <c r="J4" s="86">
+        <v>826</v>
+      </c>
+      <c r="K4" s="89">
+        <v>42242</v>
+      </c>
+      <c r="L4" s="86">
+        <v>837</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="86" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="86">
-        <v>2399</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E5" s="86"/>
       <c r="F5" s="86"/>
       <c r="G5" s="89">
+        <v>42197</v>
+      </c>
+      <c r="H5" s="86">
+        <v>293.5</v>
+      </c>
+      <c r="I5" s="86">
+        <v>677</v>
+      </c>
+      <c r="J5" s="86">
+        <v>292</v>
+      </c>
+      <c r="K5" s="89">
+        <v>42216</v>
+      </c>
+      <c r="L5" s="86">
+        <v>294.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="90" customFormat="1">
+      <c r="A7" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="91">
+        <v>42373</v>
+      </c>
+      <c r="H7" s="90">
+        <v>140.9</v>
+      </c>
+      <c r="I7" s="90">
+        <v>140.9</v>
+      </c>
+      <c r="J7" s="90">
+        <f>H7*95%</f>
+        <v>133.85499999999999</v>
+      </c>
+      <c r="K7" s="91">
+        <v>42375</v>
+      </c>
+      <c r="L7" s="90">
+        <v>140.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="90" customFormat="1">
+      <c r="A8" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="91">
+        <v>42374</v>
+      </c>
+      <c r="H8" s="90">
+        <v>261.8</v>
+      </c>
+      <c r="I8" s="90">
+        <v>345</v>
+      </c>
+      <c r="J8" s="90">
+        <f>H8*95%</f>
+        <v>248.71</v>
+      </c>
+      <c r="K8" s="91">
+        <v>42374</v>
+      </c>
+      <c r="L8" s="90">
+        <v>264.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="90" customFormat="1">
+      <c r="A9" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="91">
+        <v>42375</v>
+      </c>
+      <c r="H9" s="90">
+        <v>327</v>
+      </c>
+      <c r="I9" s="90">
+        <v>331</v>
+      </c>
+      <c r="J9" s="90">
+        <f>H9*95%</f>
+        <v>310.64999999999998</v>
+      </c>
+      <c r="K9" s="91">
+        <v>42375</v>
+      </c>
+      <c r="L9" s="90">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="90" customFormat="1">
+      <c r="A10" s="86"/>
+      <c r="G10" s="91"/>
+      <c r="K10" s="91"/>
+    </row>
+    <row r="11" spans="1:12" s="90" customFormat="1">
+      <c r="A11" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="90">
+        <v>2399</v>
+      </c>
+      <c r="G11" s="91">
         <v>42228</v>
       </c>
-      <c r="H5" s="86">
+      <c r="H11" s="90">
         <v>2399</v>
       </c>
-      <c r="I5" s="86">
+      <c r="I11" s="90">
         <v>2380</v>
       </c>
-      <c r="J5" s="86">
+      <c r="J11" s="90">
         <v>2412</v>
       </c>
-      <c r="K5" s="89">
+      <c r="K11" s="91">
         <v>42230</v>
       </c>
-      <c r="L5" s="86">
+      <c r="L11" s="90">
         <v>2392</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="86" t="s">
+    <row r="12" spans="1:12" s="90" customFormat="1">
+      <c r="A12" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B12" s="90" t="s">
         <v>309</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C12" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D12" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E12" s="90">
         <v>2147</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="89">
+      <c r="G12" s="91">
         <v>42195</v>
       </c>
-      <c r="H6" s="86">
+      <c r="H12" s="90">
         <v>2147</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I12" s="90">
         <v>2132</v>
       </c>
-      <c r="J6" s="86">
+      <c r="J12" s="90">
         <v>2155</v>
       </c>
-      <c r="K6" s="89">
+      <c r="K12" s="91">
         <v>42219</v>
       </c>
-      <c r="L6" s="86">
+      <c r="L12" s="90">
         <v>2135</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="86" t="s">
+    <row r="13" spans="1:12" s="90" customFormat="1">
+      <c r="A13" s="86" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B13" s="90" t="s">
         <v>310</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C13" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D13" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E13" s="90">
         <v>431.9</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="89">
+      <c r="G13" s="91">
         <v>42235</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H13" s="90">
         <v>431.9</v>
       </c>
-      <c r="I7" s="86">
+      <c r="I13" s="90">
         <v>427</v>
       </c>
-      <c r="J7" s="86">
+      <c r="J13" s="90">
         <v>434.2</v>
       </c>
-      <c r="K7" s="89">
+      <c r="K13" s="91">
         <v>42238</v>
       </c>
-      <c r="L7" s="86">
+      <c r="L13" s="90">
         <v>428.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="86" t="s">
+    <row r="14" spans="1:12" s="90" customFormat="1">
+      <c r="A14" s="86" t="s">
         <v>306</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B14" s="90" t="s">
         <v>311</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C14" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D14" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E14" s="90">
         <v>1362</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="89">
+      <c r="G14" s="91">
         <v>42197</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H14" s="90">
         <v>1362</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I14" s="90">
         <v>1347</v>
       </c>
-      <c r="J8" s="86">
+      <c r="J14" s="90">
         <v>1371</v>
       </c>
-      <c r="K8" s="89">
+      <c r="K14" s="91">
         <v>42217</v>
       </c>
-      <c r="L8" s="86">
+      <c r="L14" s="90">
         <v>1371</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="86"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="86" t="s">
-        <v>307</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="86">
-        <v>7900</v>
-      </c>
-      <c r="G10" s="89">
-        <v>42224</v>
-      </c>
-      <c r="H10" s="86">
-        <v>35</v>
-      </c>
-      <c r="I10" s="86">
-        <v>45</v>
-      </c>
-      <c r="J10" s="86">
-        <v>30</v>
-      </c>
-      <c r="K10" s="89">
-        <v>42230</v>
-      </c>
-      <c r="L10" s="86">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="86" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="86">
-        <v>2600</v>
-      </c>
-      <c r="G11" s="89">
-        <v>42205</v>
-      </c>
-      <c r="H11" s="86">
-        <v>55</v>
-      </c>
-      <c r="I11" s="86">
-        <v>35</v>
-      </c>
-      <c r="J11" s="86">
-        <v>65</v>
-      </c>
-      <c r="K11" s="89">
-        <v>42219</v>
-      </c>
-      <c r="L11" s="86">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="86" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="86">
-        <v>1800</v>
-      </c>
-      <c r="G12" s="89">
-        <v>42235</v>
-      </c>
-      <c r="H12" s="86">
-        <v>78</v>
-      </c>
-      <c r="I12" s="86">
-        <v>95</v>
-      </c>
-      <c r="J12" s="86">
-        <v>68</v>
-      </c>
-      <c r="K12" s="89">
-        <v>42242</v>
-      </c>
-      <c r="L12" s="86">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="86" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>283</v>
-      </c>
-      <c r="C13" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="86">
-        <v>525</v>
-      </c>
-      <c r="G13" s="89">
-        <v>42201</v>
-      </c>
-      <c r="H13" s="86">
-        <v>42</v>
-      </c>
-      <c r="I13" s="86">
-        <v>60</v>
-      </c>
-      <c r="J13" s="86">
-        <v>32</v>
-      </c>
-      <c r="K13" s="89">
-        <v>42217</v>
-      </c>
-      <c r="L13" s="86">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="86"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="86" t="s">
-        <v>307</v>
-      </c>
-      <c r="B15" s="86" t="s">
-        <v>283</v>
-      </c>
-      <c r="C15" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86">
-        <v>2399</v>
-      </c>
-      <c r="G15" s="89">
-        <v>42235</v>
-      </c>
-      <c r="H15" s="86">
-        <v>830</v>
-      </c>
-      <c r="I15" s="86">
-        <v>837</v>
-      </c>
-      <c r="J15" s="86">
-        <v>826</v>
-      </c>
-      <c r="K15" s="89">
-        <v>42242</v>
-      </c>
-      <c r="L15" s="86">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    <row r="15" spans="1:12" s="90" customFormat="1">
+      <c r="A15" s="86"/>
+      <c r="G15" s="91"/>
+      <c r="K15" s="91"/>
+    </row>
+    <row r="16" spans="1:12" s="90" customFormat="1">
       <c r="A16" s="86" t="s">
         <v>307</v>
       </c>
-      <c r="B16" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="D16" s="86" t="s">
+      <c r="B16" s="90" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86">
-        <v>2147</v>
-      </c>
-      <c r="G16" s="89">
-        <v>42197</v>
-      </c>
-      <c r="H16" s="86">
-        <v>293.5</v>
-      </c>
-      <c r="I16" s="86">
-        <v>297</v>
-      </c>
-      <c r="J16" s="86">
-        <v>292</v>
-      </c>
-      <c r="K16" s="89">
-        <v>42216</v>
-      </c>
-      <c r="L16" s="86">
-        <v>294.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="F16" s="90">
+        <v>7900</v>
+      </c>
+      <c r="G16" s="91">
+        <v>42224</v>
+      </c>
+      <c r="H16" s="90">
+        <v>35</v>
+      </c>
+      <c r="I16" s="90">
+        <v>45</v>
+      </c>
+      <c r="J16" s="90">
+        <v>30</v>
+      </c>
+      <c r="K16" s="91">
+        <v>42230</v>
+      </c>
+      <c r="L16" s="90">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="90" customFormat="1">
       <c r="A17" s="86" t="s">
         <v>307</v>
       </c>
-      <c r="B17" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>313</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86">
-        <v>431.9</v>
-      </c>
-      <c r="G17" s="89">
-        <v>42373</v>
-      </c>
-      <c r="H17" s="86">
-        <v>140.9</v>
-      </c>
-      <c r="I17" s="86">
-        <v>140.9</v>
-      </c>
-      <c r="J17" s="86">
-        <f>H17*95%</f>
-        <v>133.85499999999999</v>
-      </c>
-      <c r="K17" s="89">
-        <v>42375</v>
-      </c>
-      <c r="L17" s="86">
-        <v>140.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="B17" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="90">
+        <v>2600</v>
+      </c>
+      <c r="G17" s="91">
+        <v>42205</v>
+      </c>
+      <c r="H17" s="90">
+        <v>55</v>
+      </c>
+      <c r="I17" s="90">
+        <v>35</v>
+      </c>
+      <c r="J17" s="90">
+        <v>65</v>
+      </c>
+      <c r="K17" s="91">
+        <v>42219</v>
+      </c>
+      <c r="L17" s="90">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="90" customFormat="1">
       <c r="A18" s="86" t="s">
         <v>307</v>
       </c>
-      <c r="B18" s="86" t="s">
-        <v>286</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" s="86" t="s">
+      <c r="B18" s="90" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86">
-        <v>1362</v>
-      </c>
-      <c r="G18" s="89">
-        <v>42374</v>
-      </c>
-      <c r="H18" s="86">
-        <v>261.8</v>
-      </c>
-      <c r="I18" s="86">
-        <v>264.12</v>
-      </c>
-      <c r="J18" s="86">
-        <f>H18*95%</f>
-        <v>248.71</v>
-      </c>
-      <c r="K18" s="89">
-        <v>42374</v>
-      </c>
-      <c r="L18" s="86">
-        <v>264.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="F18" s="90">
+        <v>1800</v>
+      </c>
+      <c r="G18" s="91">
+        <v>42235</v>
+      </c>
+      <c r="H18" s="90">
+        <v>78</v>
+      </c>
+      <c r="I18" s="90">
+        <v>95</v>
+      </c>
+      <c r="J18" s="90">
+        <v>68</v>
+      </c>
+      <c r="K18" s="91">
+        <v>42242</v>
+      </c>
+      <c r="L18" s="90">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="90" customFormat="1">
       <c r="A19" s="86" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="90" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="90">
+        <v>525</v>
+      </c>
+      <c r="G19" s="91">
+        <v>42201</v>
+      </c>
+      <c r="H19" s="90">
+        <v>42</v>
+      </c>
+      <c r="I19" s="90">
+        <v>60</v>
+      </c>
+      <c r="J19" s="90">
+        <v>32</v>
+      </c>
+      <c r="K19" s="91">
+        <v>42217</v>
+      </c>
+      <c r="L19" s="90">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="90" customFormat="1">
+      <c r="A20" s="86"/>
+      <c r="G20" s="91"/>
+      <c r="K20" s="91"/>
+    </row>
+    <row r="21" spans="1:12" s="90" customFormat="1">
+      <c r="A21" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="90" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="90">
+        <v>2399</v>
+      </c>
+      <c r="G21" s="91">
+        <v>42235</v>
+      </c>
+      <c r="H21" s="90">
+        <v>830</v>
+      </c>
+      <c r="I21" s="90">
+        <v>837</v>
+      </c>
+      <c r="J21" s="90">
+        <v>826</v>
+      </c>
+      <c r="K21" s="91">
+        <v>42242</v>
+      </c>
+      <c r="L21" s="90">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="90" customFormat="1">
+      <c r="A22" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" s="90" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="90">
+        <v>2147</v>
+      </c>
+      <c r="G22" s="91">
+        <v>42197</v>
+      </c>
+      <c r="H22" s="90">
+        <v>293.5</v>
+      </c>
+      <c r="I22" s="90">
+        <v>297</v>
+      </c>
+      <c r="J22" s="90">
+        <v>292</v>
+      </c>
+      <c r="K22" s="91">
+        <v>42216</v>
+      </c>
+      <c r="L22" s="90">
+        <v>294.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="90" customFormat="1">
+      <c r="A23" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23" s="90" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="90" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="90">
+        <v>431.9</v>
+      </c>
+      <c r="G23" s="91">
+        <v>42373</v>
+      </c>
+      <c r="H23" s="90">
+        <v>140.9</v>
+      </c>
+      <c r="I23" s="90">
+        <v>140.9</v>
+      </c>
+      <c r="J23" s="90">
+        <f>H23*95%</f>
+        <v>133.85499999999999</v>
+      </c>
+      <c r="K23" s="91">
+        <v>42375</v>
+      </c>
+      <c r="L23" s="90">
+        <v>140.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="90" customFormat="1">
+      <c r="A24" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="90" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="90">
+        <v>1362</v>
+      </c>
+      <c r="G24" s="91">
+        <v>42374</v>
+      </c>
+      <c r="H24" s="90">
+        <v>261.8</v>
+      </c>
+      <c r="I24" s="90">
+        <v>264.12</v>
+      </c>
+      <c r="J24" s="90">
+        <f>H24*95%</f>
+        <v>248.71</v>
+      </c>
+      <c r="K24" s="91">
+        <v>42374</v>
+      </c>
+      <c r="L24" s="90">
+        <v>264.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="90" customFormat="1">
+      <c r="A25" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" s="86" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C25" s="86" t="s">
         <v>315</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D25" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="89">
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="89">
         <v>42375</v>
       </c>
-      <c r="H19" s="86">
+      <c r="H25" s="86">
         <v>327</v>
       </c>
-      <c r="I19" s="86">
+      <c r="I25" s="86">
         <v>331</v>
       </c>
-      <c r="J19" s="86">
-        <f>H19*95%</f>
+      <c r="J25" s="86">
+        <f>H25*95%</f>
         <v>310.64999999999998</v>
       </c>
-      <c r="K19" s="89">
+      <c r="K25" s="89">
         <v>42375</v>
       </c>
-      <c r="L19" s="86">
+      <c r="L25" s="86">
         <v>331</v>
       </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="86"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="86"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="86"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="86"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="1:12" s="90" customFormat="1">
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="G31" s="91"/>
+      <c r="K31" s="91"/>
+    </row>
+    <row r="32" spans="1:12" s="90" customFormat="1">
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="G32" s="91"/>
+      <c r="K32" s="91"/>
+    </row>
+    <row r="33" spans="1:12" s="90" customFormat="1">
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="G33" s="91"/>
+      <c r="K33" s="91"/>
+    </row>
+    <row r="34" spans="1:12" s="90" customFormat="1">
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="G34" s="91"/>
+      <c r="K34" s="91"/>
+    </row>
+    <row r="35" spans="1:12" s="90" customFormat="1">
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="G35" s="91"/>
+      <c r="K35" s="91"/>
+    </row>
+    <row r="36" spans="1:12" s="90" customFormat="1">
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="G36" s="91"/>
+      <c r="K36" s="91"/>
+    </row>
+    <row r="37" spans="1:12" s="90" customFormat="1">
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="G37" s="91"/>
+      <c r="K37" s="91"/>
+    </row>
+    <row r="38" spans="1:12" s="90" customFormat="1">
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="G38" s="91"/>
+      <c r="K38" s="91"/>
+    </row>
+    <row r="39" spans="1:12" s="90" customFormat="1">
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="G39" s="91"/>
+      <c r="K39" s="91"/>
+    </row>
+    <row r="40" spans="1:12" s="90" customFormat="1">
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="G40" s="91"/>
+      <c r="K40" s="91"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="86"/>
+    </row>
+    <row r="42" spans="1:12" s="90" customFormat="1">
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="G42" s="91"/>
+      <c r="K42" s="91"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
